--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED691E6-FCCE-494E-B37A-7857197496C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC13AEB-07EC-4DEE-AEB3-D79D3ECB585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="19245" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1094,91 +1094,91 @@
     <t>2020-02-24</t>
   </si>
   <si>
-    <t>2008-12:2023-09</t>
-  </si>
-  <si>
-    <t>2009-04:2023-09</t>
-  </si>
-  <si>
-    <t>2009-11:2023-09</t>
-  </si>
-  <si>
-    <t>2009-10:2023-09</t>
-  </si>
-  <si>
-    <t>2010-11:2023-09</t>
-  </si>
-  <si>
-    <t>2010-10:2023-09</t>
-  </si>
-  <si>
-    <t>2009-06:2023-09</t>
-  </si>
-  <si>
     <t>2008-12:2023-06</t>
   </si>
   <si>
-    <t>2011-07:2023-09</t>
+    <t>2023-07-25</t>
   </si>
   <si>
-    <t>2009-05:2023-09</t>
+    <t>2008-12:2023-10</t>
   </si>
   <si>
-    <t>2011-06:2023-09</t>
+    <t>2009-04:2023-10</t>
   </si>
   <si>
-    <t>2010-09:2023-09</t>
+    <t>2009-11:2023-10</t>
   </si>
   <si>
-    <t>2015-06:2023-09</t>
+    <t>2009-10:2023-10</t>
   </si>
   <si>
-    <t>2011-04:2023-09</t>
+    <t>2010-11:2023-10</t>
   </si>
   <si>
-    <t>2015-03:2023-09</t>
+    <t>2010-10:2023-10</t>
   </si>
   <si>
-    <t>2014-02:2023-09</t>
+    <t>2009-06:2023-10</t>
   </si>
   <si>
-    <t>2014-04:2023-09</t>
+    <t>2011-07:2023-10</t>
   </si>
   <si>
-    <t>2013-05:2023-09</t>
+    <t>2009-05:2023-10</t>
   </si>
   <si>
-    <t>2013-04:2023-09</t>
+    <t>2011-06:2023-10</t>
   </si>
   <si>
-    <t>2013-10:2023-09</t>
+    <t>2010-09:2023-10</t>
   </si>
   <si>
-    <t>2013-07:2023-09</t>
+    <t>2015-06:2023-10</t>
   </si>
   <si>
-    <t>2014-06:2023-09</t>
+    <t>2011-04:2023-10</t>
   </si>
   <si>
-    <t>2014-08:2023-09</t>
+    <t>2015-03:2023-10</t>
   </si>
   <si>
-    <t>2015-02:2023-09</t>
+    <t>2014-02:2023-10</t>
   </si>
   <si>
-    <t>2015-07:2023-09</t>
+    <t>2014-04:2023-10</t>
   </si>
   <si>
-    <t>2015-12:2023-09</t>
+    <t>2013-05:2023-10</t>
   </si>
   <si>
-    <t>2015-05:2023-09</t>
+    <t>2013-04:2023-10</t>
   </si>
   <si>
-    <t>2023-11-03</t>
+    <t>2013-10:2023-10</t>
   </si>
   <si>
-    <t>2023-07-25</t>
+    <t>2013-07:2023-10</t>
+  </si>
+  <si>
+    <t>2014-06:2023-10</t>
+  </si>
+  <si>
+    <t>2014-08:2023-10</t>
+  </si>
+  <si>
+    <t>2015-02:2023-10</t>
+  </si>
+  <si>
+    <t>2015-07:2023-10</t>
+  </si>
+  <si>
+    <t>2015-12:2023-10</t>
+  </si>
+  <si>
+    <t>2015-05:2023-10</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1186,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1230,6 +1230,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1238,9 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,9 +1579,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD164"/>
+  <dimension ref="A1:FD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1594,3381 +1594,3381 @@
       </c>
     </row>
     <row r="2" spans="1:160">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AM2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AO2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AR2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AS2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AT2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AU2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AV2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BA2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="3" t="s">
+      <c r="BB2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BC2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BD2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BE2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BG2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BJ2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BL2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BM2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="3" t="s">
+      <c r="BN2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BO2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BP2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BR2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BS2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BT2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BU2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BV2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BW2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BX2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BY2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="BZ2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CA2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CB2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CC2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CD2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CE2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CF2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CG2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CH2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CI2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CJ2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CK2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CL2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CM2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CN2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CO2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CP2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CQ2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CR2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" s="3" t="s">
+      <c r="CS2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" s="3" t="s">
+      <c r="CT2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" s="3" t="s">
+      <c r="CU2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="CV2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="CW2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="3" t="s">
+      <c r="CX2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="CY2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="CZ2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" s="3" t="s">
+      <c r="DA2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" s="3" t="s">
+      <c r="DB2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="DC2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="DD2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="DE2" s="3" t="s">
+      <c r="DE2" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="DF2" s="3" t="s">
+      <c r="DF2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DG2" s="3" t="s">
+      <c r="DG2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DH2" s="3" t="s">
+      <c r="DH2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DI2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DJ2" s="3" t="s">
+      <c r="DJ2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DK2" s="3" t="s">
+      <c r="DK2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DL2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DM2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DN2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DO2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DP2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DQ2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DR2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DS2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DT2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DU2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DV2" s="3" t="s">
+      <c r="DV2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="DW2" s="3" t="s">
+      <c r="DW2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="DX2" s="3" t="s">
+      <c r="DX2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="DY2" s="3" t="s">
+      <c r="DY2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="DZ2" s="3" t="s">
+      <c r="DZ2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="EA2" s="3" t="s">
+      <c r="EA2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="EB2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="EC2" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="ED2" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="EE2" s="3" t="s">
+      <c r="EE2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="EF2" s="3" t="s">
+      <c r="EF2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" s="3" t="s">
+      <c r="EG2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" s="3" t="s">
+      <c r="EH2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="EI2" s="3" t="s">
+      <c r="EI2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" s="3" t="s">
+      <c r="EJ2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="EK2" s="3" t="s">
+      <c r="EK2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" s="3" t="s">
+      <c r="EL2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" s="3" t="s">
+      <c r="EM2" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" s="3" t="s">
+      <c r="EN2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" s="3" t="s">
+      <c r="EO2" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="EP2" s="3" t="s">
+      <c r="EP2" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="EQ2" s="3" t="s">
+      <c r="EQ2" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" s="3" t="s">
+      <c r="ER2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" s="3" t="s">
+      <c r="ES2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" s="3" t="s">
+      <c r="ET2" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" s="3" t="s">
+      <c r="EU2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" s="3" t="s">
+      <c r="EV2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" s="3" t="s">
+      <c r="EW2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="EX2" s="3" t="s">
+      <c r="EX2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" s="3" t="s">
+      <c r="EY2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" s="3" t="s">
+      <c r="EZ2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" s="3" t="s">
+      <c r="FA2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" s="3" t="s">
+      <c r="FB2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="FC2" s="3" t="s">
+      <c r="FC2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" s="3" t="s">
+      <c r="FD2" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:160">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AF3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AK3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AO3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AR3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AS3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AT3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AU3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AW3" s="3" t="s">
+      <c r="AW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AY3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BF3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BG3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BI3" s="3" t="s">
+      <c r="BI3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BK3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BO3" s="3" t="s">
+      <c r="BO3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BR3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BS3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BT3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BU3" s="3" t="s">
+      <c r="BU3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="BW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="BX3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="BY3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CA3" s="3" t="s">
+      <c r="CA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CF3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CG3" s="3" t="s">
+      <c r="CG3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CI3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CJ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CK3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CO3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CQ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CR3" s="3" t="s">
+      <c r="CR3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CS3" s="3" t="s">
+      <c r="CS3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CT3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CU3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CX3" s="3" t="s">
+      <c r="CX3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CY3" s="3" t="s">
+      <c r="CY3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="CZ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DD3" s="3" t="s">
+      <c r="DD3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DF3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DG3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="DI3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DJ3" s="3" t="s">
+      <c r="DJ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DK3" s="3" t="s">
+      <c r="DK3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="DO3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DP3" s="3" t="s">
+      <c r="DP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DQ3" s="3" t="s">
+      <c r="DQ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DR3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DS3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DT3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="DU3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DV3" s="3" t="s">
+      <c r="DV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DW3" s="3" t="s">
+      <c r="DW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DX3" s="3" t="s">
+      <c r="DX3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="DY3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="DZ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="EA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EB3" s="3" t="s">
+      <c r="EB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EC3" s="3" t="s">
+      <c r="EC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="ED3" s="3" t="s">
+      <c r="ED3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EE3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EF3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EG3" s="3" t="s">
+      <c r="EG3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EH3" s="3" t="s">
+      <c r="EH3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EI3" s="3" t="s">
+      <c r="EI3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EJ3" s="3" t="s">
+      <c r="EJ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EK3" s="3" t="s">
+      <c r="EK3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="EL3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="EM3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EN3" s="3" t="s">
+      <c r="EN3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EO3" s="3" t="s">
+      <c r="EO3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EP3" s="3" t="s">
+      <c r="EP3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EQ3" s="3" t="s">
+      <c r="EQ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="ER3" s="3" t="s">
+      <c r="ER3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="ES3" s="3" t="s">
+      <c r="ES3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="ET3" s="3" t="s">
+      <c r="ET3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EU3" s="3" t="s">
+      <c r="EU3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EV3" s="3" t="s">
+      <c r="EV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EW3" s="3" t="s">
+      <c r="EW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EX3" s="3" t="s">
+      <c r="EX3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EY3" s="3" t="s">
+      <c r="EY3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="EZ3" s="3" t="s">
+      <c r="EZ3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FA3" s="3" t="s">
+      <c r="FA3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FB3" s="3" t="s">
+      <c r="FB3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FC3" s="3" t="s">
+      <c r="FC3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="FD3" s="3" t="s">
+      <c r="FD3" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:160">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AD4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AK4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AL4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AM4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AN4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AO4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AR4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AS4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AT4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AU4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AV4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AW4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AX4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AY4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="AZ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BD4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BE4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BF4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BG4" s="3" t="s">
+      <c r="BG4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BI4" s="3" t="s">
+      <c r="BI4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BL4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BM4" s="3" t="s">
+      <c r="BM4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BN4" s="3" t="s">
+      <c r="BN4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BO4" s="3" t="s">
+      <c r="BO4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BQ4" s="3" t="s">
+      <c r="BQ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BR4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BS4" s="3" t="s">
+      <c r="BS4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BT4" s="3" t="s">
+      <c r="BT4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BU4" s="3" t="s">
+      <c r="BU4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BW4" s="3" t="s">
+      <c r="BW4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BX4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BY4" s="3" t="s">
+      <c r="BY4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="BZ4" s="3" t="s">
+      <c r="BZ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CA4" s="3" t="s">
+      <c r="CA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CC4" s="3" t="s">
+      <c r="CC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CD4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CE4" s="3" t="s">
+      <c r="CE4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CF4" s="3" t="s">
+      <c r="CF4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CG4" s="3" t="s">
+      <c r="CG4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CH4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CI4" s="3" t="s">
+      <c r="CI4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CJ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CK4" s="3" t="s">
+      <c r="CK4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CL4" s="3" t="s">
+      <c r="CL4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CM4" s="3" t="s">
+      <c r="CM4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CN4" s="3" t="s">
+      <c r="CN4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CO4" s="3" t="s">
+      <c r="CO4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CP4" s="3" t="s">
+      <c r="CP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CQ4" s="3" t="s">
+      <c r="CQ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CR4" s="3" t="s">
+      <c r="CR4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CS4" s="3" t="s">
+      <c r="CS4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CT4" s="3" t="s">
+      <c r="CT4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CU4" s="3" t="s">
+      <c r="CU4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CV4" s="3" t="s">
+      <c r="CV4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CW4" s="3" t="s">
+      <c r="CW4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CX4" s="3" t="s">
+      <c r="CX4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CY4" s="3" t="s">
+      <c r="CY4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="CZ4" s="3" t="s">
+      <c r="CZ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DA4" s="3" t="s">
+      <c r="DA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DB4" s="3" t="s">
+      <c r="DB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DC4" s="3" t="s">
+      <c r="DC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DD4" s="3" t="s">
+      <c r="DD4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DE4" s="3" t="s">
+      <c r="DE4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DF4" s="3" t="s">
+      <c r="DF4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DG4" s="3" t="s">
+      <c r="DG4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DH4" s="3" t="s">
+      <c r="DH4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DI4" s="3" t="s">
+      <c r="DI4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DJ4" s="3" t="s">
+      <c r="DJ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DK4" s="3" t="s">
+      <c r="DK4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DL4" s="3" t="s">
+      <c r="DL4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DM4" s="3" t="s">
+      <c r="DM4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DN4" s="3" t="s">
+      <c r="DN4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DO4" s="3" t="s">
+      <c r="DO4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DP4" s="3" t="s">
+      <c r="DP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DQ4" s="3" t="s">
+      <c r="DQ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DR4" s="3" t="s">
+      <c r="DR4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DS4" s="3" t="s">
+      <c r="DS4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DT4" s="3" t="s">
+      <c r="DT4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DU4" s="3" t="s">
+      <c r="DU4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DV4" s="3" t="s">
+      <c r="DV4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DW4" s="3" t="s">
+      <c r="DW4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DX4" s="3" t="s">
+      <c r="DX4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DY4" s="3" t="s">
+      <c r="DY4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="DZ4" s="3" t="s">
+      <c r="DZ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EA4" s="3" t="s">
+      <c r="EA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EB4" s="3" t="s">
+      <c r="EB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EC4" s="3" t="s">
+      <c r="EC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="ED4" s="3" t="s">
+      <c r="ED4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EE4" s="3" t="s">
+      <c r="EE4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EF4" s="3" t="s">
+      <c r="EF4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EG4" s="3" t="s">
+      <c r="EG4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EH4" s="3" t="s">
+      <c r="EH4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EI4" s="3" t="s">
+      <c r="EI4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EJ4" s="3" t="s">
+      <c r="EJ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EK4" s="3" t="s">
+      <c r="EK4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EL4" s="3" t="s">
+      <c r="EL4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EM4" s="3" t="s">
+      <c r="EM4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EN4" s="3" t="s">
+      <c r="EN4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EO4" s="3" t="s">
+      <c r="EO4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EP4" s="3" t="s">
+      <c r="EP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EQ4" s="3" t="s">
+      <c r="EQ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="ER4" s="3" t="s">
+      <c r="ER4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="ES4" s="3" t="s">
+      <c r="ES4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="ET4" s="3" t="s">
+      <c r="ET4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EU4" s="3" t="s">
+      <c r="EU4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EV4" s="3" t="s">
+      <c r="EV4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EW4" s="3" t="s">
+      <c r="EW4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EX4" s="3" t="s">
+      <c r="EX4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EY4" s="3" t="s">
+      <c r="EY4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="EZ4" s="3" t="s">
+      <c r="EZ4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FA4" s="3" t="s">
+      <c r="FA4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FB4" s="3" t="s">
+      <c r="FB4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FC4" s="3" t="s">
+      <c r="FC4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="FD4" s="3" t="s">
+      <c r="FD4" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:160">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Y5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AB5" s="3" t="s">
+      <c r="AB5" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AC5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AF5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AJ5" s="3" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AK5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AL5" s="3" t="s">
+      <c r="AL5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AM5" s="3" t="s">
+      <c r="AM5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AN5" s="3" t="s">
+      <c r="AN5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AO5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AP5" s="3" t="s">
+      <c r="AP5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AQ5" s="3" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AR5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AS5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AT5" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AU5" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AV5" s="3" t="s">
+      <c r="AV5" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AW5" s="3" t="s">
+      <c r="AW5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AX5" s="3" t="s">
+      <c r="AX5" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AY5" s="3" t="s">
+      <c r="AY5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AZ5" s="3" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="BA5" s="3" t="s">
+      <c r="BA5" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="BD5" s="3" t="s">
+      <c r="BD5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="BE5" s="3" t="s">
+      <c r="BE5" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BF5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="BG5" s="3" t="s">
+      <c r="BG5" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="BI5" s="3" t="s">
+      <c r="BI5" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="BJ5" s="3" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="BL5" s="3" t="s">
+      <c r="BL5" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="BM5" s="3" t="s">
+      <c r="BM5" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="BN5" s="3" t="s">
+      <c r="BN5" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="BO5" s="3" t="s">
+      <c r="BO5" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="BP5" s="3" t="s">
+      <c r="BP5" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="BQ5" s="3" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="BR5" s="3" t="s">
+      <c r="BR5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="BS5" s="3" t="s">
+      <c r="BS5" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BT5" s="3" t="s">
+      <c r="BT5" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="BU5" s="3" t="s">
+      <c r="BU5" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BV5" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="BW5" s="3" t="s">
+      <c r="BW5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="BX5" s="3" t="s">
+      <c r="BX5" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="BY5" s="3" t="s">
+      <c r="BY5" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="BZ5" s="3" t="s">
+      <c r="BZ5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="CA5" s="3" t="s">
+      <c r="CA5" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="CB5" s="3" t="s">
+      <c r="CB5" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="CC5" s="3" t="s">
+      <c r="CC5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="CD5" s="3" t="s">
+      <c r="CD5" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="CE5" s="3" t="s">
+      <c r="CE5" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="CF5" s="3" t="s">
+      <c r="CF5" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="CG5" s="3" t="s">
+      <c r="CG5" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="CH5" s="3" t="s">
+      <c r="CH5" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="CI5" s="3" t="s">
+      <c r="CI5" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="CJ5" s="3" t="s">
+      <c r="CJ5" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="CK5" s="3" t="s">
+      <c r="CK5" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="CL5" s="3" t="s">
+      <c r="CL5" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="CM5" s="3" t="s">
+      <c r="CM5" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="CN5" s="3" t="s">
+      <c r="CN5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="CO5" s="3" t="s">
+      <c r="CO5" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="CP5" s="3" t="s">
+      <c r="CP5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="CQ5" s="3" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="CR5" s="3" t="s">
+      <c r="CR5" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="CS5" s="3" t="s">
+      <c r="CS5" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="CT5" s="3" t="s">
+      <c r="CT5" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="CU5" s="3" t="s">
+      <c r="CU5" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CV5" s="3" t="s">
+      <c r="CV5" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="CW5" s="3" t="s">
+      <c r="CW5" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="CX5" s="3" t="s">
+      <c r="CX5" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="CY5" s="3" t="s">
+      <c r="CY5" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="CZ5" s="3" t="s">
+      <c r="CZ5" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="DA5" s="3" t="s">
+      <c r="DA5" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="DB5" s="3" t="s">
+      <c r="DB5" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="DC5" s="3" t="s">
+      <c r="DC5" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="DD5" s="3" t="s">
+      <c r="DD5" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="DE5" s="3" t="s">
+      <c r="DE5" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="DF5" s="3" t="s">
+      <c r="DF5" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="DG5" s="3" t="s">
+      <c r="DG5" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="DH5" s="3" t="s">
+      <c r="DH5" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="DI5" s="3" t="s">
+      <c r="DI5" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="DJ5" s="3" t="s">
+      <c r="DJ5" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="DK5" s="3" t="s">
+      <c r="DK5" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="DL5" s="3" t="s">
+      <c r="DL5" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="DM5" s="3" t="s">
+      <c r="DM5" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="DN5" s="3" t="s">
+      <c r="DN5" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="DO5" s="3" t="s">
+      <c r="DO5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="DP5" s="3" t="s">
+      <c r="DP5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="DQ5" s="3" t="s">
+      <c r="DQ5" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="DR5" s="3" t="s">
+      <c r="DR5" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="DS5" s="3" t="s">
+      <c r="DS5" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="DT5" s="3" t="s">
+      <c r="DT5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="DU5" s="3" t="s">
+      <c r="DU5" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="DV5" s="3" t="s">
+      <c r="DV5" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="DW5" s="3" t="s">
+      <c r="DW5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="DX5" s="3" t="s">
+      <c r="DX5" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="DY5" s="3" t="s">
+      <c r="DY5" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="DZ5" s="3" t="s">
+      <c r="DZ5" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="EA5" s="3" t="s">
+      <c r="EA5" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="EB5" s="3" t="s">
+      <c r="EB5" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="EC5" s="3" t="s">
+      <c r="EC5" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="ED5" s="3" t="s">
+      <c r="ED5" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="EE5" s="3" t="s">
+      <c r="EE5" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="EF5" s="3" t="s">
+      <c r="EF5" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="EG5" s="3" t="s">
+      <c r="EG5" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="EH5" s="3" t="s">
+      <c r="EH5" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="EI5" s="3" t="s">
+      <c r="EI5" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="EJ5" s="3" t="s">
+      <c r="EJ5" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="EK5" s="3" t="s">
+      <c r="EK5" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="EL5" s="3" t="s">
+      <c r="EL5" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="EM5" s="3" t="s">
+      <c r="EM5" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="EN5" s="3" t="s">
+      <c r="EN5" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="EO5" s="3" t="s">
+      <c r="EO5" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="EP5" s="3" t="s">
+      <c r="EP5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="EQ5" s="3" t="s">
+      <c r="EQ5" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="ER5" s="3" t="s">
+      <c r="ER5" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="ES5" s="3" t="s">
+      <c r="ES5" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="ET5" s="3" t="s">
+      <c r="ET5" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="EU5" s="3" t="s">
+      <c r="EU5" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="EV5" s="3" t="s">
+      <c r="EV5" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="EW5" s="3" t="s">
+      <c r="EW5" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="EX5" s="3" t="s">
+      <c r="EX5" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="EY5" s="3" t="s">
+      <c r="EY5" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="EZ5" s="3" t="s">
+      <c r="EZ5" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="FA5" s="3" t="s">
+      <c r="FA5" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="FB5" s="3" t="s">
+      <c r="FB5" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="FC5" s="3" t="s">
+      <c r="FC5" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="FD5" s="3" t="s">
+      <c r="FD5" s="4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:160">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BH6" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="BI6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="CO6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CP6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="CT6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="CU6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CV6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CW6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CX6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CY6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CZ6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="DA6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DB6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DC6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DD6" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="DE6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="DF6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DG6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="DH6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DI6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="DJ6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DK6" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="DL6" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="DM6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="DN6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="DO6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="DP6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BJ6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BK6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="BL6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BM6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BN6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BO6" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="BP6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="BQ6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BR6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="BS6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BT6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BU6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BV6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BW6" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="BX6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BY6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="BZ6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="CA6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CB6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CC6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CE6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="CF6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CH6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="CI6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="CJ6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="CK6" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="CL6" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="CM6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CN6" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="CO6" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="CP6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CQ6" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="CR6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="CS6" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="CT6" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="CU6" s="3" t="s">
+      <c r="DQ6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CV6" s="3" t="s">
+      <c r="DR6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CW6" s="3" t="s">
+      <c r="DS6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CX6" s="3" t="s">
+      <c r="DT6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CY6" s="3" t="s">
+      <c r="DU6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="CZ6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="DA6" s="3" t="s">
+      <c r="DV6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="DB6" s="3" t="s">
+      <c r="DW6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="DC6" s="3" t="s">
+      <c r="DX6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="DD6" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="DE6" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="DF6" s="3" t="s">
+      <c r="DY6" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="DG6" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="DH6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DI6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="DJ6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DK6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DL6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="DM6" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="DN6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="DO6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="DP6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DQ6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DR6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DS6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DT6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DU6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DV6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DW6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DX6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DY6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DZ6" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="EA6" s="3" t="s">
+      <c r="DZ6" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="EB6" s="3" t="s">
+      <c r="EA6" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="EC6" s="3" t="s">
+      <c r="EB6" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="ED6" s="3" t="s">
+      <c r="EC6" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="EE6" s="3" t="s">
+      <c r="ED6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="EG6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="EH6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EI6" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="EF6" s="3" t="s">
+      <c r="EJ6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EK6" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="EG6" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="EH6" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="EI6" s="3" t="s">
+      <c r="EL6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="EJ6" s="3" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="ET6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EK6" s="3" t="s">
+      <c r="EU6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="EL6" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="EM6" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="EN6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="EO6" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="EP6" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="EQ6" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="ER6" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="ES6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="ET6" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="EU6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="EV6" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="EW6" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="EX6" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="EY6" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="EZ6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FA6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FB6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FC6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="FD6" s="3" t="s">
-        <v>363</v>
+      <c r="EY6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="FA6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="FB6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="FC6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="FD6" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:160">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AI7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AJ7" s="3" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AK7" s="3" t="s">
+      <c r="AK7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AL7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AM7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AN7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AO7" s="3" t="s">
+      <c r="AO7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AP7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AR7" s="3" t="s">
+      <c r="AR7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AS7" s="3" t="s">
+      <c r="AS7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AT7" s="3" t="s">
+      <c r="AT7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AU7" s="3" t="s">
+      <c r="AU7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AV7" s="3" t="s">
+      <c r="AV7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AW7" s="3" t="s">
+      <c r="AW7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AX7" s="3" t="s">
+      <c r="AX7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AY7" s="3" t="s">
+      <c r="AY7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AZ7" s="3" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BA7" s="3" t="s">
+      <c r="BA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BD7" s="3" t="s">
+      <c r="BD7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BE7" s="3" t="s">
+      <c r="BE7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BF7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BG7" s="3" t="s">
+      <c r="BG7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BH7" s="3" t="s">
+      <c r="BH7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BI7" s="3" t="s">
+      <c r="BI7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BJ7" s="3" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BK7" s="3" t="s">
+      <c r="BK7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BL7" s="3" t="s">
+      <c r="BL7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BM7" s="3" t="s">
+      <c r="BM7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BN7" s="3" t="s">
+      <c r="BN7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BO7" s="3" t="s">
+      <c r="BO7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BP7" s="3" t="s">
+      <c r="BP7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BQ7" s="3" t="s">
+      <c r="BQ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BR7" s="3" t="s">
+      <c r="BR7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BS7" s="3" t="s">
+      <c r="BS7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BT7" s="3" t="s">
+      <c r="BT7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BU7" s="3" t="s">
+      <c r="BU7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BV7" s="3" t="s">
+      <c r="BV7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BW7" s="3" t="s">
+      <c r="BW7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BX7" s="3" t="s">
+      <c r="BX7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BY7" s="3" t="s">
+      <c r="BY7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="BZ7" s="3" t="s">
+      <c r="BZ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CA7" s="3" t="s">
+      <c r="CA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CB7" s="3" t="s">
+      <c r="CB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CC7" s="3" t="s">
+      <c r="CC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CD7" s="3" t="s">
+      <c r="CD7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CE7" s="3" t="s">
+      <c r="CE7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CF7" s="3" t="s">
+      <c r="CF7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CG7" s="3" t="s">
+      <c r="CG7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CH7" s="3" t="s">
+      <c r="CH7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CI7" s="3" t="s">
+      <c r="CI7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CJ7" s="3" t="s">
+      <c r="CJ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CK7" s="3" t="s">
+      <c r="CK7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CL7" s="3" t="s">
+      <c r="CL7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CM7" s="3" t="s">
+      <c r="CM7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CN7" s="3" t="s">
+      <c r="CN7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CO7" s="3" t="s">
+      <c r="CO7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CP7" s="3" t="s">
+      <c r="CP7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CQ7" s="3" t="s">
+      <c r="CQ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CR7" s="3" t="s">
+      <c r="CR7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CS7" s="3" t="s">
+      <c r="CS7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CT7" s="3" t="s">
+      <c r="CT7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CU7" s="3" t="s">
+      <c r="CU7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CV7" s="3" t="s">
+      <c r="CV7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CW7" s="3" t="s">
+      <c r="CW7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CX7" s="3" t="s">
+      <c r="CX7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CY7" s="3" t="s">
+      <c r="CY7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="CZ7" s="3" t="s">
+      <c r="CZ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DA7" s="3" t="s">
+      <c r="DA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DB7" s="3" t="s">
+      <c r="DB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DC7" s="3" t="s">
+      <c r="DC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DD7" s="3" t="s">
+      <c r="DD7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DE7" s="3" t="s">
+      <c r="DE7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DF7" s="3" t="s">
+      <c r="DF7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DG7" s="3" t="s">
+      <c r="DG7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DH7" s="3" t="s">
+      <c r="DH7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DI7" s="3" t="s">
+      <c r="DI7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DJ7" s="3" t="s">
+      <c r="DJ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DK7" s="3" t="s">
+      <c r="DK7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DL7" s="3" t="s">
+      <c r="DL7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DM7" s="3" t="s">
+      <c r="DM7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DN7" s="3" t="s">
+      <c r="DN7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DO7" s="3" t="s">
+      <c r="DO7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DP7" s="3" t="s">
+      <c r="DP7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DQ7" s="3" t="s">
+      <c r="DQ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DR7" s="3" t="s">
+      <c r="DR7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DS7" s="3" t="s">
+      <c r="DS7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DT7" s="3" t="s">
+      <c r="DT7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DU7" s="3" t="s">
+      <c r="DU7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DV7" s="3" t="s">
+      <c r="DV7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DW7" s="3" t="s">
+      <c r="DW7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DX7" s="3" t="s">
+      <c r="DX7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DY7" s="3" t="s">
+      <c r="DY7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="DZ7" s="3" t="s">
+      <c r="DZ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EA7" s="3" t="s">
+      <c r="EA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EB7" s="3" t="s">
+      <c r="EB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EC7" s="3" t="s">
+      <c r="EC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="ED7" s="3" t="s">
+      <c r="ED7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EE7" s="3" t="s">
+      <c r="EE7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EF7" s="3" t="s">
+      <c r="EF7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EG7" s="3" t="s">
+      <c r="EG7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EH7" s="3" t="s">
+      <c r="EH7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EI7" s="3" t="s">
+      <c r="EI7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EJ7" s="3" t="s">
+      <c r="EJ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EK7" s="3" t="s">
+      <c r="EK7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EL7" s="3" t="s">
+      <c r="EL7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EM7" s="3" t="s">
+      <c r="EM7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EN7" s="3" t="s">
+      <c r="EN7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EO7" s="3" t="s">
+      <c r="EO7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EP7" s="3" t="s">
+      <c r="EP7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EQ7" s="3" t="s">
+      <c r="EQ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="ER7" s="3" t="s">
+      <c r="ER7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="ES7" s="3" t="s">
+      <c r="ES7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="ET7" s="3" t="s">
+      <c r="ET7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EU7" s="3" t="s">
+      <c r="EU7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EV7" s="3" t="s">
+      <c r="EV7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EW7" s="3" t="s">
+      <c r="EW7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EX7" s="3" t="s">
+      <c r="EX7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EY7" s="3" t="s">
+      <c r="EY7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="EZ7" s="3" t="s">
+      <c r="EZ7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="FA7" s="3" t="s">
+      <c r="FA7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="FB7" s="3" t="s">
+      <c r="FB7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="FC7" s="3" t="s">
+      <c r="FC7" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="FD7" s="3" t="s">
+      <c r="FD7" s="4" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:160">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="U8" s="4" t="s">
+      <c r="M8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF8" s="4" t="s">
+      <c r="V8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AG8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI8" s="4" t="s">
+      <c r="AG8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="AJ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AN8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AO8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AR8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AS8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AT8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AV8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AW8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AY8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AZ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BA8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BB8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BC8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BD8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BE8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BF8" s="4" t="s">
+      <c r="AJ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BF8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="BG8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BH8" s="4" t="s">
+      <c r="BG8" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="BI8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BK8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BL8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BM8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BN8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BO8" s="4" t="s">
+      <c r="BH8" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BP8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BQ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BR8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BS8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BT8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BU8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BV8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BW8" s="4" t="s">
+      <c r="BP8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BX8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BY8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BZ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CA8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CB8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CC8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CD8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CE8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CF8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CG8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CH8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CI8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CJ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CK8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CL8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CM8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CN8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CO8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CP8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CQ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CR8" s="4" t="s">
+      <c r="BX8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CR8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="CS8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CT8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="CU8" s="4" t="s">
+      <c r="CS8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="CU8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="CV8" s="4" t="s">
+      <c r="CV8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="CW8" s="4" t="s">
+      <c r="CW8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="CX8" s="4" t="s">
+      <c r="CX8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="CY8" s="4" t="s">
+      <c r="CY8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="CZ8" s="4" t="s">
+      <c r="CZ8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="DA8" s="4" t="s">
+      <c r="DA8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DB8" s="4" t="s">
+      <c r="DB8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DC8" s="4" t="s">
+      <c r="DC8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DD8" s="4" t="s">
+      <c r="DD8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="DE8" s="4" t="s">
+      <c r="DE8" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="DF8" s="4" t="s">
+      <c r="DF8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DG8" s="4" t="s">
+      <c r="DG8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="DH8" s="4" t="s">
+      <c r="DH8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DI8" s="4" t="s">
+      <c r="DI8" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DJ8" s="4" t="s">
+      <c r="DJ8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DK8" s="4" t="s">
+      <c r="DK8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DL8" s="4" t="s">
+      <c r="DL8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DM8" s="4" t="s">
+      <c r="DM8" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="DN8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="DO8" s="4" t="s">
+      <c r="DN8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="DO8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DP8" s="4" t="s">
+      <c r="DP8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DQ8" s="4" t="s">
+      <c r="DQ8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DR8" s="4" t="s">
+      <c r="DR8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DS8" s="4" t="s">
+      <c r="DS8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DT8" s="4" t="s">
+      <c r="DT8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DU8" s="4" t="s">
+      <c r="DU8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DV8" s="4" t="s">
+      <c r="DV8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DW8" s="4" t="s">
+      <c r="DW8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DX8" s="4" t="s">
+      <c r="DX8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DY8" s="4" t="s">
+      <c r="DY8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="DZ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EA8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EB8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EC8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="ED8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EE8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EF8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EG8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EH8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EI8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EJ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EK8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EL8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EM8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EN8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EO8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EP8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EQ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="ER8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="ES8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="ET8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EU8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EV8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EW8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EX8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EY8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EZ8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="FA8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="FB8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="FC8" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="FD8" s="4" t="s">
-        <v>372</v>
+      <c r="DZ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EA8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EB8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EC8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="ED8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EE8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EF8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EG8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EH8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EI8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EJ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EK8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EL8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EM8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EN8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EO8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EP8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EQ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="ES8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="ET8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EU8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EV8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EW8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EX8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EY8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="EZ8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="FA8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="FB8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="FC8" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="FD8" s="5" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:160">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>39813</v>
       </c>
       <c r="B9" s="2">
@@ -5450,7 +5450,7 @@
       </c>
     </row>
     <row r="10" spans="1:160">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>39933</v>
       </c>
       <c r="B10" s="2">
@@ -5932,7 +5932,7 @@
       </c>
     </row>
     <row r="11" spans="1:160">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>39964</v>
       </c>
       <c r="B11" s="2">
@@ -6414,7 +6414,7 @@
       </c>
     </row>
     <row r="12" spans="1:160">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>39994</v>
       </c>
       <c r="B12" s="2">
@@ -6896,7 +6896,7 @@
       </c>
     </row>
     <row r="13" spans="1:160">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>40025</v>
       </c>
       <c r="B13" s="2">
@@ -7378,7 +7378,7 @@
       </c>
     </row>
     <row r="14" spans="1:160">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>40056</v>
       </c>
       <c r="B14" s="2">
@@ -7860,7 +7860,7 @@
       </c>
     </row>
     <row r="15" spans="1:160">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>40086</v>
       </c>
       <c r="B15" s="2">
@@ -8342,7 +8342,7 @@
       </c>
     </row>
     <row r="16" spans="1:160">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>40117</v>
       </c>
       <c r="B16" s="2">
@@ -8824,7 +8824,7 @@
       </c>
     </row>
     <row r="17" spans="1:160">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>40147</v>
       </c>
       <c r="B17" s="2">
@@ -9306,7 +9306,7 @@
       </c>
     </row>
     <row r="18" spans="1:160">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>40237</v>
       </c>
       <c r="B18" s="2">
@@ -9788,7 +9788,7 @@
       </c>
     </row>
     <row r="19" spans="1:160">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>40268</v>
       </c>
       <c r="B19" s="2">
@@ -10270,7 +10270,7 @@
       </c>
     </row>
     <row r="20" spans="1:160">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>40298</v>
       </c>
       <c r="B20" s="2">
@@ -10752,7 +10752,7 @@
       </c>
     </row>
     <row r="21" spans="1:160">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>40329</v>
       </c>
       <c r="B21" s="2">
@@ -11234,7 +11234,7 @@
       </c>
     </row>
     <row r="22" spans="1:160">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>40359</v>
       </c>
       <c r="B22" s="2">
@@ -11716,7 +11716,7 @@
       </c>
     </row>
     <row r="23" spans="1:160">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>40390</v>
       </c>
       <c r="B23" s="2">
@@ -12198,7 +12198,7 @@
       </c>
     </row>
     <row r="24" spans="1:160">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>40421</v>
       </c>
       <c r="B24" s="2">
@@ -12680,7 +12680,7 @@
       </c>
     </row>
     <row r="25" spans="1:160">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>40451</v>
       </c>
       <c r="B25" s="2">
@@ -13162,7 +13162,7 @@
       </c>
     </row>
     <row r="26" spans="1:160">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>40482</v>
       </c>
       <c r="B26" s="2">
@@ -13644,7 +13644,7 @@
       </c>
     </row>
     <row r="27" spans="1:160">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>40512</v>
       </c>
       <c r="B27" s="2">
@@ -14126,7 +14126,7 @@
       </c>
     </row>
     <row r="28" spans="1:160">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>40602</v>
       </c>
       <c r="B28" s="2">
@@ -14608,7 +14608,7 @@
       </c>
     </row>
     <row r="29" spans="1:160">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>40633</v>
       </c>
       <c r="B29" s="2">
@@ -15090,7 +15090,7 @@
       </c>
     </row>
     <row r="30" spans="1:160">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>40663</v>
       </c>
       <c r="B30" s="2">
@@ -15572,7 +15572,7 @@
       </c>
     </row>
     <row r="31" spans="1:160">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>40694</v>
       </c>
       <c r="B31" s="2">
@@ -16054,7 +16054,7 @@
       </c>
     </row>
     <row r="32" spans="1:160">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>40724</v>
       </c>
       <c r="B32" s="2">
@@ -16536,7 +16536,7 @@
       </c>
     </row>
     <row r="33" spans="1:160">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>40755</v>
       </c>
       <c r="B33" s="2">
@@ -17018,7 +17018,7 @@
       </c>
     </row>
     <row r="34" spans="1:160">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>40786</v>
       </c>
       <c r="B34" s="2">
@@ -17500,7 +17500,7 @@
       </c>
     </row>
     <row r="35" spans="1:160">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>40816</v>
       </c>
       <c r="B35" s="2">
@@ -17982,7 +17982,7 @@
       </c>
     </row>
     <row r="36" spans="1:160">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>40847</v>
       </c>
       <c r="B36" s="2">
@@ -18464,7 +18464,7 @@
       </c>
     </row>
     <row r="37" spans="1:160">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>40877</v>
       </c>
       <c r="B37" s="2">
@@ -18946,7 +18946,7 @@
       </c>
     </row>
     <row r="38" spans="1:160">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>40908</v>
       </c>
       <c r="B38" s="2">
@@ -19428,7 +19428,7 @@
       </c>
     </row>
     <row r="39" spans="1:160">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>40968</v>
       </c>
       <c r="B39" s="2">
@@ -19910,7 +19910,7 @@
       </c>
     </row>
     <row r="40" spans="1:160">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>40999</v>
       </c>
       <c r="B40" s="2">
@@ -20392,7 +20392,7 @@
       </c>
     </row>
     <row r="41" spans="1:160">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>41029</v>
       </c>
       <c r="B41" s="2">
@@ -20874,7 +20874,7 @@
       </c>
     </row>
     <row r="42" spans="1:160">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>41060</v>
       </c>
       <c r="B42" s="2">
@@ -21356,7 +21356,7 @@
       </c>
     </row>
     <row r="43" spans="1:160">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>41090</v>
       </c>
       <c r="B43" s="2">
@@ -21838,7 +21838,7 @@
       </c>
     </row>
     <row r="44" spans="1:160">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>41121</v>
       </c>
       <c r="B44" s="2">
@@ -22320,7 +22320,7 @@
       </c>
     </row>
     <row r="45" spans="1:160">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>41152</v>
       </c>
       <c r="B45" s="2">
@@ -22802,7 +22802,7 @@
       </c>
     </row>
     <row r="46" spans="1:160">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>41182</v>
       </c>
       <c r="B46" s="2">
@@ -23284,7 +23284,7 @@
       </c>
     </row>
     <row r="47" spans="1:160">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>41213</v>
       </c>
       <c r="B47" s="2">
@@ -23766,7 +23766,7 @@
       </c>
     </row>
     <row r="48" spans="1:160">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>41243</v>
       </c>
       <c r="B48" s="2">
@@ -24248,7 +24248,7 @@
       </c>
     </row>
     <row r="49" spans="1:160">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>41274</v>
       </c>
       <c r="B49" s="2">
@@ -24730,7 +24730,7 @@
       </c>
     </row>
     <row r="50" spans="1:160">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>41333</v>
       </c>
       <c r="B50" s="2">
@@ -25212,7 +25212,7 @@
       </c>
     </row>
     <row r="51" spans="1:160">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>41364</v>
       </c>
       <c r="B51" s="2">
@@ -25694,7 +25694,7 @@
       </c>
     </row>
     <row r="52" spans="1:160">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>41394</v>
       </c>
       <c r="B52" s="2">
@@ -26176,7 +26176,7 @@
       </c>
     </row>
     <row r="53" spans="1:160">
-      <c r="A53" s="5">
+      <c r="A53" s="3">
         <v>41425</v>
       </c>
       <c r="B53" s="2">
@@ -26658,7 +26658,7 @@
       </c>
     </row>
     <row r="54" spans="1:160">
-      <c r="A54" s="5">
+      <c r="A54" s="3">
         <v>41455</v>
       </c>
       <c r="B54" s="2">
@@ -27140,7 +27140,7 @@
       </c>
     </row>
     <row r="55" spans="1:160">
-      <c r="A55" s="5">
+      <c r="A55" s="3">
         <v>41486</v>
       </c>
       <c r="B55" s="2">
@@ -27622,7 +27622,7 @@
       </c>
     </row>
     <row r="56" spans="1:160">
-      <c r="A56" s="5">
+      <c r="A56" s="3">
         <v>41517</v>
       </c>
       <c r="B56" s="2">
@@ -28104,7 +28104,7 @@
       </c>
     </row>
     <row r="57" spans="1:160">
-      <c r="A57" s="5">
+      <c r="A57" s="3">
         <v>41547</v>
       </c>
       <c r="B57" s="2">
@@ -28586,7 +28586,7 @@
       </c>
     </row>
     <row r="58" spans="1:160">
-      <c r="A58" s="5">
+      <c r="A58" s="3">
         <v>41578</v>
       </c>
       <c r="B58" s="2">
@@ -29068,7 +29068,7 @@
       </c>
     </row>
     <row r="59" spans="1:160">
-      <c r="A59" s="5">
+      <c r="A59" s="3">
         <v>41608</v>
       </c>
       <c r="B59" s="2">
@@ -29550,7 +29550,7 @@
       </c>
     </row>
     <row r="60" spans="1:160">
-      <c r="A60" s="5">
+      <c r="A60" s="3">
         <v>41698</v>
       </c>
       <c r="B60" s="2">
@@ -30032,7 +30032,7 @@
       </c>
     </row>
     <row r="61" spans="1:160">
-      <c r="A61" s="5">
+      <c r="A61" s="3">
         <v>41729</v>
       </c>
       <c r="B61" s="2">
@@ -30514,7 +30514,7 @@
       </c>
     </row>
     <row r="62" spans="1:160">
-      <c r="A62" s="5">
+      <c r="A62" s="3">
         <v>41759</v>
       </c>
       <c r="B62" s="2">
@@ -30996,7 +30996,7 @@
       </c>
     </row>
     <row r="63" spans="1:160">
-      <c r="A63" s="5">
+      <c r="A63" s="3">
         <v>41790</v>
       </c>
       <c r="B63" s="2">
@@ -31478,7 +31478,7 @@
       </c>
     </row>
     <row r="64" spans="1:160">
-      <c r="A64" s="5">
+      <c r="A64" s="3">
         <v>41820</v>
       </c>
       <c r="B64" s="2">
@@ -31960,7 +31960,7 @@
       </c>
     </row>
     <row r="65" spans="1:160">
-      <c r="A65" s="5">
+      <c r="A65" s="3">
         <v>41851</v>
       </c>
       <c r="B65" s="2">
@@ -32442,7 +32442,7 @@
       </c>
     </row>
     <row r="66" spans="1:160">
-      <c r="A66" s="5">
+      <c r="A66" s="3">
         <v>41882</v>
       </c>
       <c r="B66" s="2">
@@ -32924,7 +32924,7 @@
       </c>
     </row>
     <row r="67" spans="1:160">
-      <c r="A67" s="5">
+      <c r="A67" s="3">
         <v>41912</v>
       </c>
       <c r="B67" s="2">
@@ -33406,7 +33406,7 @@
       </c>
     </row>
     <row r="68" spans="1:160">
-      <c r="A68" s="5">
+      <c r="A68" s="3">
         <v>41943</v>
       </c>
       <c r="B68" s="2">
@@ -33888,7 +33888,7 @@
       </c>
     </row>
     <row r="69" spans="1:160">
-      <c r="A69" s="5">
+      <c r="A69" s="3">
         <v>41973</v>
       </c>
       <c r="B69" s="2">
@@ -34370,7 +34370,7 @@
       </c>
     </row>
     <row r="70" spans="1:160">
-      <c r="A70" s="5">
+      <c r="A70" s="3">
         <v>42063</v>
       </c>
       <c r="B70" s="2">
@@ -34852,7 +34852,7 @@
       </c>
     </row>
     <row r="71" spans="1:160">
-      <c r="A71" s="5">
+      <c r="A71" s="3">
         <v>42094</v>
       </c>
       <c r="B71" s="2">
@@ -35334,7 +35334,7 @@
       </c>
     </row>
     <row r="72" spans="1:160">
-      <c r="A72" s="5">
+      <c r="A72" s="3">
         <v>42124</v>
       </c>
       <c r="B72" s="2">
@@ -35816,7 +35816,7 @@
       </c>
     </row>
     <row r="73" spans="1:160">
-      <c r="A73" s="5">
+      <c r="A73" s="3">
         <v>42155</v>
       </c>
       <c r="B73" s="2">
@@ -36298,7 +36298,7 @@
       </c>
     </row>
     <row r="74" spans="1:160">
-      <c r="A74" s="5">
+      <c r="A74" s="3">
         <v>42185</v>
       </c>
       <c r="B74" s="2">
@@ -36780,7 +36780,7 @@
       </c>
     </row>
     <row r="75" spans="1:160">
-      <c r="A75" s="5">
+      <c r="A75" s="3">
         <v>42216</v>
       </c>
       <c r="B75" s="2">
@@ -37262,7 +37262,7 @@
       </c>
     </row>
     <row r="76" spans="1:160">
-      <c r="A76" s="5">
+      <c r="A76" s="3">
         <v>42247</v>
       </c>
       <c r="B76" s="2">
@@ -37744,7 +37744,7 @@
       </c>
     </row>
     <row r="77" spans="1:160">
-      <c r="A77" s="5">
+      <c r="A77" s="3">
         <v>42277</v>
       </c>
       <c r="B77" s="2">
@@ -38226,7 +38226,7 @@
       </c>
     </row>
     <row r="78" spans="1:160">
-      <c r="A78" s="5">
+      <c r="A78" s="3">
         <v>42308</v>
       </c>
       <c r="B78" s="2">
@@ -38708,7 +38708,7 @@
       </c>
     </row>
     <row r="79" spans="1:160">
-      <c r="A79" s="5">
+      <c r="A79" s="3">
         <v>42338</v>
       </c>
       <c r="B79" s="2">
@@ -39190,7 +39190,7 @@
       </c>
     </row>
     <row r="80" spans="1:160">
-      <c r="A80" s="5">
+      <c r="A80" s="3">
         <v>42369</v>
       </c>
       <c r="B80" s="2">
@@ -39672,7 +39672,7 @@
       </c>
     </row>
     <row r="81" spans="1:160">
-      <c r="A81" s="5">
+      <c r="A81" s="3">
         <v>42429</v>
       </c>
       <c r="B81" s="2">
@@ -40154,7 +40154,7 @@
       </c>
     </row>
     <row r="82" spans="1:160">
-      <c r="A82" s="5">
+      <c r="A82" s="3">
         <v>42460</v>
       </c>
       <c r="B82" s="2">
@@ -40636,7 +40636,7 @@
       </c>
     </row>
     <row r="83" spans="1:160">
-      <c r="A83" s="5">
+      <c r="A83" s="3">
         <v>42490</v>
       </c>
       <c r="B83" s="2">
@@ -41118,7 +41118,7 @@
       </c>
     </row>
     <row r="84" spans="1:160">
-      <c r="A84" s="5">
+      <c r="A84" s="3">
         <v>42521</v>
       </c>
       <c r="B84" s="2">
@@ -41600,7 +41600,7 @@
       </c>
     </row>
     <row r="85" spans="1:160">
-      <c r="A85" s="5">
+      <c r="A85" s="3">
         <v>42551</v>
       </c>
       <c r="B85" s="2">
@@ -42082,7 +42082,7 @@
       </c>
     </row>
     <row r="86" spans="1:160">
-      <c r="A86" s="5">
+      <c r="A86" s="3">
         <v>42582</v>
       </c>
       <c r="B86" s="2">
@@ -42564,7 +42564,7 @@
       </c>
     </row>
     <row r="87" spans="1:160">
-      <c r="A87" s="5">
+      <c r="A87" s="3">
         <v>42613</v>
       </c>
       <c r="B87" s="2">
@@ -43046,7 +43046,7 @@
       </c>
     </row>
     <row r="88" spans="1:160">
-      <c r="A88" s="5">
+      <c r="A88" s="3">
         <v>42643</v>
       </c>
       <c r="B88" s="2">
@@ -43528,7 +43528,7 @@
       </c>
     </row>
     <row r="89" spans="1:160">
-      <c r="A89" s="5">
+      <c r="A89" s="3">
         <v>42674</v>
       </c>
       <c r="B89" s="2">
@@ -44010,7 +44010,7 @@
       </c>
     </row>
     <row r="90" spans="1:160">
-      <c r="A90" s="5">
+      <c r="A90" s="3">
         <v>42704</v>
       </c>
       <c r="B90" s="2">
@@ -44492,7 +44492,7 @@
       </c>
     </row>
     <row r="91" spans="1:160">
-      <c r="A91" s="5">
+      <c r="A91" s="3">
         <v>42735</v>
       </c>
       <c r="B91" s="2">
@@ -44974,7 +44974,7 @@
       </c>
     </row>
     <row r="92" spans="1:160">
-      <c r="A92" s="5">
+      <c r="A92" s="3">
         <v>42794</v>
       </c>
       <c r="B92" s="2">
@@ -45456,7 +45456,7 @@
       </c>
     </row>
     <row r="93" spans="1:160">
-      <c r="A93" s="5">
+      <c r="A93" s="3">
         <v>42825</v>
       </c>
       <c r="B93" s="2">
@@ -45938,7 +45938,7 @@
       </c>
     </row>
     <row r="94" spans="1:160">
-      <c r="A94" s="5">
+      <c r="A94" s="3">
         <v>42855</v>
       </c>
       <c r="B94" s="2">
@@ -46420,7 +46420,7 @@
       </c>
     </row>
     <row r="95" spans="1:160">
-      <c r="A95" s="5">
+      <c r="A95" s="3">
         <v>42886</v>
       </c>
       <c r="B95" s="2">
@@ -46902,7 +46902,7 @@
       </c>
     </row>
     <row r="96" spans="1:160">
-      <c r="A96" s="5">
+      <c r="A96" s="3">
         <v>42916</v>
       </c>
       <c r="B96" s="2">
@@ -47384,7 +47384,7 @@
       </c>
     </row>
     <row r="97" spans="1:160">
-      <c r="A97" s="5">
+      <c r="A97" s="3">
         <v>42947</v>
       </c>
       <c r="B97" s="2">
@@ -47866,7 +47866,7 @@
       </c>
     </row>
     <row r="98" spans="1:160">
-      <c r="A98" s="5">
+      <c r="A98" s="3">
         <v>42978</v>
       </c>
       <c r="B98" s="2">
@@ -48348,7 +48348,7 @@
       </c>
     </row>
     <row r="99" spans="1:160">
-      <c r="A99" s="5">
+      <c r="A99" s="3">
         <v>43008</v>
       </c>
       <c r="B99" s="2">
@@ -48830,7 +48830,7 @@
       </c>
     </row>
     <row r="100" spans="1:160">
-      <c r="A100" s="5">
+      <c r="A100" s="3">
         <v>43039</v>
       </c>
       <c r="B100" s="2">
@@ -49312,7 +49312,7 @@
       </c>
     </row>
     <row r="101" spans="1:160">
-      <c r="A101" s="5">
+      <c r="A101" s="3">
         <v>43069</v>
       </c>
       <c r="B101" s="2">
@@ -49794,7 +49794,7 @@
       </c>
     </row>
     <row r="102" spans="1:160">
-      <c r="A102" s="5">
+      <c r="A102" s="3">
         <v>43100</v>
       </c>
       <c r="B102" s="2">
@@ -50276,7 +50276,7 @@
       </c>
     </row>
     <row r="103" spans="1:160">
-      <c r="A103" s="5">
+      <c r="A103" s="3">
         <v>43159</v>
       </c>
       <c r="B103" s="2">
@@ -50758,7 +50758,7 @@
       </c>
     </row>
     <row r="104" spans="1:160">
-      <c r="A104" s="5">
+      <c r="A104" s="3">
         <v>43190</v>
       </c>
       <c r="B104" s="2">
@@ -51240,7 +51240,7 @@
       </c>
     </row>
     <row r="105" spans="1:160">
-      <c r="A105" s="5">
+      <c r="A105" s="3">
         <v>43220</v>
       </c>
       <c r="B105" s="2">
@@ -51722,7 +51722,7 @@
       </c>
     </row>
     <row r="106" spans="1:160">
-      <c r="A106" s="5">
+      <c r="A106" s="3">
         <v>43251</v>
       </c>
       <c r="B106" s="2">
@@ -52204,7 +52204,7 @@
       </c>
     </row>
     <row r="107" spans="1:160">
-      <c r="A107" s="5">
+      <c r="A107" s="3">
         <v>43281</v>
       </c>
       <c r="B107" s="2">
@@ -52686,7 +52686,7 @@
       </c>
     </row>
     <row r="108" spans="1:160">
-      <c r="A108" s="5">
+      <c r="A108" s="3">
         <v>43312</v>
       </c>
       <c r="B108" s="2">
@@ -53168,7 +53168,7 @@
       </c>
     </row>
     <row r="109" spans="1:160">
-      <c r="A109" s="5">
+      <c r="A109" s="3">
         <v>43343</v>
       </c>
       <c r="B109" s="2">
@@ -53650,7 +53650,7 @@
       </c>
     </row>
     <row r="110" spans="1:160">
-      <c r="A110" s="5">
+      <c r="A110" s="3">
         <v>43373</v>
       </c>
       <c r="B110" s="2">
@@ -54132,7 +54132,7 @@
       </c>
     </row>
     <row r="111" spans="1:160">
-      <c r="A111" s="5">
+      <c r="A111" s="3">
         <v>43404</v>
       </c>
       <c r="B111" s="2">
@@ -54614,7 +54614,7 @@
       </c>
     </row>
     <row r="112" spans="1:160">
-      <c r="A112" s="5">
+      <c r="A112" s="3">
         <v>43434</v>
       </c>
       <c r="B112" s="2">
@@ -55096,7 +55096,7 @@
       </c>
     </row>
     <row r="113" spans="1:160">
-      <c r="A113" s="5">
+      <c r="A113" s="3">
         <v>43465</v>
       </c>
       <c r="B113" s="2">
@@ -55578,7 +55578,7 @@
       </c>
     </row>
     <row r="114" spans="1:160">
-      <c r="A114" s="5">
+      <c r="A114" s="3">
         <v>43524</v>
       </c>
       <c r="B114" s="2">
@@ -56060,7 +56060,7 @@
       </c>
     </row>
     <row r="115" spans="1:160">
-      <c r="A115" s="5">
+      <c r="A115" s="3">
         <v>43555</v>
       </c>
       <c r="B115" s="2">
@@ -56542,7 +56542,7 @@
       </c>
     </row>
     <row r="116" spans="1:160">
-      <c r="A116" s="5">
+      <c r="A116" s="3">
         <v>43585</v>
       </c>
       <c r="B116" s="2">
@@ -57024,7 +57024,7 @@
       </c>
     </row>
     <row r="117" spans="1:160">
-      <c r="A117" s="5">
+      <c r="A117" s="3">
         <v>43616</v>
       </c>
       <c r="B117" s="2">
@@ -57506,7 +57506,7 @@
       </c>
     </row>
     <row r="118" spans="1:160">
-      <c r="A118" s="5">
+      <c r="A118" s="3">
         <v>43646</v>
       </c>
       <c r="B118" s="2">
@@ -57988,7 +57988,7 @@
       </c>
     </row>
     <row r="119" spans="1:160">
-      <c r="A119" s="5">
+      <c r="A119" s="3">
         <v>43677</v>
       </c>
       <c r="B119" s="2">
@@ -58470,7 +58470,7 @@
       </c>
     </row>
     <row r="120" spans="1:160">
-      <c r="A120" s="5">
+      <c r="A120" s="3">
         <v>43708</v>
       </c>
       <c r="B120" s="2">
@@ -58952,7 +58952,7 @@
       </c>
     </row>
     <row r="121" spans="1:160">
-      <c r="A121" s="5">
+      <c r="A121" s="3">
         <v>43738</v>
       </c>
       <c r="B121" s="2">
@@ -59434,7 +59434,7 @@
       </c>
     </row>
     <row r="122" spans="1:160">
-      <c r="A122" s="5">
+      <c r="A122" s="3">
         <v>43769</v>
       </c>
       <c r="B122" s="2">
@@ -59916,7 +59916,7 @@
       </c>
     </row>
     <row r="123" spans="1:160">
-      <c r="A123" s="5">
+      <c r="A123" s="3">
         <v>43799</v>
       </c>
       <c r="B123" s="2">
@@ -60398,7 +60398,7 @@
       </c>
     </row>
     <row r="124" spans="1:160">
-      <c r="A124" s="5">
+      <c r="A124" s="3">
         <v>43830</v>
       </c>
       <c r="B124" s="2">
@@ -60880,7 +60880,7 @@
       </c>
     </row>
     <row r="125" spans="1:160">
-      <c r="A125" s="5">
+      <c r="A125" s="3">
         <v>43890</v>
       </c>
       <c r="B125" s="2">
@@ -61362,7 +61362,7 @@
       </c>
     </row>
     <row r="126" spans="1:160">
-      <c r="A126" s="5">
+      <c r="A126" s="3">
         <v>43921</v>
       </c>
       <c r="B126" s="2">
@@ -61844,7 +61844,7 @@
       </c>
     </row>
     <row r="127" spans="1:160">
-      <c r="A127" s="5">
+      <c r="A127" s="3">
         <v>43951</v>
       </c>
       <c r="B127" s="2">
@@ -62326,7 +62326,7 @@
       </c>
     </row>
     <row r="128" spans="1:160">
-      <c r="A128" s="5">
+      <c r="A128" s="3">
         <v>43982</v>
       </c>
       <c r="B128" s="2">
@@ -62808,7 +62808,7 @@
       </c>
     </row>
     <row r="129" spans="1:160">
-      <c r="A129" s="5">
+      <c r="A129" s="3">
         <v>44012</v>
       </c>
       <c r="B129" s="2">
@@ -63290,7 +63290,7 @@
       </c>
     </row>
     <row r="130" spans="1:160">
-      <c r="A130" s="5">
+      <c r="A130" s="3">
         <v>44043</v>
       </c>
       <c r="B130" s="2">
@@ -63772,7 +63772,7 @@
       </c>
     </row>
     <row r="131" spans="1:160">
-      <c r="A131" s="5">
+      <c r="A131" s="3">
         <v>44074</v>
       </c>
       <c r="B131" s="2">
@@ -64254,7 +64254,7 @@
       </c>
     </row>
     <row r="132" spans="1:160">
-      <c r="A132" s="5">
+      <c r="A132" s="3">
         <v>44104</v>
       </c>
       <c r="B132" s="2">
@@ -64736,7 +64736,7 @@
       </c>
     </row>
     <row r="133" spans="1:160">
-      <c r="A133" s="5">
+      <c r="A133" s="3">
         <v>44135</v>
       </c>
       <c r="B133" s="2">
@@ -65218,7 +65218,7 @@
       </c>
     </row>
     <row r="134" spans="1:160">
-      <c r="A134" s="5">
+      <c r="A134" s="3">
         <v>44165</v>
       </c>
       <c r="B134" s="2">
@@ -65700,7 +65700,7 @@
       </c>
     </row>
     <row r="135" spans="1:160">
-      <c r="A135" s="5">
+      <c r="A135" s="3">
         <v>44196</v>
       </c>
       <c r="B135" s="2">
@@ -66182,7 +66182,7 @@
       </c>
     </row>
     <row r="136" spans="1:160">
-      <c r="A136" s="5">
+      <c r="A136" s="3">
         <v>44255</v>
       </c>
       <c r="B136" s="2">
@@ -66664,7 +66664,7 @@
       </c>
     </row>
     <row r="137" spans="1:160">
-      <c r="A137" s="5">
+      <c r="A137" s="3">
         <v>44286</v>
       </c>
       <c r="B137" s="2">
@@ -67146,7 +67146,7 @@
       </c>
     </row>
     <row r="138" spans="1:160">
-      <c r="A138" s="5">
+      <c r="A138" s="3">
         <v>44316</v>
       </c>
       <c r="B138" s="2">
@@ -67628,7 +67628,7 @@
       </c>
     </row>
     <row r="139" spans="1:160">
-      <c r="A139" s="5">
+      <c r="A139" s="3">
         <v>44347</v>
       </c>
       <c r="B139" s="2">
@@ -68110,7 +68110,7 @@
       </c>
     </row>
     <row r="140" spans="1:160">
-      <c r="A140" s="5">
+      <c r="A140" s="3">
         <v>44377</v>
       </c>
       <c r="B140" s="2">
@@ -68592,7 +68592,7 @@
       </c>
     </row>
     <row r="141" spans="1:160">
-      <c r="A141" s="5">
+      <c r="A141" s="3">
         <v>44408</v>
       </c>
       <c r="B141" s="2">
@@ -69074,7 +69074,7 @@
       </c>
     </row>
     <row r="142" spans="1:160">
-      <c r="A142" s="5">
+      <c r="A142" s="3">
         <v>44439</v>
       </c>
       <c r="B142" s="2">
@@ -69556,7 +69556,7 @@
       </c>
     </row>
     <row r="143" spans="1:160">
-      <c r="A143" s="5">
+      <c r="A143" s="3">
         <v>44469</v>
       </c>
       <c r="B143" s="2">
@@ -70038,7 +70038,7 @@
       </c>
     </row>
     <row r="144" spans="1:160">
-      <c r="A144" s="5">
+      <c r="A144" s="3">
         <v>44500</v>
       </c>
       <c r="B144" s="2">
@@ -70520,7 +70520,7 @@
       </c>
     </row>
     <row r="145" spans="1:160">
-      <c r="A145" s="5">
+      <c r="A145" s="3">
         <v>44530</v>
       </c>
       <c r="B145" s="2">
@@ -71002,7 +71002,7 @@
       </c>
     </row>
     <row r="146" spans="1:160">
-      <c r="A146" s="5">
+      <c r="A146" s="3">
         <v>44561</v>
       </c>
       <c r="B146" s="2">
@@ -71484,7 +71484,7 @@
       </c>
     </row>
     <row r="147" spans="1:160">
-      <c r="A147" s="5">
+      <c r="A147" s="3">
         <v>44620</v>
       </c>
       <c r="B147" s="2">
@@ -71966,7 +71966,7 @@
       </c>
     </row>
     <row r="148" spans="1:160">
-      <c r="A148" s="5">
+      <c r="A148" s="3">
         <v>44651</v>
       </c>
       <c r="B148" s="2">
@@ -72448,7 +72448,7 @@
       </c>
     </row>
     <row r="149" spans="1:160">
-      <c r="A149" s="5">
+      <c r="A149" s="3">
         <v>44681</v>
       </c>
       <c r="B149" s="2">
@@ -72930,7 +72930,7 @@
       </c>
     </row>
     <row r="150" spans="1:160">
-      <c r="A150" s="5">
+      <c r="A150" s="3">
         <v>44712</v>
       </c>
       <c r="B150" s="2">
@@ -73412,7 +73412,7 @@
       </c>
     </row>
     <row r="151" spans="1:160">
-      <c r="A151" s="5">
+      <c r="A151" s="3">
         <v>44742</v>
       </c>
       <c r="B151" s="2">
@@ -73894,7 +73894,7 @@
       </c>
     </row>
     <row r="152" spans="1:160">
-      <c r="A152" s="5">
+      <c r="A152" s="3">
         <v>44773</v>
       </c>
       <c r="B152" s="2">
@@ -74376,7 +74376,7 @@
       </c>
     </row>
     <row r="153" spans="1:160">
-      <c r="A153" s="5">
+      <c r="A153" s="3">
         <v>44804</v>
       </c>
       <c r="B153" s="2">
@@ -74858,7 +74858,7 @@
       </c>
     </row>
     <row r="154" spans="1:160">
-      <c r="A154" s="5">
+      <c r="A154" s="3">
         <v>44834</v>
       </c>
       <c r="B154" s="2">
@@ -75340,7 +75340,7 @@
       </c>
     </row>
     <row r="155" spans="1:160">
-      <c r="A155" s="5">
+      <c r="A155" s="3">
         <v>44865</v>
       </c>
       <c r="B155" s="2">
@@ -75822,7 +75822,7 @@
       </c>
     </row>
     <row r="156" spans="1:160">
-      <c r="A156" s="5">
+      <c r="A156" s="3">
         <v>44895</v>
       </c>
       <c r="B156" s="2">
@@ -76304,7 +76304,7 @@
       </c>
     </row>
     <row r="157" spans="1:160">
-      <c r="A157" s="5">
+      <c r="A157" s="3">
         <v>44926</v>
       </c>
       <c r="B157" s="2">
@@ -76786,7 +76786,7 @@
       </c>
     </row>
     <row r="158" spans="1:160">
-      <c r="A158" s="5">
+      <c r="A158" s="3">
         <v>45016</v>
       </c>
       <c r="B158" s="2">
@@ -77268,7 +77268,7 @@
       </c>
     </row>
     <row r="159" spans="1:160">
-      <c r="A159" s="5">
+      <c r="A159" s="3">
         <v>45046</v>
       </c>
       <c r="B159" s="2">
@@ -77750,7 +77750,7 @@
       </c>
     </row>
     <row r="160" spans="1:160">
-      <c r="A160" s="5">
+      <c r="A160" s="3">
         <v>45077</v>
       </c>
       <c r="B160" s="2">
@@ -78232,7 +78232,7 @@
       </c>
     </row>
     <row r="161" spans="1:160">
-      <c r="A161" s="5">
+      <c r="A161" s="3">
         <v>45107</v>
       </c>
       <c r="B161" s="2">
@@ -78714,7 +78714,7 @@
       </c>
     </row>
     <row r="162" spans="1:160">
-      <c r="A162" s="5">
+      <c r="A162" s="3">
         <v>45138</v>
       </c>
       <c r="B162" s="2">
@@ -79196,7 +79196,7 @@
       </c>
     </row>
     <row r="163" spans="1:160">
-      <c r="A163" s="5">
+      <c r="A163" s="3">
         <v>45169</v>
       </c>
       <c r="B163" s="2">
@@ -79678,7 +79678,7 @@
       </c>
     </row>
     <row r="164" spans="1:160">
-      <c r="A164" s="5">
+      <c r="A164" s="3">
         <v>45199</v>
       </c>
       <c r="B164" s="2">
@@ -80157,6 +80157,488 @@
       </c>
       <c r="FD164" s="2">
         <v>882</v>
+      </c>
+    </row>
+    <row r="165" spans="1:160">
+      <c r="A165" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B165" s="2">
+        <v>844</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2">
+        <v>90</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>2</v>
+      </c>
+      <c r="J165" s="2">
+        <v>5</v>
+      </c>
+      <c r="K165" s="2">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2">
+        <v>0</v>
+      </c>
+      <c r="M165" s="2">
+        <v>27</v>
+      </c>
+      <c r="N165" s="2">
+        <v>2</v>
+      </c>
+      <c r="O165" s="2">
+        <v>68</v>
+      </c>
+      <c r="P165" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>180</v>
+      </c>
+      <c r="R165" s="2">
+        <v>120</v>
+      </c>
+      <c r="S165" s="2">
+        <v>25</v>
+      </c>
+      <c r="T165" s="2">
+        <v>11</v>
+      </c>
+      <c r="U165" s="2">
+        <v>0</v>
+      </c>
+      <c r="V165" s="2">
+        <v>100</v>
+      </c>
+      <c r="W165" s="2">
+        <v>1</v>
+      </c>
+      <c r="X165" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y165" s="2">
+        <v>54</v>
+      </c>
+      <c r="Z165" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA165" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB165" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC165" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD165" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE165" s="2">
+        <v>5</v>
+      </c>
+      <c r="AF165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH165" s="2">
+        <v>4372</v>
+      </c>
+      <c r="AI165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK165" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL165" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM165" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN165" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO165" s="2">
+        <v>31</v>
+      </c>
+      <c r="AP165" s="2">
+        <v>26</v>
+      </c>
+      <c r="AQ165" s="2">
+        <v>155</v>
+      </c>
+      <c r="AR165" s="2">
+        <v>269</v>
+      </c>
+      <c r="AS165" s="2">
+        <v>257</v>
+      </c>
+      <c r="AT165" s="2">
+        <v>157</v>
+      </c>
+      <c r="AU165" s="2">
+        <v>38</v>
+      </c>
+      <c r="AV165" s="2">
+        <v>7</v>
+      </c>
+      <c r="AW165" s="2">
+        <v>166</v>
+      </c>
+      <c r="AX165" s="2">
+        <v>134</v>
+      </c>
+      <c r="AY165" s="2">
+        <v>252</v>
+      </c>
+      <c r="AZ165" s="2">
+        <v>318</v>
+      </c>
+      <c r="BA165" s="2">
+        <v>517</v>
+      </c>
+      <c r="BB165" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC165" s="2">
+        <v>98</v>
+      </c>
+      <c r="BD165" s="2">
+        <v>119</v>
+      </c>
+      <c r="BE165" s="2">
+        <v>4</v>
+      </c>
+      <c r="BF165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG165" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI165" s="2">
+        <v>525</v>
+      </c>
+      <c r="BJ165" s="2">
+        <v>12</v>
+      </c>
+      <c r="BK165" s="2">
+        <v>17</v>
+      </c>
+      <c r="BL165" s="2">
+        <v>10</v>
+      </c>
+      <c r="BM165" s="2">
+        <v>311</v>
+      </c>
+      <c r="BN165" s="2">
+        <v>3731</v>
+      </c>
+      <c r="BO165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP165" s="2">
+        <v>10</v>
+      </c>
+      <c r="BQ165" s="2">
+        <v>196</v>
+      </c>
+      <c r="BR165" s="2">
+        <v>131</v>
+      </c>
+      <c r="BS165" s="2">
+        <v>647</v>
+      </c>
+      <c r="BT165" s="2">
+        <v>211</v>
+      </c>
+      <c r="BU165" s="2">
+        <v>76</v>
+      </c>
+      <c r="BV165" s="2">
+        <v>148</v>
+      </c>
+      <c r="BW165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX165" s="2">
+        <v>30</v>
+      </c>
+      <c r="BY165" s="2">
+        <v>89</v>
+      </c>
+      <c r="BZ165" s="2">
+        <v>86</v>
+      </c>
+      <c r="CA165" s="2">
+        <v>11</v>
+      </c>
+      <c r="CB165" s="2">
+        <v>9</v>
+      </c>
+      <c r="CC165" s="2">
+        <v>174</v>
+      </c>
+      <c r="CD165" s="2">
+        <v>178</v>
+      </c>
+      <c r="CE165" s="2">
+        <v>54</v>
+      </c>
+      <c r="CF165" s="2">
+        <v>28</v>
+      </c>
+      <c r="CG165" s="2">
+        <v>20</v>
+      </c>
+      <c r="CH165" s="2">
+        <v>181</v>
+      </c>
+      <c r="CI165" s="2">
+        <v>2</v>
+      </c>
+      <c r="CJ165" s="2">
+        <v>25</v>
+      </c>
+      <c r="CK165" s="2">
+        <v>98</v>
+      </c>
+      <c r="CL165" s="2">
+        <v>27</v>
+      </c>
+      <c r="CM165" s="2">
+        <v>478</v>
+      </c>
+      <c r="CN165" s="2">
+        <v>5</v>
+      </c>
+      <c r="CO165" s="2">
+        <v>54</v>
+      </c>
+      <c r="CP165" s="2">
+        <v>231</v>
+      </c>
+      <c r="CQ165" s="2">
+        <v>20</v>
+      </c>
+      <c r="CR165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS165" s="2">
+        <v>511</v>
+      </c>
+      <c r="CT165" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY165" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN165" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY165" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ165" s="2">
+        <v>10</v>
+      </c>
+      <c r="EA165" s="2">
+        <v>179</v>
+      </c>
+      <c r="EB165" s="2">
+        <v>580</v>
+      </c>
+      <c r="EC165" s="2">
+        <v>529</v>
+      </c>
+      <c r="ED165" s="2">
+        <v>316</v>
+      </c>
+      <c r="EE165" s="2">
+        <v>283</v>
+      </c>
+      <c r="EF165" s="2">
+        <v>35</v>
+      </c>
+      <c r="EG165" s="2">
+        <v>66</v>
+      </c>
+      <c r="EH165" s="2">
+        <v>78</v>
+      </c>
+      <c r="EI165" s="2">
+        <v>1021</v>
+      </c>
+      <c r="EJ165" s="2">
+        <v>618</v>
+      </c>
+      <c r="EK165" s="2">
+        <v>825</v>
+      </c>
+      <c r="EL165" s="2">
+        <v>327</v>
+      </c>
+      <c r="EM165" s="2">
+        <v>601</v>
+      </c>
+      <c r="EN165" s="2">
+        <v>1048</v>
+      </c>
+      <c r="EO165" s="2">
+        <v>1163</v>
+      </c>
+      <c r="EP165" s="2">
+        <v>951</v>
+      </c>
+      <c r="EQ165" s="2">
+        <v>392</v>
+      </c>
+      <c r="ER165" s="2">
+        <v>597</v>
+      </c>
+      <c r="ES165" s="2">
+        <v>362</v>
+      </c>
+      <c r="ET165" s="2">
+        <v>157</v>
+      </c>
+      <c r="EU165" s="2">
+        <v>49</v>
+      </c>
+      <c r="EV165" s="2">
+        <v>216</v>
+      </c>
+      <c r="EW165" s="2">
+        <v>65</v>
+      </c>
+      <c r="EX165" s="2">
+        <v>781</v>
+      </c>
+      <c r="EY165" s="2">
+        <v>69</v>
+      </c>
+      <c r="EZ165" s="2">
+        <v>421</v>
+      </c>
+      <c r="FA165" s="2">
+        <v>694</v>
+      </c>
+      <c r="FB165" s="2">
+        <v>324</v>
+      </c>
+      <c r="FC165" s="2">
+        <v>430</v>
+      </c>
+      <c r="FD165" s="2">
+        <v>1068</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC13AEB-07EC-4DEE-AEB3-D79D3ECB585C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77388960-EE7B-4DA3-8E06-1D6E3C149E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1100,85 +1100,85 @@
     <t>2023-07-25</t>
   </si>
   <si>
-    <t>2008-12:2023-10</t>
+    <t>2008-12:2023-11</t>
   </si>
   <si>
-    <t>2009-04:2023-10</t>
+    <t>2009-04:2023-11</t>
   </si>
   <si>
-    <t>2009-11:2023-10</t>
+    <t>2009-11:2023-11</t>
   </si>
   <si>
-    <t>2009-10:2023-10</t>
+    <t>2009-10:2023-11</t>
   </si>
   <si>
-    <t>2010-11:2023-10</t>
+    <t>2010-11:2023-11</t>
   </si>
   <si>
-    <t>2010-10:2023-10</t>
+    <t>2010-10:2023-11</t>
   </si>
   <si>
-    <t>2009-06:2023-10</t>
+    <t>2009-06:2023-11</t>
   </si>
   <si>
-    <t>2011-07:2023-10</t>
+    <t>2011-07:2023-11</t>
   </si>
   <si>
-    <t>2009-05:2023-10</t>
+    <t>2009-05:2023-11</t>
   </si>
   <si>
-    <t>2011-06:2023-10</t>
+    <t>2011-06:2023-11</t>
   </si>
   <si>
-    <t>2010-09:2023-10</t>
+    <t>2010-09:2023-11</t>
   </si>
   <si>
-    <t>2015-06:2023-10</t>
+    <t>2015-06:2023-11</t>
   </si>
   <si>
-    <t>2011-04:2023-10</t>
+    <t>2011-04:2023-11</t>
   </si>
   <si>
-    <t>2015-03:2023-10</t>
+    <t>2015-03:2023-11</t>
   </si>
   <si>
-    <t>2014-02:2023-10</t>
+    <t>2014-02:2023-11</t>
   </si>
   <si>
-    <t>2014-04:2023-10</t>
+    <t>2014-04:2023-11</t>
   </si>
   <si>
-    <t>2013-05:2023-10</t>
+    <t>2013-05:2023-11</t>
   </si>
   <si>
-    <t>2013-04:2023-10</t>
+    <t>2013-04:2023-11</t>
   </si>
   <si>
-    <t>2013-10:2023-10</t>
+    <t>2013-10:2023-11</t>
   </si>
   <si>
-    <t>2013-07:2023-10</t>
+    <t>2013-07:2023-11</t>
   </si>
   <si>
-    <t>2014-06:2023-10</t>
+    <t>2014-06:2023-11</t>
   </si>
   <si>
-    <t>2014-08:2023-10</t>
+    <t>2014-08:2023-11</t>
   </si>
   <si>
-    <t>2015-02:2023-10</t>
+    <t>2015-02:2023-11</t>
   </si>
   <si>
-    <t>2015-07:2023-10</t>
+    <t>2015-07:2023-11</t>
   </si>
   <si>
-    <t>2015-12:2023-10</t>
+    <t>2015-12:2023-11</t>
   </si>
   <si>
-    <t>2015-05:2023-10</t>
+    <t>2015-05:2023-11</t>
   </si>
   <si>
-    <t>2023-11-24</t>
+    <t>2023-12-29</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1236,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1283,9 +1283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1323,7 +1323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1429,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1571,7 +1571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1579,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD165"/>
+  <dimension ref="A1:FD166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
@@ -3625,7 +3625,7 @@
         <v>347</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="AJ6" s="4" t="s">
         <v>347</v>
@@ -3808,7 +3808,7 @@
         <v>359</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="CS6" s="4" t="s">
         <v>347</v>
@@ -4589,7 +4589,7 @@
         <v>373</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="AJ8" s="5" t="s">
         <v>373</v>
@@ -4772,7 +4772,7 @@
         <v>373</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="CS8" s="5" t="s">
         <v>373</v>
@@ -80639,6 +80639,488 @@
       </c>
       <c r="FD165" s="2">
         <v>1068</v>
+      </c>
+    </row>
+    <row r="166" spans="1:160">
+      <c r="A166" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B166" s="2">
+        <v>938.74590000000001</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2">
+        <v>90.372500000000002</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>2.4201999999999999</v>
+      </c>
+      <c r="J166" s="2">
+        <v>4.6079999999999997</v>
+      </c>
+      <c r="K166" s="2">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2">
+        <v>0</v>
+      </c>
+      <c r="M166" s="2">
+        <v>26.533000000000001</v>
+      </c>
+      <c r="N166" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="O166" s="2">
+        <v>68.492599999999996</v>
+      </c>
+      <c r="P166" s="2">
+        <v>1.9352</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>180.09350000000001</v>
+      </c>
+      <c r="R166" s="2">
+        <v>120.125</v>
+      </c>
+      <c r="S166" s="2">
+        <v>28.151499999999999</v>
+      </c>
+      <c r="T166" s="2">
+        <v>61.284999999999997</v>
+      </c>
+      <c r="U166" s="2">
+        <v>0</v>
+      </c>
+      <c r="V166" s="2">
+        <v>99.873000000000005</v>
+      </c>
+      <c r="W166" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="X166" s="2">
+        <v>12.720499999999999</v>
+      </c>
+      <c r="Y166" s="2">
+        <v>54.920400000000001</v>
+      </c>
+      <c r="Z166" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="AA166" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="AB166" s="2">
+        <v>20.39</v>
+      </c>
+      <c r="AC166" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="AD166" s="2">
+        <v>69.941000000000003</v>
+      </c>
+      <c r="AE166" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="AF166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="2">
+        <v>69.56</v>
+      </c>
+      <c r="AH166" s="2">
+        <v>4654.5378000000001</v>
+      </c>
+      <c r="AI166" s="2">
+        <v>1.2002999999999999</v>
+      </c>
+      <c r="AJ166" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK166" s="2">
+        <v>195.75</v>
+      </c>
+      <c r="AL166" s="2">
+        <v>201.3365</v>
+      </c>
+      <c r="AM166" s="2">
+        <v>649.39</v>
+      </c>
+      <c r="AN166" s="2">
+        <v>21.020099999999999</v>
+      </c>
+      <c r="AO166" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="AP166" s="2">
+        <v>29.55</v>
+      </c>
+      <c r="AQ166" s="2">
+        <v>154.54499999999999</v>
+      </c>
+      <c r="AR166" s="2">
+        <v>273.71699999999998</v>
+      </c>
+      <c r="AS166" s="2">
+        <v>261.36329999999998</v>
+      </c>
+      <c r="AT166" s="2">
+        <v>166.75</v>
+      </c>
+      <c r="AU166" s="2">
+        <v>37.85</v>
+      </c>
+      <c r="AV166" s="2">
+        <v>7.2827999999999999</v>
+      </c>
+      <c r="AW166" s="2">
+        <v>166.01159999999999</v>
+      </c>
+      <c r="AX166" s="2">
+        <v>137.26</v>
+      </c>
+      <c r="AY166" s="2">
+        <v>291.31619999999998</v>
+      </c>
+      <c r="AZ166" s="2">
+        <v>218.0986</v>
+      </c>
+      <c r="BA166" s="2">
+        <v>583.29200000000003</v>
+      </c>
+      <c r="BB166" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="BC166" s="2">
+        <v>98.21</v>
+      </c>
+      <c r="BD166" s="2">
+        <v>121.0455</v>
+      </c>
+      <c r="BE166" s="2">
+        <v>4</v>
+      </c>
+      <c r="BF166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG166" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="BH166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI166" s="2">
+        <v>525.94889999999998</v>
+      </c>
+      <c r="BJ166" s="2">
+        <v>112.05</v>
+      </c>
+      <c r="BK166" s="2">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="BL166" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="BM166" s="2">
+        <v>311.2</v>
+      </c>
+      <c r="BN166" s="2">
+        <v>4138.9949999999999</v>
+      </c>
+      <c r="BO166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP166" s="2">
+        <v>14.855</v>
+      </c>
+      <c r="BQ166" s="2">
+        <v>211.16</v>
+      </c>
+      <c r="BR166" s="2">
+        <v>137.58799999999999</v>
+      </c>
+      <c r="BS166" s="2">
+        <v>700.63</v>
+      </c>
+      <c r="BT166" s="2">
+        <v>220.97</v>
+      </c>
+      <c r="BU166" s="2">
+        <v>78.27</v>
+      </c>
+      <c r="BV166" s="2">
+        <v>171.27500000000001</v>
+      </c>
+      <c r="BW166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX166" s="2">
+        <v>30.817</v>
+      </c>
+      <c r="BY166" s="2">
+        <v>99.483999999999995</v>
+      </c>
+      <c r="BZ166" s="2">
+        <v>110.69</v>
+      </c>
+      <c r="CA166" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="CB166" s="2">
+        <v>13</v>
+      </c>
+      <c r="CC166" s="2">
+        <v>203.45</v>
+      </c>
+      <c r="CD166" s="2">
+        <v>192.73</v>
+      </c>
+      <c r="CE166" s="2">
+        <v>55.48</v>
+      </c>
+      <c r="CF166" s="2">
+        <v>30.05</v>
+      </c>
+      <c r="CG166" s="2">
+        <v>55.98</v>
+      </c>
+      <c r="CH166" s="2">
+        <v>225.387</v>
+      </c>
+      <c r="CI166" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="CJ166" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="CK166" s="2">
+        <v>119.46</v>
+      </c>
+      <c r="CL166" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="CM166" s="2">
+        <v>553.93399999999997</v>
+      </c>
+      <c r="CN166" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="CO166" s="2">
+        <v>54.06</v>
+      </c>
+      <c r="CP166" s="2">
+        <v>240.97</v>
+      </c>
+      <c r="CQ166" s="2">
+        <v>20</v>
+      </c>
+      <c r="CR166" s="2">
+        <v>10</v>
+      </c>
+      <c r="CS166" s="2">
+        <v>513.59500000000003</v>
+      </c>
+      <c r="CT166" s="2">
+        <v>118.8</v>
+      </c>
+      <c r="CU166" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV166" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW166" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX166" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY166" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN166" s="2">
+        <v>118.8</v>
+      </c>
+      <c r="DO166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY166" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ166" s="2">
+        <v>11.046900000000001</v>
+      </c>
+      <c r="EA166" s="2">
+        <v>210.47280000000001</v>
+      </c>
+      <c r="EB166" s="2">
+        <v>826.56989999999996</v>
+      </c>
+      <c r="EC166" s="2">
+        <v>628.97</v>
+      </c>
+      <c r="ED166" s="2">
+        <v>367.9511</v>
+      </c>
+      <c r="EE166" s="2">
+        <v>310.39030000000002</v>
+      </c>
+      <c r="EF166" s="2">
+        <v>53.196100000000001</v>
+      </c>
+      <c r="EG166" s="2">
+        <v>76.838700000000003</v>
+      </c>
+      <c r="EH166" s="2">
+        <v>84.325800000000001</v>
+      </c>
+      <c r="EI166" s="2">
+        <v>1193.4314999999999</v>
+      </c>
+      <c r="EJ166" s="2">
+        <v>702.79250000000002</v>
+      </c>
+      <c r="EK166" s="2">
+        <v>914.88620000000003</v>
+      </c>
+      <c r="EL166" s="2">
+        <v>364.68560000000002</v>
+      </c>
+      <c r="EM166" s="2">
+        <v>625.71669999999995</v>
+      </c>
+      <c r="EN166" s="2">
+        <v>1180.2955999999999</v>
+      </c>
+      <c r="EO166" s="2">
+        <v>1275.4513999999999</v>
+      </c>
+      <c r="EP166" s="2">
+        <v>1042.7076999999999</v>
+      </c>
+      <c r="EQ166" s="2">
+        <v>454.88029999999998</v>
+      </c>
+      <c r="ER166" s="2">
+        <v>794.82380000000001</v>
+      </c>
+      <c r="ES166" s="2">
+        <v>440.16750000000002</v>
+      </c>
+      <c r="ET166" s="2">
+        <v>195.56450000000001</v>
+      </c>
+      <c r="EU166" s="2">
+        <v>58.119300000000003</v>
+      </c>
+      <c r="EV166" s="2">
+        <v>219.6772</v>
+      </c>
+      <c r="EW166" s="2">
+        <v>88.254999999999995</v>
+      </c>
+      <c r="EX166" s="2">
+        <v>862.69010000000003</v>
+      </c>
+      <c r="EY166" s="2">
+        <v>96.95</v>
+      </c>
+      <c r="EZ166" s="2">
+        <v>460.54840000000002</v>
+      </c>
+      <c r="FA166" s="2">
+        <v>824.07270000000005</v>
+      </c>
+      <c r="FB166" s="2">
+        <v>339.07960000000003</v>
+      </c>
+      <c r="FC166" s="2">
+        <v>437.95350000000002</v>
+      </c>
+      <c r="FD166" s="2">
+        <v>1245.8934999999999</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77388960-EE7B-4DA3-8E06-1D6E3C149E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9E275-9195-4FB5-BA5E-BDCC709847A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1236,10 +1236,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="O166" sqref="O166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE9E275-9195-4FB5-BA5E-BDCC709847A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBBEB2-6954-47AB-97B6-DB9E132383EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="379">
   <si>
     <t>Name</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>2008-12:2023-06</t>
   </si>
   <si>
-    <t>2023-07-25</t>
-  </si>
-  <si>
     <t>2008-12:2023-11</t>
   </si>
   <si>
@@ -1112,9 +1109,6 @@
     <t>2009-10:2023-11</t>
   </si>
   <si>
-    <t>2010-11:2023-11</t>
-  </si>
-  <si>
     <t>2010-10:2023-11</t>
   </si>
   <si>
@@ -1124,61 +1118,82 @@
     <t>2011-07:2023-11</t>
   </si>
   <si>
-    <t>2009-05:2023-11</t>
-  </si>
-  <si>
-    <t>2011-06:2023-11</t>
-  </si>
-  <si>
-    <t>2010-09:2023-11</t>
-  </si>
-  <si>
     <t>2015-06:2023-11</t>
   </si>
   <si>
-    <t>2011-04:2023-11</t>
+    <t>2023-12-29</t>
   </si>
   <si>
-    <t>2015-03:2023-11</t>
+    <t>2008-12:2024-02</t>
   </si>
   <si>
-    <t>2014-02:2023-11</t>
+    <t>2009-04:2024-02</t>
   </si>
   <si>
-    <t>2014-04:2023-11</t>
+    <t>2010-11:2024-02</t>
   </si>
   <si>
-    <t>2013-05:2023-11</t>
+    <t>2009-06:2024-02</t>
   </si>
   <si>
-    <t>2013-04:2023-11</t>
+    <t>2009-05:2024-02</t>
   </si>
   <si>
-    <t>2013-10:2023-11</t>
+    <t>2009-10:2024-02</t>
   </si>
   <si>
-    <t>2013-07:2023-11</t>
+    <t>2011-06:2024-02</t>
   </si>
   <si>
-    <t>2014-06:2023-11</t>
+    <t>2010-09:2024-02</t>
   </si>
   <si>
-    <t>2014-08:2023-11</t>
+    <t>2011-04:2024-02</t>
   </si>
   <si>
-    <t>2015-02:2023-11</t>
+    <t>2015-03:2024-02</t>
   </si>
   <si>
-    <t>2015-07:2023-11</t>
+    <t>2014-02:2024-02</t>
   </si>
   <si>
-    <t>2015-12:2023-11</t>
+    <t>2014-04:2024-02</t>
   </si>
   <si>
-    <t>2015-05:2023-11</t>
+    <t>2013-05:2024-02</t>
   </si>
   <si>
-    <t>2023-12-29</t>
+    <t>2013-04:2024-02</t>
+  </si>
+  <si>
+    <t>2013-10:2024-02</t>
+  </si>
+  <si>
+    <t>2013-07:2024-02</t>
+  </si>
+  <si>
+    <t>2014-06:2024-02</t>
+  </si>
+  <si>
+    <t>2014-08:2024-02</t>
+  </si>
+  <si>
+    <t>2015-02:2024-02</t>
+  </si>
+  <si>
+    <t>2015-07:2024-02</t>
+  </si>
+  <si>
+    <t>2015-12:2024-02</t>
+  </si>
+  <si>
+    <t>2015-05:2024-02</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD166"/>
+  <dimension ref="A1:FD167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="O166" sqref="O166"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3526,7 +3541,7 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>325</v>
@@ -3535,10 +3550,10 @@
         <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
@@ -3547,10 +3562,10 @@
         <v>327</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
@@ -3559,262 +3574,262 @@
         <v>329</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>352</v>
-      </c>
       <c r="R6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>330</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BH6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BR6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="BS6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="BS6" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="BT6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BX6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="BY6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
+      <c r="CJ6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CN6" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="CA6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
+      <c r="CO6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CP6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="CK6" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="CO6" s="4" t="s">
+      <c r="CQ6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3874,7 +3889,7 @@
         <v>335</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3910,97 +3925,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="EB6" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="EC6" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="ED6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="EE6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="EF6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>361</v>
-      </c>
       <c r="EH6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EI6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EK6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="EL6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EM6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4490,7 +4505,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4499,10 +4514,10 @@
         <v>339</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
@@ -4511,10 +4526,10 @@
         <v>339</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4523,262 +4538,262 @@
         <v>339</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="BG8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>340</v>
@@ -4838,7 +4853,7 @@
         <v>344</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>340</v>
@@ -4874,97 +4889,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -81121,6 +81136,488 @@
       </c>
       <c r="FD166" s="2">
         <v>1245.8934999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:160">
+      <c r="A167" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B167" s="2">
+        <v>103</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2">
+        <v>0</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>0</v>
+      </c>
+      <c r="M167" s="2">
+        <v>0</v>
+      </c>
+      <c r="N167" s="2">
+        <v>0</v>
+      </c>
+      <c r="O167" s="2">
+        <v>35</v>
+      </c>
+      <c r="P167" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>0</v>
+      </c>
+      <c r="R167" s="2">
+        <v>4</v>
+      </c>
+      <c r="S167" s="2">
+        <v>0</v>
+      </c>
+      <c r="T167" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U167" s="2">
+        <v>0</v>
+      </c>
+      <c r="V167" s="2">
+        <v>0</v>
+      </c>
+      <c r="W167" s="2">
+        <v>0</v>
+      </c>
+      <c r="X167" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y167" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG167" s="2">
+        <v>30</v>
+      </c>
+      <c r="AH167" s="2">
+        <v>508</v>
+      </c>
+      <c r="AI167" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL167" s="2">
+        <v>26</v>
+      </c>
+      <c r="AM167" s="2">
+        <v>25</v>
+      </c>
+      <c r="AN167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO167" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP167" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="2">
+        <v>5</v>
+      </c>
+      <c r="AT167" s="2">
+        <v>6</v>
+      </c>
+      <c r="AU167" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV167" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW167" s="2">
+        <v>34</v>
+      </c>
+      <c r="AX167" s="2">
+        <v>27</v>
+      </c>
+      <c r="AY167" s="2">
+        <v>42</v>
+      </c>
+      <c r="AZ167" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA167" s="2">
+        <v>64</v>
+      </c>
+      <c r="BB167" s="2">
+        <v>73</v>
+      </c>
+      <c r="BC167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD167" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE167" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF167" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI167" s="2">
+        <v>169</v>
+      </c>
+      <c r="BJ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM167" s="2">
+        <v>7</v>
+      </c>
+      <c r="BN167" s="2">
+        <v>989</v>
+      </c>
+      <c r="BO167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP167" s="2">
+        <v>4</v>
+      </c>
+      <c r="BQ167" s="2">
+        <v>4</v>
+      </c>
+      <c r="BR167" s="2">
+        <v>5</v>
+      </c>
+      <c r="BS167" s="2">
+        <v>186</v>
+      </c>
+      <c r="BT167" s="2">
+        <v>20</v>
+      </c>
+      <c r="BU167" s="2">
+        <v>20</v>
+      </c>
+      <c r="BV167" s="2">
+        <v>80</v>
+      </c>
+      <c r="BW167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX167" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY167" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ167" s="2">
+        <v>16</v>
+      </c>
+      <c r="CA167" s="2">
+        <v>20</v>
+      </c>
+      <c r="CB167" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC167" s="2">
+        <v>9</v>
+      </c>
+      <c r="CD167" s="2">
+        <v>46</v>
+      </c>
+      <c r="CE167" s="2">
+        <v>12</v>
+      </c>
+      <c r="CF167" s="2">
+        <v>25</v>
+      </c>
+      <c r="CG167" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH167" s="2">
+        <v>76</v>
+      </c>
+      <c r="CI167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ167" s="2">
+        <v>11</v>
+      </c>
+      <c r="CK167" s="2">
+        <v>29</v>
+      </c>
+      <c r="CL167" s="2">
+        <v>28</v>
+      </c>
+      <c r="CM167" s="2">
+        <v>14</v>
+      </c>
+      <c r="CN167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO167" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP167" s="2">
+        <v>175</v>
+      </c>
+      <c r="CQ167" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS167" s="2">
+        <v>196</v>
+      </c>
+      <c r="CT167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY167" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY167" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ167" s="2">
+        <v>3</v>
+      </c>
+      <c r="EA167" s="2">
+        <v>47</v>
+      </c>
+      <c r="EB167" s="2">
+        <v>142</v>
+      </c>
+      <c r="EC167" s="2">
+        <v>112</v>
+      </c>
+      <c r="ED167" s="2">
+        <v>497</v>
+      </c>
+      <c r="EE167" s="2">
+        <v>57</v>
+      </c>
+      <c r="EF167" s="2">
+        <v>11</v>
+      </c>
+      <c r="EG167" s="2">
+        <v>10</v>
+      </c>
+      <c r="EH167" s="2">
+        <v>16</v>
+      </c>
+      <c r="EI167" s="2">
+        <v>402</v>
+      </c>
+      <c r="EJ167" s="2">
+        <v>206</v>
+      </c>
+      <c r="EK167" s="2">
+        <v>159</v>
+      </c>
+      <c r="EL167" s="2">
+        <v>75</v>
+      </c>
+      <c r="EM167" s="2">
+        <v>121</v>
+      </c>
+      <c r="EN167" s="2">
+        <v>242</v>
+      </c>
+      <c r="EO167" s="2">
+        <v>114</v>
+      </c>
+      <c r="EP167" s="2">
+        <v>150</v>
+      </c>
+      <c r="EQ167" s="2">
+        <v>59</v>
+      </c>
+      <c r="ER167" s="2">
+        <v>119</v>
+      </c>
+      <c r="ES167" s="2">
+        <v>172</v>
+      </c>
+      <c r="ET167" s="2">
+        <v>30</v>
+      </c>
+      <c r="EU167" s="2">
+        <v>28</v>
+      </c>
+      <c r="EV167" s="2">
+        <v>62</v>
+      </c>
+      <c r="EW167" s="2">
+        <v>56</v>
+      </c>
+      <c r="EX167" s="2">
+        <v>169</v>
+      </c>
+      <c r="EY167" s="2">
+        <v>15</v>
+      </c>
+      <c r="EZ167" s="2">
+        <v>47</v>
+      </c>
+      <c r="FA167" s="2">
+        <v>151</v>
+      </c>
+      <c r="FB167" s="2">
+        <v>118</v>
+      </c>
+      <c r="FC167" s="2">
+        <v>29</v>
+      </c>
+      <c r="FD167" s="2">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FBBEB2-6954-47AB-97B6-DB9E132383EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48219B60-B860-4D3F-8420-F21DFCD15F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1118,82 +1118,82 @@
     <t>2011-07:2023-11</t>
   </si>
   <si>
-    <t>2015-06:2023-11</t>
-  </si>
-  <si>
     <t>2023-12-29</t>
   </si>
   <si>
-    <t>2008-12:2024-02</t>
+    <t>2024-04-12</t>
   </si>
   <si>
-    <t>2009-04:2024-02</t>
+    <t>2008-12:2024-03</t>
   </si>
   <si>
-    <t>2010-11:2024-02</t>
+    <t>2009-04:2024-03</t>
   </si>
   <si>
-    <t>2009-06:2024-02</t>
+    <t>2009-10:2024-03</t>
   </si>
   <si>
-    <t>2009-05:2024-02</t>
+    <t>2010-11:2024-03</t>
   </si>
   <si>
-    <t>2009-10:2024-02</t>
+    <t>2009-06:2024-03</t>
   </si>
   <si>
-    <t>2011-06:2024-02</t>
+    <t>2009-05:2024-03</t>
   </si>
   <si>
-    <t>2010-09:2024-02</t>
+    <t>2011-06:2024-03</t>
   </si>
   <si>
-    <t>2011-04:2024-02</t>
+    <t>2010-09:2024-03</t>
   </si>
   <si>
-    <t>2015-03:2024-02</t>
+    <t>2015-06:2024-03</t>
   </si>
   <si>
-    <t>2014-02:2024-02</t>
+    <t>2011-04:2024-03</t>
   </si>
   <si>
-    <t>2014-04:2024-02</t>
+    <t>2015-03:2024-03</t>
   </si>
   <si>
-    <t>2013-05:2024-02</t>
+    <t>2014-02:2024-03</t>
   </si>
   <si>
-    <t>2013-04:2024-02</t>
+    <t>2014-04:2024-03</t>
   </si>
   <si>
-    <t>2013-10:2024-02</t>
+    <t>2013-05:2024-03</t>
   </si>
   <si>
-    <t>2013-07:2024-02</t>
+    <t>2013-04:2024-03</t>
   </si>
   <si>
-    <t>2014-06:2024-02</t>
+    <t>2013-10:2024-03</t>
   </si>
   <si>
-    <t>2014-08:2024-02</t>
+    <t>2013-07:2024-03</t>
   </si>
   <si>
-    <t>2015-02:2024-02</t>
+    <t>2014-06:2024-03</t>
   </si>
   <si>
-    <t>2015-07:2024-02</t>
+    <t>2014-08:2024-03</t>
   </si>
   <si>
-    <t>2015-12:2024-02</t>
+    <t>2015-02:2024-03</t>
   </si>
   <si>
-    <t>2015-05:2024-02</t>
+    <t>2015-07:2024-03</t>
   </si>
   <si>
-    <t>2024-04-02</t>
+    <t>2015-12:2024-03</t>
   </si>
   <si>
-    <t>2024-04-12</t>
+    <t>2015-05:2024-03</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD167"/>
+  <dimension ref="A1:FD168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
       <selection activeCell="C161" sqref="C161"/>
@@ -3559,7 +3559,7 @@
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>348</v>
@@ -3583,7 +3583,7 @@
         <v>355</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
@@ -3622,7 +3622,7 @@
         <v>346</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>346</v>
@@ -3643,10 +3643,10 @@
         <v>355</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AL6" s="4" t="s">
         <v>355</v>
@@ -3667,7 +3667,7 @@
         <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AS6" s="4" t="s">
         <v>355</v>
@@ -3739,13 +3739,13 @@
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BQ6" s="4" t="s">
         <v>355</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BS6" s="4" t="s">
         <v>355</v>
@@ -3769,7 +3769,7 @@
         <v>355</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CA6" s="4" t="s">
         <v>355</v>
@@ -3784,22 +3784,22 @@
         <v>355</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="CG6" s="4" t="s">
         <v>355</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CK6" s="4" t="s">
         <v>361</v>
@@ -3811,19 +3811,19 @@
         <v>355</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CP6" s="4" t="s">
         <v>355</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="CS6" s="4" t="s">
         <v>355</v>
@@ -3925,97 +3925,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="EB6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EC6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EH6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="EH6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4505,7 +4505,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4514,22 +4514,22 @@
         <v>339</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4538,262 +4538,262 @@
         <v>339</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="BH8" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="AK8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="BH8" s="5" t="s">
+      <c r="BI8" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="BI8" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="BJ8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>340</v>
@@ -4853,7 +4853,7 @@
         <v>344</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>340</v>
@@ -4889,97 +4889,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -81617,6 +81617,488 @@
         <v>29</v>
       </c>
       <c r="FD167" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="168" spans="1:160">
+      <c r="A168" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B168" s="2">
+        <v>181</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2">
+        <v>0</v>
+      </c>
+      <c r="F168" s="2">
+        <v>1</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>30</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K168" s="2">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2">
+        <v>0</v>
+      </c>
+      <c r="M168" s="2">
+        <v>0</v>
+      </c>
+      <c r="N168" s="2">
+        <v>0</v>
+      </c>
+      <c r="O168" s="2">
+        <v>70</v>
+      </c>
+      <c r="P168" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>0</v>
+      </c>
+      <c r="R168" s="2">
+        <v>4</v>
+      </c>
+      <c r="S168" s="2">
+        <v>0</v>
+      </c>
+      <c r="T168" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U168" s="2">
+        <v>0</v>
+      </c>
+      <c r="V168" s="2">
+        <v>0</v>
+      </c>
+      <c r="W168" s="2">
+        <v>0</v>
+      </c>
+      <c r="X168" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y168" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AD168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG168" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH168" s="2">
+        <v>639</v>
+      </c>
+      <c r="AI168" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ168" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK168" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL168" s="2">
+        <v>30</v>
+      </c>
+      <c r="AM168" s="2">
+        <v>28</v>
+      </c>
+      <c r="AN168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO168" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP168" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR168" s="2">
+        <v>23</v>
+      </c>
+      <c r="AS168" s="2">
+        <v>7</v>
+      </c>
+      <c r="AT168" s="2">
+        <v>16</v>
+      </c>
+      <c r="AU168" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV168" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW168" s="2">
+        <v>41</v>
+      </c>
+      <c r="AX168" s="2">
+        <v>31</v>
+      </c>
+      <c r="AY168" s="2">
+        <v>42</v>
+      </c>
+      <c r="AZ168" s="2">
+        <v>9</v>
+      </c>
+      <c r="BA168" s="2">
+        <v>130</v>
+      </c>
+      <c r="BB168" s="2">
+        <v>73</v>
+      </c>
+      <c r="BC168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD168" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI168" s="2">
+        <v>169</v>
+      </c>
+      <c r="BJ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM168" s="2">
+        <v>10</v>
+      </c>
+      <c r="BN168" s="2">
+        <v>1550</v>
+      </c>
+      <c r="BO168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP168" s="2">
+        <v>5</v>
+      </c>
+      <c r="BQ168" s="2">
+        <v>17</v>
+      </c>
+      <c r="BR168" s="2">
+        <v>23</v>
+      </c>
+      <c r="BS168" s="2">
+        <v>356</v>
+      </c>
+      <c r="BT168" s="2">
+        <v>35</v>
+      </c>
+      <c r="BU168" s="2">
+        <v>88</v>
+      </c>
+      <c r="BV168" s="2">
+        <v>121</v>
+      </c>
+      <c r="BW168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX168" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ168" s="2">
+        <v>17</v>
+      </c>
+      <c r="CA168" s="2">
+        <v>21</v>
+      </c>
+      <c r="CB168" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC168" s="2">
+        <v>44</v>
+      </c>
+      <c r="CD168" s="2">
+        <v>55</v>
+      </c>
+      <c r="CE168" s="2">
+        <v>16</v>
+      </c>
+      <c r="CF168" s="2">
+        <v>25</v>
+      </c>
+      <c r="CG168" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH168" s="2">
+        <v>83</v>
+      </c>
+      <c r="CI168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ168" s="2">
+        <v>11</v>
+      </c>
+      <c r="CK168" s="2">
+        <v>30</v>
+      </c>
+      <c r="CL168" s="2">
+        <v>38</v>
+      </c>
+      <c r="CM168" s="2">
+        <v>18</v>
+      </c>
+      <c r="CN168" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO168" s="2">
+        <v>5</v>
+      </c>
+      <c r="CP168" s="2">
+        <v>210</v>
+      </c>
+      <c r="CQ168" s="2">
+        <v>17</v>
+      </c>
+      <c r="CR168" s="2">
+        <v>5</v>
+      </c>
+      <c r="CS168" s="2">
+        <v>301</v>
+      </c>
+      <c r="CT168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY168" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY168" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ168" s="2">
+        <v>3</v>
+      </c>
+      <c r="EA168" s="2">
+        <v>58</v>
+      </c>
+      <c r="EB168" s="2">
+        <v>313</v>
+      </c>
+      <c r="EC168" s="2">
+        <v>152</v>
+      </c>
+      <c r="ED168" s="2">
+        <v>340</v>
+      </c>
+      <c r="EE168" s="2">
+        <v>80</v>
+      </c>
+      <c r="EF168" s="2">
+        <v>23</v>
+      </c>
+      <c r="EG168" s="2">
+        <v>13</v>
+      </c>
+      <c r="EH168" s="2">
+        <v>19</v>
+      </c>
+      <c r="EI168" s="2">
+        <v>493</v>
+      </c>
+      <c r="EJ168" s="2">
+        <v>240</v>
+      </c>
+      <c r="EK168" s="2">
+        <v>209</v>
+      </c>
+      <c r="EL168" s="2">
+        <v>100</v>
+      </c>
+      <c r="EM168" s="2">
+        <v>127</v>
+      </c>
+      <c r="EN168" s="2">
+        <v>323</v>
+      </c>
+      <c r="EO168" s="2">
+        <v>148</v>
+      </c>
+      <c r="EP168" s="2">
+        <v>213</v>
+      </c>
+      <c r="EQ168" s="2">
+        <v>90</v>
+      </c>
+      <c r="ER168" s="2">
+        <v>158</v>
+      </c>
+      <c r="ES168" s="2">
+        <v>186</v>
+      </c>
+      <c r="ET168" s="2">
+        <v>177</v>
+      </c>
+      <c r="EU168" s="2">
+        <v>32</v>
+      </c>
+      <c r="EV168" s="2">
+        <v>86</v>
+      </c>
+      <c r="EW168" s="2">
+        <v>82</v>
+      </c>
+      <c r="EX168" s="2">
+        <v>199</v>
+      </c>
+      <c r="EY168" s="2">
+        <v>15</v>
+      </c>
+      <c r="EZ168" s="2">
+        <v>57</v>
+      </c>
+      <c r="FA168" s="2">
+        <v>163</v>
+      </c>
+      <c r="FB168" s="2">
+        <v>118</v>
+      </c>
+      <c r="FC168" s="2">
+        <v>106</v>
+      </c>
+      <c r="FD168" s="2">
         <v>254</v>
       </c>
     </row>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48219B60-B860-4D3F-8420-F21DFCD15F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49703D1-B23A-4353-AF10-ECC88BBDA8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1596,11 +1596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49703D1-B23A-4353-AF10-ECC88BBDA8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF46D0-8C8E-4FE2-827D-C7F28148E965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="381">
   <si>
     <t>Name</t>
   </si>
@@ -1124,76 +1124,82 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2008-12:2024-03</t>
-  </si>
-  <si>
     <t>2009-04:2024-03</t>
   </si>
   <si>
-    <t>2009-10:2024-03</t>
+    <t>2024-04-26</t>
   </si>
   <si>
-    <t>2010-11:2024-03</t>
+    <t>2008-12:2024-04</t>
   </si>
   <si>
-    <t>2009-06:2024-03</t>
+    <t>2009-04:2024-04</t>
   </si>
   <si>
-    <t>2009-05:2024-03</t>
+    <t>2009-10:2024-04</t>
   </si>
   <si>
-    <t>2011-06:2024-03</t>
+    <t>2010-11:2024-04</t>
   </si>
   <si>
-    <t>2010-09:2024-03</t>
+    <t>2009-06:2024-04</t>
   </si>
   <si>
-    <t>2015-06:2024-03</t>
+    <t>2009-05:2024-04</t>
   </si>
   <si>
-    <t>2011-04:2024-03</t>
+    <t>2011-06:2024-04</t>
   </si>
   <si>
-    <t>2015-03:2024-03</t>
+    <t>2010-09:2024-04</t>
   </si>
   <si>
-    <t>2014-02:2024-03</t>
+    <t>2015-06:2024-04</t>
   </si>
   <si>
-    <t>2014-04:2024-03</t>
+    <t>2011-04:2024-04</t>
   </si>
   <si>
-    <t>2013-05:2024-03</t>
+    <t>2015-03:2024-04</t>
   </si>
   <si>
-    <t>2013-04:2024-03</t>
+    <t>2014-02:2024-04</t>
   </si>
   <si>
-    <t>2013-10:2024-03</t>
+    <t>2014-04:2024-04</t>
   </si>
   <si>
-    <t>2013-07:2024-03</t>
+    <t>2013-05:2024-04</t>
   </si>
   <si>
-    <t>2014-06:2024-03</t>
+    <t>2013-04:2024-04</t>
   </si>
   <si>
-    <t>2014-08:2024-03</t>
+    <t>2013-10:2024-04</t>
   </si>
   <si>
-    <t>2015-02:2024-03</t>
+    <t>2013-07:2024-04</t>
   </si>
   <si>
-    <t>2015-07:2024-03</t>
+    <t>2014-06:2024-04</t>
   </si>
   <si>
-    <t>2015-12:2024-03</t>
+    <t>2014-08:2024-04</t>
   </si>
   <si>
-    <t>2015-05:2024-03</t>
+    <t>2015-02:2024-04</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2015-07:2024-04</t>
+  </si>
+  <si>
+    <t>2015-12:2024-04</t>
+  </si>
+  <si>
+    <t>2015-05:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -1594,11 +1600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD168"/>
+  <dimension ref="A1:FD169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">
@@ -3539,7 +3545,7 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>325</v>
@@ -3551,19 +3557,19 @@
         <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>348</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
@@ -3578,22 +3584,22 @@
         <v>349</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>330</v>
@@ -3605,7 +3611,7 @@
         <v>346</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>346</v>
@@ -3617,97 +3623,97 @@
         <v>346</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BC6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>346</v>
@@ -3716,7 +3722,7 @@
         <v>345</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>346</v>
@@ -3725,106 +3731,106 @@
         <v>352</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="BZ6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CE6" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="CA6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CE6" s="4" t="s">
+      <c r="CF6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CG6" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="CF6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="CH6" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="CK6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>358</v>
-      </c>
       <c r="CP6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CT6" s="4" t="s">
         <v>351</v>
@@ -3923,97 +3929,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="EB6" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="EC6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="EH6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EH6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="EI6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="ET6" s="4" t="s">
+      <c r="FA6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="EU6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="FA6" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="FB6" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4503,7 +4509,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4515,19 +4521,19 @@
         <v>353</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4542,22 +4548,22 @@
         <v>353</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
@@ -4569,7 +4575,7 @@
         <v>353</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>353</v>
@@ -4581,97 +4587,97 @@
         <v>353</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BC8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BG8" s="5" t="s">
         <v>353</v>
@@ -4680,7 +4686,7 @@
         <v>354</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BJ8" s="5" t="s">
         <v>353</v>
@@ -4689,106 +4695,106 @@
         <v>353</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CI8" s="5" t="s">
         <v>353</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CT8" s="5" t="s">
         <v>353</v>
@@ -4887,97 +4893,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -82098,6 +82104,488 @@
       </c>
       <c r="FD168" s="2">
         <v>254</v>
+      </c>
+    </row>
+    <row r="169" spans="1:160">
+      <c r="A169" s="3">
+        <v>45412</v>
+      </c>
+      <c r="B169" s="2">
+        <v>272</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2">
+        <v>1</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>30</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2">
+        <v>0</v>
+      </c>
+      <c r="M169" s="2">
+        <v>0</v>
+      </c>
+      <c r="N169" s="2">
+        <v>0</v>
+      </c>
+      <c r="O169" s="2">
+        <v>70</v>
+      </c>
+      <c r="P169" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>0</v>
+      </c>
+      <c r="R169" s="2">
+        <v>4</v>
+      </c>
+      <c r="S169" s="2">
+        <v>0</v>
+      </c>
+      <c r="T169" s="2">
+        <v>1</v>
+      </c>
+      <c r="U169" s="2">
+        <v>0</v>
+      </c>
+      <c r="V169" s="2">
+        <v>0</v>
+      </c>
+      <c r="W169" s="2">
+        <v>0</v>
+      </c>
+      <c r="X169" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y169" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC169" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE169" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG169" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH169" s="2">
+        <v>916</v>
+      </c>
+      <c r="AI169" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ169" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK169" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL169" s="2">
+        <v>31</v>
+      </c>
+      <c r="AM169" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO169" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP169" s="2">
+        <v>11</v>
+      </c>
+      <c r="AQ169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR169" s="2">
+        <v>23</v>
+      </c>
+      <c r="AS169" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT169" s="2">
+        <v>69</v>
+      </c>
+      <c r="AU169" s="2">
+        <v>9</v>
+      </c>
+      <c r="AV169" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW169" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX169" s="2">
+        <v>36</v>
+      </c>
+      <c r="AY169" s="2">
+        <v>42</v>
+      </c>
+      <c r="AZ169" s="2">
+        <v>9</v>
+      </c>
+      <c r="BA169" s="2">
+        <v>141</v>
+      </c>
+      <c r="BB169" s="2">
+        <v>204</v>
+      </c>
+      <c r="BC169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD169" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE169" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF169" s="2">
+        <v>3</v>
+      </c>
+      <c r="BG169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI169" s="2">
+        <v>169</v>
+      </c>
+      <c r="BJ169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL169" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM169" s="2">
+        <v>10</v>
+      </c>
+      <c r="BN169" s="2">
+        <v>1684</v>
+      </c>
+      <c r="BO169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP169" s="2">
+        <v>7</v>
+      </c>
+      <c r="BQ169" s="2">
+        <v>19</v>
+      </c>
+      <c r="BR169" s="2">
+        <v>31</v>
+      </c>
+      <c r="BS169" s="2">
+        <v>362</v>
+      </c>
+      <c r="BT169" s="2">
+        <v>44</v>
+      </c>
+      <c r="BU169" s="2">
+        <v>88</v>
+      </c>
+      <c r="BV169" s="2">
+        <v>151</v>
+      </c>
+      <c r="BW169" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX169" s="2">
+        <v>11</v>
+      </c>
+      <c r="BY169" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ169" s="2">
+        <v>31</v>
+      </c>
+      <c r="CA169" s="2">
+        <v>28</v>
+      </c>
+      <c r="CB169" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC169" s="2">
+        <v>44</v>
+      </c>
+      <c r="CD169" s="2">
+        <v>55</v>
+      </c>
+      <c r="CE169" s="2">
+        <v>35</v>
+      </c>
+      <c r="CF169" s="2">
+        <v>28</v>
+      </c>
+      <c r="CG169" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH169" s="2">
+        <v>89</v>
+      </c>
+      <c r="CI169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ169" s="2">
+        <v>12</v>
+      </c>
+      <c r="CK169" s="2">
+        <v>30</v>
+      </c>
+      <c r="CL169" s="2">
+        <v>48</v>
+      </c>
+      <c r="CM169" s="2">
+        <v>21</v>
+      </c>
+      <c r="CN169" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO169" s="2">
+        <v>5</v>
+      </c>
+      <c r="CP169" s="2">
+        <v>211</v>
+      </c>
+      <c r="CQ169" s="2">
+        <v>22</v>
+      </c>
+      <c r="CR169" s="2">
+        <v>5</v>
+      </c>
+      <c r="CS169" s="2">
+        <v>301</v>
+      </c>
+      <c r="CT169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY169" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DO169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY169" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ169" s="2">
+        <v>3</v>
+      </c>
+      <c r="EA169" s="2">
+        <v>74</v>
+      </c>
+      <c r="EB169" s="2">
+        <v>375</v>
+      </c>
+      <c r="EC169" s="2">
+        <v>192</v>
+      </c>
+      <c r="ED169" s="2">
+        <v>376</v>
+      </c>
+      <c r="EE169" s="2">
+        <v>99</v>
+      </c>
+      <c r="EF169" s="2">
+        <v>30</v>
+      </c>
+      <c r="EG169" s="2">
+        <v>29</v>
+      </c>
+      <c r="EH169" s="2">
+        <v>28</v>
+      </c>
+      <c r="EI169" s="2">
+        <v>662</v>
+      </c>
+      <c r="EJ169" s="2">
+        <v>303</v>
+      </c>
+      <c r="EK169" s="2">
+        <v>283</v>
+      </c>
+      <c r="EL169" s="2">
+        <v>135</v>
+      </c>
+      <c r="EM169" s="2">
+        <v>225</v>
+      </c>
+      <c r="EN169" s="2">
+        <v>419</v>
+      </c>
+      <c r="EO169" s="2">
+        <v>211</v>
+      </c>
+      <c r="EP169" s="2">
+        <v>267</v>
+      </c>
+      <c r="EQ169" s="2">
+        <v>157</v>
+      </c>
+      <c r="ER169" s="2">
+        <v>495</v>
+      </c>
+      <c r="ES169" s="2">
+        <v>216</v>
+      </c>
+      <c r="ET169" s="2">
+        <v>131</v>
+      </c>
+      <c r="EU169" s="2">
+        <v>35</v>
+      </c>
+      <c r="EV169" s="2">
+        <v>128</v>
+      </c>
+      <c r="EW169" s="2">
+        <v>98</v>
+      </c>
+      <c r="EX169" s="2">
+        <v>249</v>
+      </c>
+      <c r="EY169" s="2">
+        <v>16</v>
+      </c>
+      <c r="EZ169" s="2">
+        <v>85</v>
+      </c>
+      <c r="FA169" s="2">
+        <v>193</v>
+      </c>
+      <c r="FB169" s="2">
+        <v>118</v>
+      </c>
+      <c r="FC169" s="2">
+        <v>116</v>
+      </c>
+      <c r="FD169" s="2">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF46D0-8C8E-4FE2-827D-C7F28148E965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5009B-5B27-4D46-910F-F09481190DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6650" yWindow="1620" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -1112,9 +1112,6 @@
     <t>2010-10:2023-11</t>
   </si>
   <si>
-    <t>2009-06:2023-11</t>
-  </si>
-  <si>
     <t>2011-07:2023-11</t>
   </si>
   <si>
@@ -1124,82 +1121,76 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2009-04:2024-03</t>
+    <t>2008-12:2024-05</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2009-04:2024-05</t>
   </si>
   <si>
-    <t>2008-12:2024-04</t>
+    <t>2009-10:2024-05</t>
   </si>
   <si>
-    <t>2009-04:2024-04</t>
+    <t>2010-11:2024-05</t>
   </si>
   <si>
-    <t>2009-10:2024-04</t>
+    <t>2009-06:2024-05</t>
   </si>
   <si>
-    <t>2010-11:2024-04</t>
+    <t>2009-05:2024-05</t>
   </si>
   <si>
-    <t>2009-06:2024-04</t>
+    <t>2011-06:2024-05</t>
   </si>
   <si>
-    <t>2009-05:2024-04</t>
+    <t>2010-09:2024-05</t>
   </si>
   <si>
-    <t>2011-06:2024-04</t>
+    <t>2015-06:2024-05</t>
   </si>
   <si>
-    <t>2010-09:2024-04</t>
+    <t>2011-04:2024-05</t>
   </si>
   <si>
-    <t>2015-06:2024-04</t>
+    <t>2015-03:2024-05</t>
   </si>
   <si>
-    <t>2011-04:2024-04</t>
+    <t>2014-02:2024-05</t>
   </si>
   <si>
-    <t>2015-03:2024-04</t>
+    <t>2014-04:2024-05</t>
   </si>
   <si>
-    <t>2014-02:2024-04</t>
+    <t>2013-05:2024-05</t>
   </si>
   <si>
-    <t>2014-04:2024-04</t>
+    <t>2013-04:2024-05</t>
   </si>
   <si>
-    <t>2013-05:2024-04</t>
+    <t>2013-10:2024-05</t>
   </si>
   <si>
-    <t>2013-04:2024-04</t>
+    <t>2013-07:2024-05</t>
   </si>
   <si>
-    <t>2013-10:2024-04</t>
+    <t>2014-06:2024-05</t>
   </si>
   <si>
-    <t>2013-07:2024-04</t>
+    <t>2014-08:2024-05</t>
   </si>
   <si>
-    <t>2014-06:2024-04</t>
+    <t>2015-02:2024-05</t>
   </si>
   <si>
-    <t>2014-08:2024-04</t>
+    <t>2015-07:2024-05</t>
   </si>
   <si>
-    <t>2015-02:2024-04</t>
+    <t>2015-12:2024-05</t>
   </si>
   <si>
-    <t>2015-07:2024-04</t>
+    <t>2015-05:2024-05</t>
   </si>
   <si>
-    <t>2015-12:2024-04</t>
-  </si>
-  <si>
-    <t>2015-05:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
+    <t>2024-07-04</t>
   </si>
 </sst>
 </file>
@@ -1600,11 +1591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD169"/>
+  <dimension ref="A1:FD170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DJ2" sqref="DJ2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">
@@ -3545,7 +3538,7 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>325</v>
@@ -3557,13 +3550,13 @@
         <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>348</v>
@@ -3584,22 +3577,22 @@
         <v>349</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>330</v>
@@ -3611,7 +3604,7 @@
         <v>346</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>346</v>
@@ -3623,97 +3616,97 @@
         <v>346</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AN6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>346</v>
@@ -3722,118 +3715,118 @@
         <v>345</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CC6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CD6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CN6" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="CK6" s="4" t="s">
+      <c r="CO6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CP6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="CL6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="CR6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="CT6" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3893,7 +3886,7 @@
         <v>335</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3929,97 +3922,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EA6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="EB6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EC6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EA6" s="4" t="s">
+      <c r="ED6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EB6" s="4" t="s">
+      <c r="EE6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EF6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EG6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="EH6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="EI6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="EE6" s="4" t="s">
+      <c r="EK6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EO6" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="EF6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EG6" s="4" t="s">
+      <c r="EP6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="ER6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="ES6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EX6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EY6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EH6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4509,7 +4502,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4518,22 +4511,22 @@
         <v>339</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4542,262 +4535,262 @@
         <v>339</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AN8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="BH8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="AO8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="BI8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>340</v>
@@ -4857,7 +4850,7 @@
         <v>344</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>340</v>
@@ -4893,97 +4886,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -82586,6 +82579,488 @@
       </c>
       <c r="FD169" s="2">
         <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:160">
+      <c r="A170" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B170" s="2">
+        <v>344</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>30</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2">
+        <v>0</v>
+      </c>
+      <c r="M170" s="2">
+        <v>0</v>
+      </c>
+      <c r="N170" s="2">
+        <v>0</v>
+      </c>
+      <c r="O170" s="2">
+        <v>70</v>
+      </c>
+      <c r="P170" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>0</v>
+      </c>
+      <c r="R170" s="2">
+        <v>4</v>
+      </c>
+      <c r="S170" s="2">
+        <v>12</v>
+      </c>
+      <c r="T170" s="2">
+        <v>1</v>
+      </c>
+      <c r="U170" s="2">
+        <v>0</v>
+      </c>
+      <c r="V170" s="2">
+        <v>0</v>
+      </c>
+      <c r="W170" s="2">
+        <v>0</v>
+      </c>
+      <c r="X170" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y170" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC170" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="2">
+        <v>55</v>
+      </c>
+      <c r="AF170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG170" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH170" s="2">
+        <v>1210</v>
+      </c>
+      <c r="AI170" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ170" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK170" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL170" s="2">
+        <v>33</v>
+      </c>
+      <c r="AM170" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO170" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP170" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR170" s="2">
+        <v>23</v>
+      </c>
+      <c r="AS170" s="2">
+        <v>12</v>
+      </c>
+      <c r="AT170" s="2">
+        <v>69</v>
+      </c>
+      <c r="AU170" s="2">
+        <v>32</v>
+      </c>
+      <c r="AV170" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW170" s="2">
+        <v>120</v>
+      </c>
+      <c r="AX170" s="2">
+        <v>96</v>
+      </c>
+      <c r="AY170" s="2">
+        <v>51</v>
+      </c>
+      <c r="AZ170" s="2">
+        <v>9</v>
+      </c>
+      <c r="BA170" s="2">
+        <v>277</v>
+      </c>
+      <c r="BB170" s="2">
+        <v>204</v>
+      </c>
+      <c r="BC170" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD170" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE170" s="2">
+        <v>20</v>
+      </c>
+      <c r="BF170" s="2">
+        <v>5</v>
+      </c>
+      <c r="BG170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI170" s="2">
+        <v>169</v>
+      </c>
+      <c r="BJ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL170" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM170" s="2">
+        <v>12</v>
+      </c>
+      <c r="BN170" s="2">
+        <v>1976</v>
+      </c>
+      <c r="BO170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP170" s="2">
+        <v>7</v>
+      </c>
+      <c r="BQ170" s="2">
+        <v>20</v>
+      </c>
+      <c r="BR170" s="2">
+        <v>31</v>
+      </c>
+      <c r="BS170" s="2">
+        <v>429</v>
+      </c>
+      <c r="BT170" s="2">
+        <v>66</v>
+      </c>
+      <c r="BU170" s="2">
+        <v>93</v>
+      </c>
+      <c r="BV170" s="2">
+        <v>155</v>
+      </c>
+      <c r="BW170" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX170" s="2">
+        <v>11</v>
+      </c>
+      <c r="BY170" s="2">
+        <v>3</v>
+      </c>
+      <c r="BZ170" s="2">
+        <v>37</v>
+      </c>
+      <c r="CA170" s="2">
+        <v>28</v>
+      </c>
+      <c r="CB170" s="2">
+        <v>5</v>
+      </c>
+      <c r="CC170" s="2">
+        <v>44</v>
+      </c>
+      <c r="CD170" s="2">
+        <v>56</v>
+      </c>
+      <c r="CE170" s="2">
+        <v>45</v>
+      </c>
+      <c r="CF170" s="2">
+        <v>33</v>
+      </c>
+      <c r="CG170" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH170" s="2">
+        <v>99</v>
+      </c>
+      <c r="CI170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ170" s="2">
+        <v>12</v>
+      </c>
+      <c r="CK170" s="2">
+        <v>40</v>
+      </c>
+      <c r="CL170" s="2">
+        <v>54</v>
+      </c>
+      <c r="CM170" s="2">
+        <v>27</v>
+      </c>
+      <c r="CN170" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO170" s="2">
+        <v>6</v>
+      </c>
+      <c r="CP170" s="2">
+        <v>256</v>
+      </c>
+      <c r="CQ170" s="2">
+        <v>22</v>
+      </c>
+      <c r="CR170" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS170" s="2">
+        <v>358</v>
+      </c>
+      <c r="CT170" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY170" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN170" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY170" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ170" s="2">
+        <v>3</v>
+      </c>
+      <c r="EA170" s="2">
+        <v>95</v>
+      </c>
+      <c r="EB170" s="2">
+        <v>416</v>
+      </c>
+      <c r="EC170" s="2">
+        <v>254</v>
+      </c>
+      <c r="ED170" s="2">
+        <v>376</v>
+      </c>
+      <c r="EE170" s="2">
+        <v>116</v>
+      </c>
+      <c r="EF170" s="2">
+        <v>44</v>
+      </c>
+      <c r="EG170" s="2">
+        <v>34</v>
+      </c>
+      <c r="EH170" s="2">
+        <v>36</v>
+      </c>
+      <c r="EI170" s="2">
+        <v>839</v>
+      </c>
+      <c r="EJ170" s="2">
+        <v>390</v>
+      </c>
+      <c r="EK170" s="2">
+        <v>376</v>
+      </c>
+      <c r="EL170" s="2">
+        <v>159</v>
+      </c>
+      <c r="EM170" s="2">
+        <v>276</v>
+      </c>
+      <c r="EN170" s="2">
+        <v>549</v>
+      </c>
+      <c r="EO170" s="2">
+        <v>252</v>
+      </c>
+      <c r="EP170" s="2">
+        <v>349</v>
+      </c>
+      <c r="EQ170" s="2">
+        <v>203</v>
+      </c>
+      <c r="ER170" s="2">
+        <v>624</v>
+      </c>
+      <c r="ES170" s="2">
+        <v>289</v>
+      </c>
+      <c r="ET170" s="2">
+        <v>147</v>
+      </c>
+      <c r="EU170" s="2">
+        <v>41</v>
+      </c>
+      <c r="EV170" s="2">
+        <v>136</v>
+      </c>
+      <c r="EW170" s="2">
+        <v>124</v>
+      </c>
+      <c r="EX170" s="2">
+        <v>354</v>
+      </c>
+      <c r="EY170" s="2">
+        <v>16</v>
+      </c>
+      <c r="EZ170" s="2">
+        <v>94</v>
+      </c>
+      <c r="FA170" s="2">
+        <v>204</v>
+      </c>
+      <c r="FB170" s="2">
+        <v>144</v>
+      </c>
+      <c r="FC170" s="2">
+        <v>143</v>
+      </c>
+      <c r="FD170" s="2">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE5009B-5B27-4D46-910F-F09481190DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704F123-BED9-4300-878E-27BD9F916C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6650" yWindow="1620" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1593,11 +1593,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E704F123-BED9-4300-878E-27BD9F916C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41782DB-ACF4-47D2-804D-49E1E674308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="379">
   <si>
     <t>Name</t>
   </si>
@@ -1121,76 +1121,79 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2008-12:2024-05</t>
-  </si>
-  <si>
-    <t>2009-04:2024-05</t>
-  </si>
-  <si>
-    <t>2009-10:2024-05</t>
-  </si>
-  <si>
-    <t>2010-11:2024-05</t>
-  </si>
-  <si>
-    <t>2009-06:2024-05</t>
-  </si>
-  <si>
-    <t>2009-05:2024-05</t>
-  </si>
-  <si>
-    <t>2011-06:2024-05</t>
-  </si>
-  <si>
-    <t>2010-09:2024-05</t>
-  </si>
-  <si>
     <t>2015-06:2024-05</t>
   </si>
   <si>
-    <t>2011-04:2024-05</t>
+    <t>2024-07-04</t>
   </si>
   <si>
-    <t>2015-03:2024-05</t>
+    <t>2008-12:2024-06</t>
   </si>
   <si>
-    <t>2014-02:2024-05</t>
+    <t>2009-04:2024-06</t>
   </si>
   <si>
-    <t>2014-04:2024-05</t>
+    <t>2009-10:2024-06</t>
   </si>
   <si>
-    <t>2013-05:2024-05</t>
+    <t>2010-11:2024-06</t>
   </si>
   <si>
-    <t>2013-04:2024-05</t>
+    <t>2009-06:2024-06</t>
   </si>
   <si>
-    <t>2013-10:2024-05</t>
+    <t>2009-05:2024-06</t>
   </si>
   <si>
-    <t>2013-07:2024-05</t>
+    <t>2011-06:2024-06</t>
   </si>
   <si>
-    <t>2014-06:2024-05</t>
+    <t>2010-09:2024-06</t>
   </si>
   <si>
-    <t>2014-08:2024-05</t>
+    <t>2011-04:2024-06</t>
   </si>
   <si>
-    <t>2015-02:2024-05</t>
+    <t>2015-03:2024-06</t>
   </si>
   <si>
-    <t>2015-07:2024-05</t>
+    <t>2014-02:2024-06</t>
   </si>
   <si>
-    <t>2015-12:2024-05</t>
+    <t>2014-04:2024-06</t>
   </si>
   <si>
-    <t>2015-05:2024-05</t>
+    <t>2013-05:2024-06</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2013-04:2024-06</t>
+  </si>
+  <si>
+    <t>2013-10:2024-06</t>
+  </si>
+  <si>
+    <t>2013-07:2024-06</t>
+  </si>
+  <si>
+    <t>2014-06:2024-06</t>
+  </si>
+  <si>
+    <t>2014-08:2024-06</t>
+  </si>
+  <si>
+    <t>2015-02:2024-06</t>
+  </si>
+  <si>
+    <t>2015-07:2024-06</t>
+  </si>
+  <si>
+    <t>2015-12:2024-06</t>
+  </si>
+  <si>
+    <t>2015-05:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
   </si>
 </sst>
 </file>
@@ -1591,13 +1594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD170"/>
+  <dimension ref="A1:FD171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DJ2" sqref="DJ2"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">
@@ -3538,7 +3541,7 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>325</v>
@@ -3550,19 +3553,19 @@
         <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>348</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
@@ -3571,28 +3574,28 @@
         <v>329</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>349</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>330</v>
@@ -3604,7 +3607,7 @@
         <v>346</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>346</v>
@@ -3613,100 +3616,100 @@
         <v>346</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>346</v>
@@ -3715,7 +3718,7 @@
         <v>345</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>346</v>
@@ -3724,109 +3727,109 @@
         <v>351</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="BZ6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CE6" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="CA6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CE6" s="4" t="s">
+      <c r="CF6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="CG6" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="CF6" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>354</v>
-      </c>
       <c r="CH6" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="CK6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3886,7 +3889,7 @@
         <v>335</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3922,97 +3925,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="EB6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EC6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EH6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="EH6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4502,7 +4505,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4514,19 +4517,19 @@
         <v>352</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4535,28 +4538,28 @@
         <v>339</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
@@ -4568,7 +4571,7 @@
         <v>352</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>352</v>
@@ -4577,100 +4580,100 @@
         <v>352</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BG8" s="5" t="s">
         <v>352</v>
@@ -4679,7 +4682,7 @@
         <v>353</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BJ8" s="5" t="s">
         <v>352</v>
@@ -4688,109 +4691,109 @@
         <v>352</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CI8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>340</v>
@@ -4850,7 +4853,7 @@
         <v>344</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>340</v>
@@ -4886,97 +4889,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -83061,6 +83064,488 @@
       </c>
       <c r="FD170" s="2">
         <v>829</v>
+      </c>
+    </row>
+    <row r="171" spans="1:160">
+      <c r="A171" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B171" s="2">
+        <v>499</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <v>0</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>60</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K171" s="2">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2">
+        <v>0</v>
+      </c>
+      <c r="M171" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N171" s="2">
+        <v>0</v>
+      </c>
+      <c r="O171" s="2">
+        <v>70</v>
+      </c>
+      <c r="P171" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>0</v>
+      </c>
+      <c r="R171" s="2">
+        <v>4</v>
+      </c>
+      <c r="S171" s="2">
+        <v>12</v>
+      </c>
+      <c r="T171" s="2">
+        <v>1</v>
+      </c>
+      <c r="U171" s="2">
+        <v>0</v>
+      </c>
+      <c r="V171" s="2">
+        <v>0</v>
+      </c>
+      <c r="W171" s="2">
+        <v>0</v>
+      </c>
+      <c r="X171" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB171" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC171" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE171" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH171" s="2">
+        <v>1825</v>
+      </c>
+      <c r="AI171" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ171" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK171" s="2">
+        <v>14</v>
+      </c>
+      <c r="AL171" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM171" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN171" s="2">
+        <v>3</v>
+      </c>
+      <c r="AO171" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP171" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR171" s="2">
+        <v>28</v>
+      </c>
+      <c r="AS171" s="2">
+        <v>14</v>
+      </c>
+      <c r="AT171" s="2">
+        <v>72</v>
+      </c>
+      <c r="AU171" s="2">
+        <v>33</v>
+      </c>
+      <c r="AV171" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW171" s="2">
+        <v>172</v>
+      </c>
+      <c r="AX171" s="2">
+        <v>96</v>
+      </c>
+      <c r="AY171" s="2">
+        <v>56</v>
+      </c>
+      <c r="AZ171" s="2">
+        <v>12</v>
+      </c>
+      <c r="BA171" s="2">
+        <v>461</v>
+      </c>
+      <c r="BB171" s="2">
+        <v>204</v>
+      </c>
+      <c r="BC171" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD171" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE171" s="2">
+        <v>165</v>
+      </c>
+      <c r="BF171" s="2">
+        <v>71</v>
+      </c>
+      <c r="BG171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI171" s="2">
+        <v>169</v>
+      </c>
+      <c r="BJ171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL171" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM171" s="2">
+        <v>12</v>
+      </c>
+      <c r="BN171" s="2">
+        <v>2584</v>
+      </c>
+      <c r="BO171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP171" s="2">
+        <v>15</v>
+      </c>
+      <c r="BQ171" s="2">
+        <v>20</v>
+      </c>
+      <c r="BR171" s="2">
+        <v>38</v>
+      </c>
+      <c r="BS171" s="2">
+        <v>651</v>
+      </c>
+      <c r="BT171" s="2">
+        <v>95</v>
+      </c>
+      <c r="BU171" s="2">
+        <v>134</v>
+      </c>
+      <c r="BV171" s="2">
+        <v>157</v>
+      </c>
+      <c r="BW171" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX171" s="2">
+        <v>15</v>
+      </c>
+      <c r="BY171" s="2">
+        <v>13</v>
+      </c>
+      <c r="BZ171" s="2">
+        <v>46</v>
+      </c>
+      <c r="CA171" s="2">
+        <v>28</v>
+      </c>
+      <c r="CB171" s="2">
+        <v>16</v>
+      </c>
+      <c r="CC171" s="2">
+        <v>44</v>
+      </c>
+      <c r="CD171" s="2">
+        <v>67</v>
+      </c>
+      <c r="CE171" s="2">
+        <v>57</v>
+      </c>
+      <c r="CF171" s="2">
+        <v>33</v>
+      </c>
+      <c r="CG171" s="2">
+        <v>5</v>
+      </c>
+      <c r="CH171" s="2">
+        <v>125</v>
+      </c>
+      <c r="CI171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ171" s="2">
+        <v>13</v>
+      </c>
+      <c r="CK171" s="2">
+        <v>69</v>
+      </c>
+      <c r="CL171" s="2">
+        <v>58</v>
+      </c>
+      <c r="CM171" s="2">
+        <v>65</v>
+      </c>
+      <c r="CN171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO171" s="2">
+        <v>18</v>
+      </c>
+      <c r="CP171" s="2">
+        <v>289</v>
+      </c>
+      <c r="CQ171" s="2">
+        <v>48</v>
+      </c>
+      <c r="CR171" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS171" s="2">
+        <v>428</v>
+      </c>
+      <c r="CT171" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY171" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN171" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY171" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ171" s="2">
+        <v>6</v>
+      </c>
+      <c r="EA171" s="2">
+        <v>119</v>
+      </c>
+      <c r="EB171" s="2">
+        <v>568</v>
+      </c>
+      <c r="EC171" s="2">
+        <v>353</v>
+      </c>
+      <c r="ED171" s="2">
+        <v>466</v>
+      </c>
+      <c r="EE171" s="2">
+        <v>149</v>
+      </c>
+      <c r="EF171" s="2">
+        <v>52</v>
+      </c>
+      <c r="EG171" s="2">
+        <v>49</v>
+      </c>
+      <c r="EH171" s="2">
+        <v>47</v>
+      </c>
+      <c r="EI171" s="2">
+        <v>1075</v>
+      </c>
+      <c r="EJ171" s="2">
+        <v>521</v>
+      </c>
+      <c r="EK171" s="2">
+        <v>505</v>
+      </c>
+      <c r="EL171" s="2">
+        <v>181</v>
+      </c>
+      <c r="EM171" s="2">
+        <v>314</v>
+      </c>
+      <c r="EN171" s="2">
+        <v>661</v>
+      </c>
+      <c r="EO171" s="2">
+        <v>311</v>
+      </c>
+      <c r="EP171" s="2">
+        <v>439</v>
+      </c>
+      <c r="EQ171" s="2">
+        <v>267</v>
+      </c>
+      <c r="ER171" s="2">
+        <v>753</v>
+      </c>
+      <c r="ES171" s="2">
+        <v>326</v>
+      </c>
+      <c r="ET171" s="2">
+        <v>160</v>
+      </c>
+      <c r="EU171" s="2">
+        <v>48</v>
+      </c>
+      <c r="EV171" s="2">
+        <v>172</v>
+      </c>
+      <c r="EW171" s="2">
+        <v>152</v>
+      </c>
+      <c r="EX171" s="2">
+        <v>676</v>
+      </c>
+      <c r="EY171" s="2">
+        <v>27</v>
+      </c>
+      <c r="EZ171" s="2">
+        <v>210</v>
+      </c>
+      <c r="FA171" s="2">
+        <v>233</v>
+      </c>
+      <c r="FB171" s="2">
+        <v>198</v>
+      </c>
+      <c r="FC171" s="2">
+        <v>232</v>
+      </c>
+      <c r="FD171" s="2">
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41782DB-ACF4-47D2-804D-49E1E674308B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F81FA9-78AD-40F1-B992-5074B5E6ACE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3600" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1596,11 +1596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
       <c r="A1" s="1" t="str">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F81FA9-78AD-40F1-B992-5074B5E6ACE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CE75F-E43D-48D3-891D-7A38167BFC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="380">
   <si>
     <t>Name</t>
   </si>
@@ -1121,79 +1121,82 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2015-06:2024-05</t>
-  </si>
-  <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
-    <t>2008-12:2024-06</t>
-  </si>
-  <si>
-    <t>2009-04:2024-06</t>
-  </si>
-  <si>
-    <t>2009-10:2024-06</t>
-  </si>
-  <si>
     <t>2010-11:2024-06</t>
   </si>
   <si>
-    <t>2009-06:2024-06</t>
+    <t>2024-07-31</t>
   </si>
   <si>
-    <t>2009-05:2024-06</t>
+    <t>2008-12:2024-07</t>
   </si>
   <si>
-    <t>2011-06:2024-06</t>
+    <t>2009-04:2024-07</t>
   </si>
   <si>
-    <t>2010-09:2024-06</t>
+    <t>2009-10:2024-07</t>
   </si>
   <si>
-    <t>2011-04:2024-06</t>
+    <t>2009-06:2024-07</t>
   </si>
   <si>
-    <t>2015-03:2024-06</t>
+    <t>2009-05:2024-07</t>
   </si>
   <si>
-    <t>2014-02:2024-06</t>
+    <t>2011-06:2024-07</t>
   </si>
   <si>
-    <t>2014-04:2024-06</t>
+    <t>2010-09:2024-07</t>
   </si>
   <si>
-    <t>2013-05:2024-06</t>
+    <t>2015-06:2024-07</t>
   </si>
   <si>
-    <t>2013-04:2024-06</t>
+    <t>2010-11:2024-07</t>
   </si>
   <si>
-    <t>2013-10:2024-06</t>
+    <t>2011-04:2024-07</t>
   </si>
   <si>
-    <t>2013-07:2024-06</t>
+    <t>2015-03:2024-07</t>
   </si>
   <si>
-    <t>2014-06:2024-06</t>
+    <t>2014-02:2024-07</t>
   </si>
   <si>
-    <t>2014-08:2024-06</t>
+    <t>2014-04:2024-07</t>
   </si>
   <si>
-    <t>2015-02:2024-06</t>
+    <t>2013-05:2024-07</t>
   </si>
   <si>
-    <t>2015-07:2024-06</t>
+    <t>2013-04:2024-07</t>
   </si>
   <si>
-    <t>2015-12:2024-06</t>
+    <t>2013-10:2024-07</t>
   </si>
   <si>
-    <t>2015-05:2024-06</t>
+    <t>2013-07:2024-07</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>2014-06:2024-07</t>
+  </si>
+  <si>
+    <t>2014-08:2024-07</t>
+  </si>
+  <si>
+    <t>2015-02:2024-07</t>
+  </si>
+  <si>
+    <t>2015-07:2024-07</t>
+  </si>
+  <si>
+    <t>2015-12:2024-07</t>
+  </si>
+  <si>
+    <t>2015-05:2024-07</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD171"/>
+  <dimension ref="A1:FD172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
@@ -3583,7 +3586,7 @@
         <v>356</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
@@ -3622,7 +3625,7 @@
         <v>356</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>346</v>
@@ -3739,13 +3742,13 @@
         <v>332</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BQ6" s="4" t="s">
         <v>356</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BS6" s="4" t="s">
         <v>356</v>
@@ -3769,7 +3772,7 @@
         <v>356</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CA6" s="4" t="s">
         <v>356</v>
@@ -3799,28 +3802,28 @@
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CK6" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="CK6" s="4" t="s">
+      <c r="CL6" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="CM6" s="4" t="s">
         <v>356</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="CP6" s="4" t="s">
         <v>356</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CR6" s="4" t="s">
         <v>356</v>
@@ -3829,7 +3832,7 @@
         <v>356</v>
       </c>
       <c r="CT6" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3925,97 +3928,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="EB6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EC6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EH6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EH6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4505,7 +4508,7 @@
         <v>338</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>339</v>
@@ -4517,19 +4520,19 @@
         <v>352</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>340</v>
@@ -4538,28 +4541,28 @@
         <v>339</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>339</v>
@@ -4571,7 +4574,7 @@
         <v>352</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>352</v>
@@ -4580,100 +4583,100 @@
         <v>352</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AD8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BG8" s="5" t="s">
         <v>352</v>
@@ -4682,7 +4685,7 @@
         <v>353</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BJ8" s="5" t="s">
         <v>352</v>
@@ -4691,109 +4694,109 @@
         <v>352</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>342</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CI8" s="5" t="s">
         <v>352</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>340</v>
@@ -4853,7 +4856,7 @@
         <v>344</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>340</v>
@@ -4889,97 +4892,97 @@
         <v>340</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -83546,6 +83549,488 @@
       </c>
       <c r="FD171" s="2">
         <v>980</v>
+      </c>
+    </row>
+    <row r="172" spans="1:160">
+      <c r="A172" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B172" s="2">
+        <v>584</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2">
+        <v>0</v>
+      </c>
+      <c r="F172" s="2">
+        <v>1</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>60</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K172" s="2">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2">
+        <v>0</v>
+      </c>
+      <c r="M172" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
+        <v>105</v>
+      </c>
+      <c r="P172" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>0</v>
+      </c>
+      <c r="R172" s="2">
+        <v>4</v>
+      </c>
+      <c r="S172" s="2">
+        <v>12</v>
+      </c>
+      <c r="T172" s="2">
+        <v>1</v>
+      </c>
+      <c r="U172" s="2">
+        <v>0</v>
+      </c>
+      <c r="V172" s="2">
+        <v>0</v>
+      </c>
+      <c r="W172" s="2">
+        <v>0</v>
+      </c>
+      <c r="X172" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y172" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB172" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC172" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG172" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH172" s="2">
+        <v>2438</v>
+      </c>
+      <c r="AI172" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ172" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK172" s="2">
+        <v>49</v>
+      </c>
+      <c r="AL172" s="2">
+        <v>70</v>
+      </c>
+      <c r="AM172" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN172" s="2">
+        <v>44</v>
+      </c>
+      <c r="AO172" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP172" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR172" s="2">
+        <v>28</v>
+      </c>
+      <c r="AS172" s="2">
+        <v>155</v>
+      </c>
+      <c r="AT172" s="2">
+        <v>75</v>
+      </c>
+      <c r="AU172" s="2">
+        <v>33</v>
+      </c>
+      <c r="AV172" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW172" s="2">
+        <v>172</v>
+      </c>
+      <c r="AX172" s="2">
+        <v>97</v>
+      </c>
+      <c r="AY172" s="2">
+        <v>62</v>
+      </c>
+      <c r="AZ172" s="2">
+        <v>12</v>
+      </c>
+      <c r="BA172" s="2">
+        <v>609</v>
+      </c>
+      <c r="BB172" s="2">
+        <v>209</v>
+      </c>
+      <c r="BC172" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD172" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE172" s="2">
+        <v>165</v>
+      </c>
+      <c r="BF172" s="2">
+        <v>71</v>
+      </c>
+      <c r="BG172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI172" s="2">
+        <v>269</v>
+      </c>
+      <c r="BJ172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL172" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM172" s="2">
+        <v>12</v>
+      </c>
+      <c r="BN172" s="2">
+        <v>2991</v>
+      </c>
+      <c r="BO172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP172" s="2">
+        <v>16</v>
+      </c>
+      <c r="BQ172" s="2">
+        <v>20</v>
+      </c>
+      <c r="BR172" s="2">
+        <v>50</v>
+      </c>
+      <c r="BS172" s="2">
+        <v>719</v>
+      </c>
+      <c r="BT172" s="2">
+        <v>117</v>
+      </c>
+      <c r="BU172" s="2">
+        <v>134</v>
+      </c>
+      <c r="BV172" s="2">
+        <v>160</v>
+      </c>
+      <c r="BW172" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX172" s="2">
+        <v>15</v>
+      </c>
+      <c r="BY172" s="2">
+        <v>50</v>
+      </c>
+      <c r="BZ172" s="2">
+        <v>53</v>
+      </c>
+      <c r="CA172" s="2">
+        <v>31</v>
+      </c>
+      <c r="CB172" s="2">
+        <v>16</v>
+      </c>
+      <c r="CC172" s="2">
+        <v>44</v>
+      </c>
+      <c r="CD172" s="2">
+        <v>72</v>
+      </c>
+      <c r="CE172" s="2">
+        <v>63</v>
+      </c>
+      <c r="CF172" s="2">
+        <v>33</v>
+      </c>
+      <c r="CG172" s="2">
+        <v>23</v>
+      </c>
+      <c r="CH172" s="2">
+        <v>194</v>
+      </c>
+      <c r="CI172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ172" s="2">
+        <v>15</v>
+      </c>
+      <c r="CK172" s="2">
+        <v>83</v>
+      </c>
+      <c r="CL172" s="2">
+        <v>72</v>
+      </c>
+      <c r="CM172" s="2">
+        <v>67</v>
+      </c>
+      <c r="CN172" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO172" s="2">
+        <v>19</v>
+      </c>
+      <c r="CP172" s="2">
+        <v>330</v>
+      </c>
+      <c r="CQ172" s="2">
+        <v>48</v>
+      </c>
+      <c r="CR172" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS172" s="2">
+        <v>508</v>
+      </c>
+      <c r="CT172" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY172" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN172" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY172" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ172" s="2">
+        <v>8</v>
+      </c>
+      <c r="EA172" s="2">
+        <v>136</v>
+      </c>
+      <c r="EB172" s="2">
+        <v>602</v>
+      </c>
+      <c r="EC172" s="2">
+        <v>465</v>
+      </c>
+      <c r="ED172" s="2">
+        <v>478</v>
+      </c>
+      <c r="EE172" s="2">
+        <v>170</v>
+      </c>
+      <c r="EF172" s="2">
+        <v>70</v>
+      </c>
+      <c r="EG172" s="2">
+        <v>55</v>
+      </c>
+      <c r="EH172" s="2">
+        <v>58</v>
+      </c>
+      <c r="EI172" s="2">
+        <v>1272</v>
+      </c>
+      <c r="EJ172" s="2">
+        <v>641</v>
+      </c>
+      <c r="EK172" s="2">
+        <v>607</v>
+      </c>
+      <c r="EL172" s="2">
+        <v>208</v>
+      </c>
+      <c r="EM172" s="2">
+        <v>330</v>
+      </c>
+      <c r="EN172" s="2">
+        <v>811</v>
+      </c>
+      <c r="EO172" s="2">
+        <v>383</v>
+      </c>
+      <c r="EP172" s="2">
+        <v>515</v>
+      </c>
+      <c r="EQ172" s="2">
+        <v>331</v>
+      </c>
+      <c r="ER172" s="2">
+        <v>892</v>
+      </c>
+      <c r="ES172" s="2">
+        <v>407</v>
+      </c>
+      <c r="ET172" s="2">
+        <v>193</v>
+      </c>
+      <c r="EU172" s="2">
+        <v>62</v>
+      </c>
+      <c r="EV172" s="2">
+        <v>200</v>
+      </c>
+      <c r="EW172" s="2">
+        <v>167</v>
+      </c>
+      <c r="EX172" s="2">
+        <v>967</v>
+      </c>
+      <c r="EY172" s="2">
+        <v>32</v>
+      </c>
+      <c r="EZ172" s="2">
+        <v>351</v>
+      </c>
+      <c r="FA172" s="2">
+        <v>290</v>
+      </c>
+      <c r="FB172" s="2">
+        <v>265</v>
+      </c>
+      <c r="FC172" s="2">
+        <v>281</v>
+      </c>
+      <c r="FD172" s="2">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CE75F-E43D-48D3-891D-7A38167BFC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50239358-377D-4399-A9E4-955591F7E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1112,91 +1112,91 @@
     <t>2010-10:2023-11</t>
   </si>
   <si>
-    <t>2011-07:2023-11</t>
-  </si>
-  <si>
     <t>2023-12-29</t>
   </si>
   <si>
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2010-11:2024-06</t>
-  </si>
-  <si>
-    <t>2024-07-31</t>
-  </si>
-  <si>
     <t>2008-12:2024-07</t>
   </si>
   <si>
-    <t>2009-04:2024-07</t>
+    <t>2024-08-30</t>
   </si>
   <si>
-    <t>2009-10:2024-07</t>
+    <t>2008-12:2024-08</t>
   </si>
   <si>
-    <t>2009-06:2024-07</t>
+    <t>2009-04:2024-08</t>
   </si>
   <si>
-    <t>2009-05:2024-07</t>
+    <t>2009-10:2024-08</t>
   </si>
   <si>
-    <t>2011-06:2024-07</t>
+    <t>2010-11:2024-08</t>
   </si>
   <si>
-    <t>2010-09:2024-07</t>
+    <t>2009-06:2024-08</t>
   </si>
   <si>
-    <t>2015-06:2024-07</t>
+    <t>2011-07:2024-08</t>
   </si>
   <si>
-    <t>2010-11:2024-07</t>
+    <t>2009-05:2024-08</t>
   </si>
   <si>
-    <t>2011-04:2024-07</t>
+    <t>2011-06:2024-08</t>
   </si>
   <si>
-    <t>2015-03:2024-07</t>
+    <t>2010-09:2024-08</t>
   </si>
   <si>
-    <t>2014-02:2024-07</t>
+    <t>2015-06:2024-08</t>
   </si>
   <si>
-    <t>2014-04:2024-07</t>
+    <t>2011-04:2024-08</t>
   </si>
   <si>
-    <t>2013-05:2024-07</t>
+    <t>2015-03:2024-08</t>
   </si>
   <si>
-    <t>2013-04:2024-07</t>
+    <t>2014-02:2024-08</t>
   </si>
   <si>
-    <t>2013-10:2024-07</t>
+    <t>2014-04:2024-08</t>
   </si>
   <si>
-    <t>2013-07:2024-07</t>
+    <t>2013-05:2024-08</t>
   </si>
   <si>
-    <t>2014-06:2024-07</t>
+    <t>2013-04:2024-08</t>
   </si>
   <si>
-    <t>2014-08:2024-07</t>
+    <t>2013-10:2024-08</t>
   </si>
   <si>
-    <t>2015-02:2024-07</t>
+    <t>2013-07:2024-08</t>
   </si>
   <si>
-    <t>2015-07:2024-07</t>
+    <t>2014-06:2024-08</t>
   </si>
   <si>
-    <t>2015-12:2024-07</t>
+    <t>2014-08:2024-08</t>
   </si>
   <si>
-    <t>2015-05:2024-07</t>
+    <t>2015-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2015-07:2024-08</t>
+  </si>
+  <si>
+    <t>2015-12:2024-08</t>
+  </si>
+  <si>
+    <t>2015-05:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD172"/>
+  <dimension ref="A1:FD173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
@@ -3544,7 +3544,7 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>325</v>
@@ -3553,22 +3553,22 @@
         <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>348</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
@@ -3577,40 +3577,40 @@
         <v>329</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>349</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>350</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>330</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>346</v>
@@ -3619,10 +3619,10 @@
         <v>346</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>359</v>
@@ -3631,88 +3631,88 @@
         <v>346</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>346</v>
@@ -3721,22 +3721,22 @@
         <v>345</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BJ6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>332</v>
@@ -3745,91 +3745,91 @@
         <v>359</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>332</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BZ6" s="4" t="s">
         <v>359</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CC6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CD6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CK6" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CL6" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CM6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="CP6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CQ6" s="4" t="s">
         <v>365</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CT6" s="4" t="s">
         <v>359</v>
@@ -3892,7 +3892,7 @@
         <v>335</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -4517,7 +4517,7 @@
         <v>339</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>379</v>
@@ -4529,7 +4529,7 @@
         <v>379</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>379</v>
@@ -4544,16 +4544,16 @@
         <v>379</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>379</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>379</v>
@@ -4568,19 +4568,19 @@
         <v>339</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>379</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>379</v>
@@ -4592,7 +4592,7 @@
         <v>379</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AE8" s="5" t="s">
         <v>379</v>
@@ -4631,7 +4631,7 @@
         <v>379</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AR8" s="5" t="s">
         <v>379</v>
@@ -4664,7 +4664,7 @@
         <v>379</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="BC8" s="5" t="s">
         <v>379</v>
@@ -4679,19 +4679,19 @@
         <v>379</v>
       </c>
       <c r="BG8" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="BH8" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="BI8" s="5" t="s">
         <v>379</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="BL8" s="5" t="s">
         <v>379</v>
@@ -4763,7 +4763,7 @@
         <v>379</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="CJ8" s="5" t="s">
         <v>379</v>
@@ -84030,6 +84030,488 @@
         <v>281</v>
       </c>
       <c r="FD172" s="2">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:160">
+      <c r="A173" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B173" s="2">
+        <v>658</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2">
+        <v>30</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>91</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K173" s="2">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2">
+        <v>0</v>
+      </c>
+      <c r="M173" s="2">
+        <v>5</v>
+      </c>
+      <c r="N173" s="2">
+        <v>0</v>
+      </c>
+      <c r="O173" s="2">
+        <v>105</v>
+      </c>
+      <c r="P173" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2">
+        <v>4</v>
+      </c>
+      <c r="S173" s="2">
+        <v>12</v>
+      </c>
+      <c r="T173" s="2">
+        <v>1</v>
+      </c>
+      <c r="U173" s="2">
+        <v>0</v>
+      </c>
+      <c r="V173" s="2">
+        <v>14</v>
+      </c>
+      <c r="W173" s="2">
+        <v>0</v>
+      </c>
+      <c r="X173" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y173" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB173" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC173" s="2">
+        <v>14</v>
+      </c>
+      <c r="AD173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE173" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG173" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH173" s="2">
+        <v>2859</v>
+      </c>
+      <c r="AI173" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ173" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK173" s="2">
+        <v>55</v>
+      </c>
+      <c r="AL173" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM173" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN173" s="2">
+        <v>62</v>
+      </c>
+      <c r="AO173" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="AP173" s="2">
+        <v>15</v>
+      </c>
+      <c r="AQ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR173" s="2">
+        <v>33</v>
+      </c>
+      <c r="AS173" s="2">
+        <v>270</v>
+      </c>
+      <c r="AT173" s="2">
+        <v>141</v>
+      </c>
+      <c r="AU173" s="2">
+        <v>42</v>
+      </c>
+      <c r="AV173" s="2">
+        <v>5</v>
+      </c>
+      <c r="AW173" s="2">
+        <v>172</v>
+      </c>
+      <c r="AX173" s="2">
+        <v>97</v>
+      </c>
+      <c r="AY173" s="2">
+        <v>63</v>
+      </c>
+      <c r="AZ173" s="2">
+        <v>15</v>
+      </c>
+      <c r="BA173" s="2">
+        <v>709</v>
+      </c>
+      <c r="BB173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC173" s="2">
+        <v>8</v>
+      </c>
+      <c r="BD173" s="2">
+        <v>10</v>
+      </c>
+      <c r="BE173" s="2">
+        <v>165</v>
+      </c>
+      <c r="BF173" s="2">
+        <v>71</v>
+      </c>
+      <c r="BG173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI173" s="2">
+        <v>269</v>
+      </c>
+      <c r="BJ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK173" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL173" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM173" s="2">
+        <v>74</v>
+      </c>
+      <c r="BN173" s="2">
+        <v>3361</v>
+      </c>
+      <c r="BO173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP173" s="2">
+        <v>16</v>
+      </c>
+      <c r="BQ173" s="2">
+        <v>33</v>
+      </c>
+      <c r="BR173" s="2">
+        <v>61</v>
+      </c>
+      <c r="BS173" s="2">
+        <v>758</v>
+      </c>
+      <c r="BT173" s="2">
+        <v>140</v>
+      </c>
+      <c r="BU173" s="2">
+        <v>142</v>
+      </c>
+      <c r="BV173" s="2">
+        <v>187</v>
+      </c>
+      <c r="BW173" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX173" s="2">
+        <v>15</v>
+      </c>
+      <c r="BY173" s="2">
+        <v>52</v>
+      </c>
+      <c r="BZ173" s="2">
+        <v>65</v>
+      </c>
+      <c r="CA173" s="2">
+        <v>31</v>
+      </c>
+      <c r="CB173" s="2">
+        <v>16</v>
+      </c>
+      <c r="CC173" s="2">
+        <v>51</v>
+      </c>
+      <c r="CD173" s="2">
+        <v>85</v>
+      </c>
+      <c r="CE173" s="2">
+        <v>72</v>
+      </c>
+      <c r="CF173" s="2">
+        <v>33</v>
+      </c>
+      <c r="CG173" s="2">
+        <v>43</v>
+      </c>
+      <c r="CH173" s="2">
+        <v>249</v>
+      </c>
+      <c r="CI173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ173" s="2">
+        <v>16</v>
+      </c>
+      <c r="CK173" s="2">
+        <v>83</v>
+      </c>
+      <c r="CL173" s="2">
+        <v>85</v>
+      </c>
+      <c r="CM173" s="2">
+        <v>69</v>
+      </c>
+      <c r="CN173" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO173" s="2">
+        <v>25</v>
+      </c>
+      <c r="CP173" s="2">
+        <v>390</v>
+      </c>
+      <c r="CQ173" s="2">
+        <v>48</v>
+      </c>
+      <c r="CR173" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS173" s="2">
+        <v>555</v>
+      </c>
+      <c r="CT173" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY173" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN173" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY173" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ173" s="2">
+        <v>10</v>
+      </c>
+      <c r="EA173" s="2">
+        <v>149</v>
+      </c>
+      <c r="EB173" s="2">
+        <v>683</v>
+      </c>
+      <c r="EC173" s="2">
+        <v>504</v>
+      </c>
+      <c r="ED173" s="2">
+        <v>493</v>
+      </c>
+      <c r="EE173" s="2">
+        <v>188</v>
+      </c>
+      <c r="EF173" s="2">
+        <v>79</v>
+      </c>
+      <c r="EG173" s="2">
+        <v>61</v>
+      </c>
+      <c r="EH173" s="2">
+        <v>66</v>
+      </c>
+      <c r="EI173" s="2">
+        <v>1426</v>
+      </c>
+      <c r="EJ173" s="2">
+        <v>754</v>
+      </c>
+      <c r="EK173" s="2">
+        <v>711</v>
+      </c>
+      <c r="EL173" s="2">
+        <v>232</v>
+      </c>
+      <c r="EM173" s="2">
+        <v>347</v>
+      </c>
+      <c r="EN173" s="2">
+        <v>931</v>
+      </c>
+      <c r="EO173" s="2">
+        <v>473</v>
+      </c>
+      <c r="EP173" s="2">
+        <v>630</v>
+      </c>
+      <c r="EQ173" s="2">
+        <v>398</v>
+      </c>
+      <c r="ER173" s="2">
+        <v>1032</v>
+      </c>
+      <c r="ES173" s="2">
+        <v>509</v>
+      </c>
+      <c r="ET173" s="2">
+        <v>201</v>
+      </c>
+      <c r="EU173" s="2">
+        <v>79</v>
+      </c>
+      <c r="EV173" s="2">
+        <v>219</v>
+      </c>
+      <c r="EW173" s="2">
+        <v>179</v>
+      </c>
+      <c r="EX173" s="2">
+        <v>1028</v>
+      </c>
+      <c r="EY173" s="2">
+        <v>48</v>
+      </c>
+      <c r="EZ173" s="2">
+        <v>476</v>
+      </c>
+      <c r="FA173" s="2">
+        <v>378</v>
+      </c>
+      <c r="FB173" s="2">
+        <v>283</v>
+      </c>
+      <c r="FC173" s="2">
+        <v>328</v>
+      </c>
+      <c r="FD173" s="2">
         <v>1108</v>
       </c>
     </row>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50239358-377D-4399-A9E4-955591F7E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D42853-7EFF-4AAE-B878-6DA93251EFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D42853-7EFF-4AAE-B878-6DA93251EFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB66DC5-6F93-413D-A737-CC8D5A676C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB66DC5-6F93-413D-A737-CC8D5A676C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533A8C9-BC59-425B-B719-C033CC5B72A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D533A8C9-BC59-425B-B719-C033CC5B72A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE78C1-448B-4EA5-AB32-366823B32789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE78C1-448B-4EA5-AB32-366823B32789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B5098-00B6-4CCA-AC18-9F3D2914FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B5098-00B6-4CCA-AC18-9F3D2914FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DE0A2-4AEC-47F7-9022-7CC20AD72BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DE0A2-4AEC-47F7-9022-7CC20AD72BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B515D-1C68-4511-B548-ADF2B77EDABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85B515D-1C68-4511-B548-ADF2B77EDABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD801-0031-4A8A-AB0F-F0F70FBA3C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AD801-0031-4A8A-AB0F-F0F70FBA3C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046229EC-3138-4275-960B-0B2DA5386C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046229EC-3138-4275-960B-0B2DA5386C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED16DD-187A-451C-8D34-4ECEA793D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED16DD-187A-451C-8D34-4ECEA793D614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC62F74F-30EF-476F-B98B-3E8C923A0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC62F74F-30EF-476F-B98B-3E8C923A0693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327A475-CD0A-4001-8F45-3C29AC7A96C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046229EC-3138-4275-960B-0B2DA5386C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C567A2F-C6BA-49F4-A16F-BABBCE13BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1254,10 +1254,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1606,9 +1606,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:160">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:160">

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C567A2F-C6BA-49F4-A16F-BABBCE13BE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A532CF0-EA4B-4554-9F41-408512072D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1599,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A532CF0-EA4B-4554-9F41-408512072D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53C054-A1D7-406A-B355-0720FA64E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19245" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="377">
   <si>
     <t>Name</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>2016-02:2017-12</t>
   </si>
   <si>
-    <t>2008-12:2022-12</t>
-  </si>
-  <si>
     <t>2009-11:2022-12</t>
   </si>
   <si>
@@ -1106,9 +1103,6 @@
     <t>2009-11:2023-11</t>
   </si>
   <si>
-    <t>2009-10:2023-11</t>
-  </si>
-  <si>
     <t>2010-10:2023-11</t>
   </si>
   <si>
@@ -1118,85 +1112,82 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2008-12:2024-07</t>
+    <t>2008-12:2024-09</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2016-02:2024-09</t>
   </si>
   <si>
-    <t>2008-12:2024-08</t>
+    <t>2009-04:2024-09</t>
   </si>
   <si>
-    <t>2009-04:2024-08</t>
+    <t>2009-10:2024-09</t>
   </si>
   <si>
-    <t>2009-10:2024-08</t>
+    <t>2010-11:2024-09</t>
   </si>
   <si>
-    <t>2010-11:2024-08</t>
+    <t>2009-06:2024-09</t>
   </si>
   <si>
-    <t>2009-06:2024-08</t>
+    <t>2011-07:2024-09</t>
   </si>
   <si>
-    <t>2011-07:2024-08</t>
+    <t>2009-05:2024-09</t>
   </si>
   <si>
-    <t>2009-05:2024-08</t>
+    <t>2011-06:2024-09</t>
   </si>
   <si>
-    <t>2011-06:2024-08</t>
+    <t>2010-09:2024-09</t>
   </si>
   <si>
-    <t>2010-09:2024-08</t>
+    <t>2015-06:2024-09</t>
   </si>
   <si>
-    <t>2015-06:2024-08</t>
+    <t>2011-04:2024-09</t>
   </si>
   <si>
-    <t>2011-04:2024-08</t>
+    <t>2015-03:2024-09</t>
   </si>
   <si>
-    <t>2015-03:2024-08</t>
+    <t>2014-02:2024-09</t>
   </si>
   <si>
-    <t>2014-02:2024-08</t>
+    <t>2014-04:2024-09</t>
   </si>
   <si>
-    <t>2014-04:2024-08</t>
+    <t>2013-05:2024-09</t>
   </si>
   <si>
-    <t>2013-05:2024-08</t>
+    <t>2013-04:2024-09</t>
   </si>
   <si>
-    <t>2013-04:2024-08</t>
+    <t>2013-10:2024-09</t>
   </si>
   <si>
-    <t>2013-10:2024-08</t>
+    <t>2013-07:2024-09</t>
   </si>
   <si>
-    <t>2013-07:2024-08</t>
+    <t>2014-06:2024-09</t>
   </si>
   <si>
-    <t>2014-06:2024-08</t>
+    <t>2014-08:2024-09</t>
   </si>
   <si>
-    <t>2014-08:2024-08</t>
+    <t>2015-02:2024-09</t>
   </si>
   <si>
-    <t>2015-02:2024-08</t>
+    <t>2015-07:2024-09</t>
   </si>
   <si>
-    <t>2015-07:2024-08</t>
+    <t>2015-12:2024-09</t>
   </si>
   <si>
-    <t>2015-12:2024-08</t>
+    <t>2015-05:2024-09</t>
   </si>
   <si>
-    <t>2015-05:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD173"/>
+  <dimension ref="A1:FD174"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="N165" sqref="N165"/>
@@ -3544,295 +3535,295 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="V6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BF6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BG6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BK6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="BL6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BM6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BN6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BO6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BP6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="BQ6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BR6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="BS6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BT6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BU6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BV6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BW6" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="BX6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CI6" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="CJ6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="AE6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="CR6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BF6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="BH6" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BJ6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK6" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="BL6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BM6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BN6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BO6" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="BP6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="BQ6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BR6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="BS6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BT6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BU6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BV6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BW6" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="BX6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CE6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CF6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CN6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="CO6" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3862,10 +3853,10 @@
         <v>328</v>
       </c>
       <c r="DD6" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="DE6" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="DE6" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="DF6" s="4" t="s">
         <v>328</v>
@@ -3877,7 +3868,7 @@
         <v>328</v>
       </c>
       <c r="DI6" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DJ6" s="4" t="s">
         <v>328</v>
@@ -3889,10 +3880,10 @@
         <v>326</v>
       </c>
       <c r="DM6" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3928,1061 +3919,1061 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="EA6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EB6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="EC6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EA6" s="4" t="s">
+      <c r="ED6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EB6" s="4" t="s">
+      <c r="EE6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EF6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EG6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EH6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="EI6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="EE6" s="4" t="s">
+      <c r="EK6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EO6" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="EF6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EG6" s="4" t="s">
+      <c r="EP6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="ES6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EX6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EY6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EH6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:160">
       <c r="A7" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>337</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AR7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AU7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BD7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BE7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BF7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BG7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BH7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BI7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BL7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BP7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BQ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BR7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BS7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BT7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BU7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BV7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BW7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BX7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BY7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BZ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CD7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CE7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CF7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CG7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CH7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CI7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CJ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CK7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CL7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CM7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CN7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CO7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CP7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CQ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CR7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CS7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CT7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CU7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CV7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CW7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CX7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CY7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="CZ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DD7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DE7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DF7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DG7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DH7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DI7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DJ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DK7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DL7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DM7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DN7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DO7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DP7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DQ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DR7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DS7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DT7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DU7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DV7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DW7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DX7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DY7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="DZ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ED7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EE7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EF7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EG7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EH7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EI7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EJ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EK7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EL7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EM7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EN7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EO7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EP7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EQ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ER7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ES7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ET7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EU7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EV7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EW7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EX7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EY7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="EZ7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FA7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FB7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FC7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="FD7" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:160">
       <c r="A8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="AG8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BN8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BO8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CK8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CL8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CM8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CU8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="U8" s="5" t="s">
+      <c r="CV8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AF8" s="5" t="s">
+      <c r="CW8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CX8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CY8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CZ8" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="DB8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="DC8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="DD8" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="AG8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BN8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BO8" s="5" t="s">
+      <c r="DE8" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="BP8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CF8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CG8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CK8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CW8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CX8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CY8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="CZ8" s="5" t="s">
+      <c r="DF8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="DA8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DB8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DC8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DD8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="DE8" s="5" t="s">
+      <c r="DG8" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="DH8" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="DI8" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="DF8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DG8" s="5" t="s">
+      <c r="DJ8" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="DH8" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="DI8" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="DJ8" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="DK8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DL8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DM8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DQ8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DS8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DT8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DU8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DV8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DW8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DY8" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -84513,6 +84504,488 @@
       </c>
       <c r="FD173" s="2">
         <v>1108</v>
+      </c>
+    </row>
+    <row r="174" spans="1:160">
+      <c r="A174" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B174" s="2">
+        <v>797</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2">
+        <v>30</v>
+      </c>
+      <c r="F174" s="2">
+        <v>1</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>91</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K174" s="2">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2">
+        <v>23</v>
+      </c>
+      <c r="M174" s="2">
+        <v>6</v>
+      </c>
+      <c r="N174" s="2">
+        <v>3</v>
+      </c>
+      <c r="O174" s="2">
+        <v>108</v>
+      </c>
+      <c r="P174" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>0</v>
+      </c>
+      <c r="R174" s="2">
+        <v>4</v>
+      </c>
+      <c r="S174" s="2">
+        <v>12</v>
+      </c>
+      <c r="T174" s="2">
+        <v>1</v>
+      </c>
+      <c r="U174" s="2">
+        <v>0</v>
+      </c>
+      <c r="V174" s="2">
+        <v>14</v>
+      </c>
+      <c r="W174" s="2">
+        <v>0</v>
+      </c>
+      <c r="X174" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y174" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="2">
+        <v>105</v>
+      </c>
+      <c r="AB174" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC174" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD174" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE174" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG174" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH174" s="2">
+        <v>3343</v>
+      </c>
+      <c r="AI174" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ174" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK174" s="2">
+        <v>55</v>
+      </c>
+      <c r="AL174" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM174" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN174" s="2">
+        <v>62</v>
+      </c>
+      <c r="AO174" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP174" s="2">
+        <v>19</v>
+      </c>
+      <c r="AQ174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR174" s="2">
+        <v>85</v>
+      </c>
+      <c r="AS174" s="2">
+        <v>270</v>
+      </c>
+      <c r="AT174" s="2">
+        <v>186</v>
+      </c>
+      <c r="AU174" s="2">
+        <v>43</v>
+      </c>
+      <c r="AV174" s="2">
+        <v>105</v>
+      </c>
+      <c r="AW174" s="2">
+        <v>172</v>
+      </c>
+      <c r="AX174" s="2">
+        <v>106</v>
+      </c>
+      <c r="AY174" s="2">
+        <v>63</v>
+      </c>
+      <c r="AZ174" s="2">
+        <v>15</v>
+      </c>
+      <c r="BA174" s="2">
+        <v>751</v>
+      </c>
+      <c r="BB174" s="2">
+        <v>218</v>
+      </c>
+      <c r="BC174" s="2">
+        <v>8</v>
+      </c>
+      <c r="BD174" s="2">
+        <v>10</v>
+      </c>
+      <c r="BE174" s="2">
+        <v>310</v>
+      </c>
+      <c r="BF174" s="2">
+        <v>75</v>
+      </c>
+      <c r="BG174" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH174" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI174" s="2">
+        <v>269</v>
+      </c>
+      <c r="BJ174" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK174" s="2">
+        <v>3</v>
+      </c>
+      <c r="BL174" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM174" s="2">
+        <v>144</v>
+      </c>
+      <c r="BN174" s="2">
+        <v>3912</v>
+      </c>
+      <c r="BO174" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP174" s="2">
+        <v>30</v>
+      </c>
+      <c r="BQ174" s="2">
+        <v>77</v>
+      </c>
+      <c r="BR174" s="2">
+        <v>64</v>
+      </c>
+      <c r="BS174" s="2">
+        <v>851</v>
+      </c>
+      <c r="BT174" s="2">
+        <v>184</v>
+      </c>
+      <c r="BU174" s="2">
+        <v>166</v>
+      </c>
+      <c r="BV174" s="2">
+        <v>222</v>
+      </c>
+      <c r="BW174" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX174" s="2">
+        <v>17</v>
+      </c>
+      <c r="BY174" s="2">
+        <v>53</v>
+      </c>
+      <c r="BZ174" s="2">
+        <v>86</v>
+      </c>
+      <c r="CA174" s="2">
+        <v>31</v>
+      </c>
+      <c r="CB174" s="2">
+        <v>35</v>
+      </c>
+      <c r="CC174" s="2">
+        <v>51</v>
+      </c>
+      <c r="CD174" s="2">
+        <v>85</v>
+      </c>
+      <c r="CE174" s="2">
+        <v>83</v>
+      </c>
+      <c r="CF174" s="2">
+        <v>33</v>
+      </c>
+      <c r="CG174" s="2">
+        <v>68</v>
+      </c>
+      <c r="CH174" s="2">
+        <v>306</v>
+      </c>
+      <c r="CI174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ174" s="2">
+        <v>18</v>
+      </c>
+      <c r="CK174" s="2">
+        <v>109</v>
+      </c>
+      <c r="CL174" s="2">
+        <v>96</v>
+      </c>
+      <c r="CM174" s="2">
+        <v>80</v>
+      </c>
+      <c r="CN174" s="2">
+        <v>1</v>
+      </c>
+      <c r="CO174" s="2">
+        <v>57</v>
+      </c>
+      <c r="CP174" s="2">
+        <v>402</v>
+      </c>
+      <c r="CQ174" s="2">
+        <v>48</v>
+      </c>
+      <c r="CR174" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS174" s="2">
+        <v>618</v>
+      </c>
+      <c r="CT174" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY174" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN174" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY174" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ174" s="2">
+        <v>10</v>
+      </c>
+      <c r="EA174" s="2">
+        <v>165</v>
+      </c>
+      <c r="EB174" s="2">
+        <v>771</v>
+      </c>
+      <c r="EC174" s="2">
+        <v>607</v>
+      </c>
+      <c r="ED174" s="2">
+        <v>552</v>
+      </c>
+      <c r="EE174" s="2">
+        <v>204</v>
+      </c>
+      <c r="EF174" s="2">
+        <v>83</v>
+      </c>
+      <c r="EG174" s="2">
+        <v>67</v>
+      </c>
+      <c r="EH174" s="2">
+        <v>76</v>
+      </c>
+      <c r="EI174" s="2">
+        <v>1555</v>
+      </c>
+      <c r="EJ174" s="2">
+        <v>872</v>
+      </c>
+      <c r="EK174" s="2">
+        <v>804</v>
+      </c>
+      <c r="EL174" s="2">
+        <v>254</v>
+      </c>
+      <c r="EM174" s="2">
+        <v>489</v>
+      </c>
+      <c r="EN174" s="2">
+        <v>1047</v>
+      </c>
+      <c r="EO174" s="2">
+        <v>524</v>
+      </c>
+      <c r="EP174" s="2">
+        <v>719</v>
+      </c>
+      <c r="EQ174" s="2">
+        <v>463</v>
+      </c>
+      <c r="ER174" s="2">
+        <v>1145</v>
+      </c>
+      <c r="ES174" s="2">
+        <v>601</v>
+      </c>
+      <c r="ET174" s="2">
+        <v>209</v>
+      </c>
+      <c r="EU174" s="2">
+        <v>98</v>
+      </c>
+      <c r="EV174" s="2">
+        <v>246</v>
+      </c>
+      <c r="EW174" s="2">
+        <v>247</v>
+      </c>
+      <c r="EX174" s="2">
+        <v>1075</v>
+      </c>
+      <c r="EY174" s="2">
+        <v>93</v>
+      </c>
+      <c r="EZ174" s="2">
+        <v>598</v>
+      </c>
+      <c r="FA174" s="2">
+        <v>411</v>
+      </c>
+      <c r="FB174" s="2">
+        <v>497</v>
+      </c>
+      <c r="FC174" s="2">
+        <v>332</v>
+      </c>
+      <c r="FD174" s="2">
+        <v>1271</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA53C054-A1D7-406A-B355-0720FA64E1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B22CC-A5AE-434D-8A03-1FD431783E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FD174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="FD8" sqref="B8:FD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B22CC-A5AE-434D-8A03-1FD431783E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6900963-2311-4AA8-8822-30AEC65E7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="378">
   <si>
     <t>Name</t>
   </si>
@@ -1112,82 +1112,85 @@
     <t>2024-04-12</t>
   </si>
   <si>
-    <t>2008-12:2024-09</t>
-  </si>
-  <si>
     <t>2016-02:2024-09</t>
   </si>
   <si>
-    <t>2009-04:2024-09</t>
+    <t>2024-10-28</t>
   </si>
   <si>
-    <t>2009-10:2024-09</t>
+    <t>2008-12:2024-10</t>
   </si>
   <si>
-    <t>2010-11:2024-09</t>
+    <t>2009-04:2024-10</t>
   </si>
   <si>
-    <t>2009-06:2024-09</t>
+    <t>2009-10:2024-10</t>
   </si>
   <si>
-    <t>2011-07:2024-09</t>
+    <t>2010-11:2024-10</t>
   </si>
   <si>
-    <t>2009-05:2024-09</t>
+    <t>2009-06:2024-10</t>
   </si>
   <si>
-    <t>2011-06:2024-09</t>
+    <t>2011-07:2024-10</t>
   </si>
   <si>
-    <t>2010-09:2024-09</t>
+    <t>2009-05:2024-10</t>
   </si>
   <si>
-    <t>2015-06:2024-09</t>
+    <t>2011-06:2024-10</t>
   </si>
   <si>
-    <t>2011-04:2024-09</t>
+    <t>2010-09:2024-10</t>
   </si>
   <si>
-    <t>2015-03:2024-09</t>
+    <t>2015-06:2024-10</t>
   </si>
   <si>
-    <t>2014-02:2024-09</t>
+    <t>2011-04:2024-10</t>
   </si>
   <si>
-    <t>2014-04:2024-09</t>
+    <t>2015-03:2024-10</t>
   </si>
   <si>
-    <t>2013-05:2024-09</t>
+    <t>2014-02:2024-10</t>
   </si>
   <si>
-    <t>2013-04:2024-09</t>
+    <t>2014-04:2024-10</t>
   </si>
   <si>
-    <t>2013-10:2024-09</t>
+    <t>2013-05:2024-10</t>
   </si>
   <si>
-    <t>2013-07:2024-09</t>
+    <t>2013-04:2024-10</t>
   </si>
   <si>
-    <t>2014-06:2024-09</t>
+    <t>2013-10:2024-10</t>
   </si>
   <si>
-    <t>2014-08:2024-09</t>
+    <t>2013-07:2024-10</t>
   </si>
   <si>
-    <t>2015-02:2024-09</t>
+    <t>2014-06:2024-10</t>
   </si>
   <si>
-    <t>2015-07:2024-09</t>
+    <t>2014-08:2024-10</t>
   </si>
   <si>
-    <t>2015-12:2024-09</t>
+    <t>2015-02:2024-10</t>
   </si>
   <si>
-    <t>2015-05:2024-09</t>
+    <t>2015-07:2024-10</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2015-12:2024-10</t>
+  </si>
+  <si>
+    <t>2015-05:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -1588,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD174"/>
+  <dimension ref="A1:FD175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="FD8" sqref="B8:FD8"/>
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3535,73 +3538,73 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>347</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>348</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>329</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>345</v>
@@ -3610,100 +3613,100 @@
         <v>345</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>330</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>345</v>
@@ -3712,118 +3715,118 @@
         <v>344</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="BX6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BY6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="BZ6" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CA6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CB6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CC6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CD6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CE6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CF6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CG6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CH6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="CI6" s="4" t="s">
         <v>346</v>
       </c>
       <c r="CJ6" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="CK6" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="CL6" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="CM6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CN6" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="CO6" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="CP6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CQ6" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="CR6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CS6" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CT6" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3883,7 +3886,7 @@
         <v>334</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3919,97 +3922,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="EA6" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="EB6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EC6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="ED6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EE6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EF6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EG6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="EH6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EI6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EX6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="EY6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EG6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="EH6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EI6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EJ6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EP6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EQ6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="EX6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="EY6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>367</v>
-      </c>
       <c r="FA6" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="FB6" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="FC6" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4499,73 +4502,73 @@
         <v>337</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>349</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>349</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W8" s="5" t="s">
         <v>349</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y8" s="5" t="s">
         <v>349</v>
@@ -4574,100 +4577,100 @@
         <v>349</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AQ8" s="5" t="s">
         <v>349</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BG8" s="5" t="s">
         <v>349</v>
@@ -4676,118 +4679,118 @@
         <v>350</v>
       </c>
       <c r="BI8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CI8" s="5" t="s">
         <v>349</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>339</v>
@@ -4847,7 +4850,7 @@
         <v>343</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>339</v>
@@ -4883,97 +4886,97 @@
         <v>339</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -84986,6 +84989,488 @@
       </c>
       <c r="FD174" s="2">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:160">
+      <c r="A175" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B175" s="2">
+        <v>887</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2">
+        <v>30</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>91</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K175" s="2">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2">
+        <v>23</v>
+      </c>
+      <c r="M175" s="2">
+        <v>41</v>
+      </c>
+      <c r="N175" s="2">
+        <v>3</v>
+      </c>
+      <c r="O175" s="2">
+        <v>108</v>
+      </c>
+      <c r="P175" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>0</v>
+      </c>
+      <c r="R175" s="2">
+        <v>4</v>
+      </c>
+      <c r="S175" s="2">
+        <v>12</v>
+      </c>
+      <c r="T175" s="2">
+        <v>1</v>
+      </c>
+      <c r="U175" s="2">
+        <v>0</v>
+      </c>
+      <c r="V175" s="2">
+        <v>14</v>
+      </c>
+      <c r="W175" s="2">
+        <v>0</v>
+      </c>
+      <c r="X175" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y175" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="2">
+        <v>105</v>
+      </c>
+      <c r="AB175" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC175" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD175" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE175" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF175" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG175" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH175" s="2">
+        <v>4218</v>
+      </c>
+      <c r="AI175" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ175" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK175" s="2">
+        <v>55</v>
+      </c>
+      <c r="AL175" s="2">
+        <v>102</v>
+      </c>
+      <c r="AM175" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN175" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO175" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP175" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ175" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR175" s="2">
+        <v>85</v>
+      </c>
+      <c r="AS175" s="2">
+        <v>336</v>
+      </c>
+      <c r="AT175" s="2">
+        <v>249</v>
+      </c>
+      <c r="AU175" s="2">
+        <v>43</v>
+      </c>
+      <c r="AV175" s="2">
+        <v>205</v>
+      </c>
+      <c r="AW175" s="2">
+        <v>222</v>
+      </c>
+      <c r="AX175" s="2">
+        <v>106</v>
+      </c>
+      <c r="AY175" s="2">
+        <v>63</v>
+      </c>
+      <c r="AZ175" s="2">
+        <v>15</v>
+      </c>
+      <c r="BA175" s="2">
+        <v>1122</v>
+      </c>
+      <c r="BB175" s="2">
+        <v>219</v>
+      </c>
+      <c r="BC175" s="2">
+        <v>8</v>
+      </c>
+      <c r="BD175" s="2">
+        <v>10</v>
+      </c>
+      <c r="BE175" s="2">
+        <v>310</v>
+      </c>
+      <c r="BF175" s="2">
+        <v>177</v>
+      </c>
+      <c r="BG175" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH175" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI175" s="2">
+        <v>269</v>
+      </c>
+      <c r="BJ175" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK175" s="2">
+        <v>3</v>
+      </c>
+      <c r="BL175" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM175" s="2">
+        <v>145</v>
+      </c>
+      <c r="BN175" s="2">
+        <v>4580</v>
+      </c>
+      <c r="BO175" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP175" s="2">
+        <v>30</v>
+      </c>
+      <c r="BQ175" s="2">
+        <v>179</v>
+      </c>
+      <c r="BR175" s="2">
+        <v>89</v>
+      </c>
+      <c r="BS175" s="2">
+        <v>952</v>
+      </c>
+      <c r="BT175" s="2">
+        <v>220</v>
+      </c>
+      <c r="BU175" s="2">
+        <v>271</v>
+      </c>
+      <c r="BV175" s="2">
+        <v>227</v>
+      </c>
+      <c r="BW175" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX175" s="2">
+        <v>29</v>
+      </c>
+      <c r="BY175" s="2">
+        <v>60</v>
+      </c>
+      <c r="BZ175" s="2">
+        <v>114</v>
+      </c>
+      <c r="CA175" s="2">
+        <v>38</v>
+      </c>
+      <c r="CB175" s="2">
+        <v>35</v>
+      </c>
+      <c r="CC175" s="2">
+        <v>78</v>
+      </c>
+      <c r="CD175" s="2">
+        <v>85</v>
+      </c>
+      <c r="CE175" s="2">
+        <v>96</v>
+      </c>
+      <c r="CF175" s="2">
+        <v>38</v>
+      </c>
+      <c r="CG175" s="2">
+        <v>68</v>
+      </c>
+      <c r="CH175" s="2">
+        <v>340</v>
+      </c>
+      <c r="CI175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ175" s="2">
+        <v>21</v>
+      </c>
+      <c r="CK175" s="2">
+        <v>117</v>
+      </c>
+      <c r="CL175" s="2">
+        <v>111</v>
+      </c>
+      <c r="CM175" s="2">
+        <v>86</v>
+      </c>
+      <c r="CN175" s="2">
+        <v>15</v>
+      </c>
+      <c r="CO175" s="2">
+        <v>83</v>
+      </c>
+      <c r="CP175" s="2">
+        <v>443</v>
+      </c>
+      <c r="CQ175" s="2">
+        <v>48</v>
+      </c>
+      <c r="CR175" s="2">
+        <v>38</v>
+      </c>
+      <c r="CS175" s="2">
+        <v>670</v>
+      </c>
+      <c r="CT175" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY175" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN175" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY175" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ175" s="2">
+        <v>13</v>
+      </c>
+      <c r="EA175" s="2">
+        <v>177</v>
+      </c>
+      <c r="EB175" s="2">
+        <v>1088</v>
+      </c>
+      <c r="EC175" s="2">
+        <v>716</v>
+      </c>
+      <c r="ED175" s="2">
+        <v>793</v>
+      </c>
+      <c r="EE175" s="2">
+        <v>216</v>
+      </c>
+      <c r="EF175" s="2">
+        <v>93</v>
+      </c>
+      <c r="EG175" s="2">
+        <v>97</v>
+      </c>
+      <c r="EH175" s="2">
+        <v>92</v>
+      </c>
+      <c r="EI175" s="2">
+        <v>1693</v>
+      </c>
+      <c r="EJ175" s="2">
+        <v>1000</v>
+      </c>
+      <c r="EK175" s="2">
+        <v>895</v>
+      </c>
+      <c r="EL175" s="2">
+        <v>282</v>
+      </c>
+      <c r="EM175" s="2">
+        <v>509</v>
+      </c>
+      <c r="EN175" s="2">
+        <v>1175</v>
+      </c>
+      <c r="EO175" s="2">
+        <v>555</v>
+      </c>
+      <c r="EP175" s="2">
+        <v>822</v>
+      </c>
+      <c r="EQ175" s="2">
+        <v>501</v>
+      </c>
+      <c r="ER175" s="2">
+        <v>1258</v>
+      </c>
+      <c r="ES175" s="2">
+        <v>674</v>
+      </c>
+      <c r="ET175" s="2">
+        <v>227</v>
+      </c>
+      <c r="EU175" s="2">
+        <v>106</v>
+      </c>
+      <c r="EV175" s="2">
+        <v>269</v>
+      </c>
+      <c r="EW175" s="2">
+        <v>247</v>
+      </c>
+      <c r="EX175" s="2">
+        <v>1131</v>
+      </c>
+      <c r="EY175" s="2">
+        <v>100</v>
+      </c>
+      <c r="EZ175" s="2">
+        <v>680</v>
+      </c>
+      <c r="FA175" s="2">
+        <v>439</v>
+      </c>
+      <c r="FB175" s="2">
+        <v>532</v>
+      </c>
+      <c r="FC175" s="2">
+        <v>383</v>
+      </c>
+      <c r="FD175" s="2">
+        <v>1366</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6900963-2311-4AA8-8822-30AEC65E7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488E6EA-9A3B-487F-A430-E893F652B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:FD175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N165" sqref="N165"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A488E6EA-9A3B-487F-A430-E893F652B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166DC71-D6C5-4357-93E1-DD21B43AF3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="377">
   <si>
     <t>Name</t>
   </si>
@@ -1097,9 +1097,6 @@
     <t>2008-12:2023-11</t>
   </si>
   <si>
-    <t>2009-04:2023-11</t>
-  </si>
-  <si>
     <t>2009-11:2023-11</t>
   </si>
   <si>
@@ -1118,79 +1115,79 @@
     <t>2024-10-28</t>
   </si>
   <si>
-    <t>2008-12:2024-10</t>
+    <t>2008-12:2024-11</t>
   </si>
   <si>
-    <t>2009-04:2024-10</t>
+    <t>2009-04:2024-11</t>
   </si>
   <si>
-    <t>2009-10:2024-10</t>
+    <t>2009-10:2024-11</t>
   </si>
   <si>
-    <t>2010-11:2024-10</t>
+    <t>2010-11:2024-11</t>
   </si>
   <si>
-    <t>2009-06:2024-10</t>
+    <t>2009-06:2024-11</t>
   </si>
   <si>
-    <t>2011-07:2024-10</t>
+    <t>2011-07:2024-11</t>
   </si>
   <si>
-    <t>2009-05:2024-10</t>
+    <t>2009-05:2024-11</t>
   </si>
   <si>
-    <t>2011-06:2024-10</t>
+    <t>2011-06:2024-11</t>
   </si>
   <si>
-    <t>2010-09:2024-10</t>
+    <t>2010-09:2024-11</t>
   </si>
   <si>
-    <t>2015-06:2024-10</t>
+    <t>2015-06:2024-11</t>
   </si>
   <si>
-    <t>2011-04:2024-10</t>
+    <t>2011-04:2024-11</t>
   </si>
   <si>
-    <t>2015-03:2024-10</t>
+    <t>2015-03:2024-11</t>
   </si>
   <si>
-    <t>2014-02:2024-10</t>
+    <t>2014-02:2024-11</t>
   </si>
   <si>
-    <t>2014-04:2024-10</t>
+    <t>2014-04:2024-11</t>
   </si>
   <si>
-    <t>2013-05:2024-10</t>
+    <t>2013-05:2024-11</t>
   </si>
   <si>
-    <t>2013-04:2024-10</t>
+    <t>2013-04:2024-11</t>
   </si>
   <si>
-    <t>2013-10:2024-10</t>
+    <t>2013-10:2024-11</t>
   </si>
   <si>
-    <t>2013-07:2024-10</t>
+    <t>2013-07:2024-11</t>
   </si>
   <si>
-    <t>2014-06:2024-10</t>
+    <t>2014-06:2024-11</t>
   </si>
   <si>
-    <t>2014-08:2024-10</t>
+    <t>2014-08:2024-11</t>
   </si>
   <si>
-    <t>2015-02:2024-10</t>
+    <t>2015-02:2024-11</t>
   </si>
   <si>
-    <t>2015-07:2024-10</t>
+    <t>2015-07:2024-11</t>
   </si>
   <si>
-    <t>2015-12:2024-10</t>
+    <t>2015-12:2024-11</t>
   </si>
   <si>
-    <t>2015-05:2024-10</t>
+    <t>2015-05:2024-11</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FD175"/>
+  <dimension ref="A1:FD176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -3538,175 +3535,175 @@
         <v>324</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>326</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>328</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>356</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>329</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AA6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="AF6" s="4" t="s">
         <v>330</v>
       </c>
       <c r="AG6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AK6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AO6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AP6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AQ6" s="4" t="s">
         <v>345</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BE6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BF6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BG6" s="4" t="s">
         <v>345</v>
@@ -3715,118 +3712,118 @@
         <v>344</v>
       </c>
       <c r="BI6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BL6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BO6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="BP6" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BQ6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BR6" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BS6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BT6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BU6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BV6" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BW6" s="4" t="s">
         <v>331</v>
       </c>
       <c r="BX6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="BY6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="BZ6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="CA6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CB6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CC6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CD6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CE6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CF6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CG6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CH6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="CI6" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="BY6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="BZ6" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="CA6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CB6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CC6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CD6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CE6" s="4" t="s">
+      <c r="CJ6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="CK6" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="CL6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="CM6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CN6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="CO6" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="CF6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CG6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CH6" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="CI6" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="CJ6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="CK6" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL6" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="CM6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CN6" s="4" t="s">
+      <c r="CP6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CQ6" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="CO6" s="4" t="s">
+      <c r="CR6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CS6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="CT6" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="CP6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CQ6" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="CR6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CS6" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="CT6" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="CU6" s="4" t="s">
         <v>328</v>
@@ -3886,7 +3883,7 @@
         <v>334</v>
       </c>
       <c r="DN6" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DO6" s="4" t="s">
         <v>326</v>
@@ -3922,97 +3919,97 @@
         <v>328</v>
       </c>
       <c r="DZ6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="EA6" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="EA6" s="4" t="s">
+      <c r="EB6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="EB6" s="4" t="s">
+      <c r="EC6" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="EC6" s="4" t="s">
+      <c r="ED6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="ED6" s="4" t="s">
+      <c r="EE6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EF6" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="EE6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EF6" s="4" t="s">
+      <c r="EG6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="EH6" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="EG6" s="4" t="s">
+      <c r="EI6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EJ6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EK6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EL6" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="EM6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EN6" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="EO6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="EP6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EQ6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="ER6" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="EH6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EI6" s="4" t="s">
+      <c r="ES6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="ET6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="EU6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EV6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="EW6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="EX6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="EY6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="EZ6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EJ6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EK6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EL6" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EM6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EN6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="EO6" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="EP6" s="4" t="s">
+      <c r="FA6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EQ6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="ER6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="ES6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ET6" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="EU6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EV6" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="EW6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EX6" s="4" t="s">
+      <c r="FB6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="EY6" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="EZ6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="FA6" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="FB6" s="4" t="s">
-        <v>368</v>
-      </c>
       <c r="FC6" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="FD6" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:160">
@@ -4502,295 +4499,295 @@
         <v>337</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>338</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF8" s="5" t="s">
         <v>340</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AQ8" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="BH8" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="AR8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>350</v>
-      </c>
       <c r="BI8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BJ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BK8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BL8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BM8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="BP8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BQ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BR8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BS8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BT8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BU8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BV8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BW8" s="5" t="s">
         <v>341</v>
       </c>
       <c r="BX8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BY8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BZ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CA8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CB8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CC8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CD8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CE8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CH8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CI8" s="5" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="CJ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CL8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CO8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CP8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CQ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CS8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CT8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CU8" s="5" t="s">
         <v>339</v>
@@ -4850,7 +4847,7 @@
         <v>343</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="DO8" s="5" t="s">
         <v>339</v>
@@ -4886,97 +4883,97 @@
         <v>339</v>
       </c>
       <c r="DZ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EA8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EB8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="ED8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EE8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EF8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EG8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EI8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EJ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EK8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EM8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EN8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EO8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EQ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="ER8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="ET8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EU8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EV8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EW8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EX8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EY8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="EZ8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="FA8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="FB8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="FC8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="FD8" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:160">
@@ -85471,6 +85468,488 @@
       </c>
       <c r="FD175" s="2">
         <v>1366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:160">
+      <c r="A176" s="3">
+        <v>45626</v>
+      </c>
+      <c r="B176" s="2">
+        <v>998</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2">
+        <v>30</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>121</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K176" s="2">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2">
+        <v>23</v>
+      </c>
+      <c r="M176" s="2">
+        <v>76</v>
+      </c>
+      <c r="N176" s="2">
+        <v>3</v>
+      </c>
+      <c r="O176" s="2">
+        <v>108</v>
+      </c>
+      <c r="P176" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>0</v>
+      </c>
+      <c r="R176" s="2">
+        <v>4</v>
+      </c>
+      <c r="S176" s="2">
+        <v>12</v>
+      </c>
+      <c r="T176" s="2">
+        <v>1</v>
+      </c>
+      <c r="U176" s="2">
+        <v>0</v>
+      </c>
+      <c r="V176" s="2">
+        <v>14</v>
+      </c>
+      <c r="W176" s="2">
+        <v>0</v>
+      </c>
+      <c r="X176" s="2">
+        <v>93</v>
+      </c>
+      <c r="Y176" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="2">
+        <v>12</v>
+      </c>
+      <c r="AA176" s="2">
+        <v>105</v>
+      </c>
+      <c r="AB176" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="AC176" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD176" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE176" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF176" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG176" s="2">
+        <v>106</v>
+      </c>
+      <c r="AH176" s="2">
+        <v>4744</v>
+      </c>
+      <c r="AI176" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ176" s="2">
+        <v>55</v>
+      </c>
+      <c r="AK176" s="2">
+        <v>55</v>
+      </c>
+      <c r="AL176" s="2">
+        <v>105</v>
+      </c>
+      <c r="AM176" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN176" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO176" s="2">
+        <v>3</v>
+      </c>
+      <c r="AP176" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ176" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR176" s="2">
+        <v>100</v>
+      </c>
+      <c r="AS176" s="2">
+        <v>436</v>
+      </c>
+      <c r="AT176" s="2">
+        <v>249</v>
+      </c>
+      <c r="AU176" s="2">
+        <v>143</v>
+      </c>
+      <c r="AV176" s="2">
+        <v>205</v>
+      </c>
+      <c r="AW176" s="2">
+        <v>222</v>
+      </c>
+      <c r="AX176" s="2">
+        <v>112</v>
+      </c>
+      <c r="AY176" s="2">
+        <v>64</v>
+      </c>
+      <c r="AZ176" s="2">
+        <v>17</v>
+      </c>
+      <c r="BA176" s="2">
+        <v>1126</v>
+      </c>
+      <c r="BB176" s="2">
+        <v>231</v>
+      </c>
+      <c r="BC176" s="2">
+        <v>8</v>
+      </c>
+      <c r="BD176" s="2">
+        <v>11</v>
+      </c>
+      <c r="BE176" s="2">
+        <v>310</v>
+      </c>
+      <c r="BF176" s="2">
+        <v>177</v>
+      </c>
+      <c r="BG176" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH176" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI176" s="2">
+        <v>470</v>
+      </c>
+      <c r="BJ176" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK176" s="2">
+        <v>3</v>
+      </c>
+      <c r="BL176" s="2">
+        <v>17</v>
+      </c>
+      <c r="BM176" s="2">
+        <v>211</v>
+      </c>
+      <c r="BN176" s="2">
+        <v>5175</v>
+      </c>
+      <c r="BO176" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP176" s="2">
+        <v>39</v>
+      </c>
+      <c r="BQ176" s="2">
+        <v>245</v>
+      </c>
+      <c r="BR176" s="2">
+        <v>102</v>
+      </c>
+      <c r="BS176" s="2">
+        <v>962</v>
+      </c>
+      <c r="BT176" s="2">
+        <v>229</v>
+      </c>
+      <c r="BU176" s="2">
+        <v>294</v>
+      </c>
+      <c r="BV176" s="2">
+        <v>259</v>
+      </c>
+      <c r="BW176" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX176" s="2">
+        <v>32</v>
+      </c>
+      <c r="BY176" s="2">
+        <v>62</v>
+      </c>
+      <c r="BZ176" s="2">
+        <v>147</v>
+      </c>
+      <c r="CA176" s="2">
+        <v>38</v>
+      </c>
+      <c r="CB176" s="2">
+        <v>42</v>
+      </c>
+      <c r="CC176" s="2">
+        <v>78</v>
+      </c>
+      <c r="CD176" s="2">
+        <v>95</v>
+      </c>
+      <c r="CE176" s="2">
+        <v>106</v>
+      </c>
+      <c r="CF176" s="2">
+        <v>69</v>
+      </c>
+      <c r="CG176" s="2">
+        <v>72</v>
+      </c>
+      <c r="CH176" s="2">
+        <v>400</v>
+      </c>
+      <c r="CI176" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="CJ176" s="2">
+        <v>27</v>
+      </c>
+      <c r="CK176" s="2">
+        <v>120</v>
+      </c>
+      <c r="CL176" s="2">
+        <v>120</v>
+      </c>
+      <c r="CM176" s="2">
+        <v>99</v>
+      </c>
+      <c r="CN176" s="2">
+        <v>40</v>
+      </c>
+      <c r="CO176" s="2">
+        <v>104</v>
+      </c>
+      <c r="CP176" s="2">
+        <v>466</v>
+      </c>
+      <c r="CQ176" s="2">
+        <v>66</v>
+      </c>
+      <c r="CR176" s="2">
+        <v>39</v>
+      </c>
+      <c r="CS176" s="2">
+        <v>822</v>
+      </c>
+      <c r="CT176" s="2">
+        <v>119</v>
+      </c>
+      <c r="CU176" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV176" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW176" s="2">
+        <v>0</v>
+      </c>
+      <c r="CX176" s="2">
+        <v>0</v>
+      </c>
+      <c r="CY176" s="2">
+        <v>0</v>
+      </c>
+      <c r="CZ176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DA176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DB176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DC176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DD176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DH176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DJ176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DK176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DM176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DN176" s="2">
+        <v>119</v>
+      </c>
+      <c r="DO176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DP176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DQ176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DR176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DS176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DT176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DU176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DV176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DW176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DX176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DY176" s="2">
+        <v>0</v>
+      </c>
+      <c r="DZ176" s="2">
+        <v>18</v>
+      </c>
+      <c r="EA176" s="2">
+        <v>190</v>
+      </c>
+      <c r="EB176" s="2">
+        <v>1247</v>
+      </c>
+      <c r="EC176" s="2">
+        <v>780</v>
+      </c>
+      <c r="ED176" s="2">
+        <v>1012</v>
+      </c>
+      <c r="EE176" s="2">
+        <v>225</v>
+      </c>
+      <c r="EF176" s="2">
+        <v>102</v>
+      </c>
+      <c r="EG176" s="2">
+        <v>114</v>
+      </c>
+      <c r="EH176" s="2">
+        <v>109</v>
+      </c>
+      <c r="EI176" s="2">
+        <v>1937</v>
+      </c>
+      <c r="EJ176" s="2">
+        <v>1164</v>
+      </c>
+      <c r="EK176" s="2">
+        <v>988</v>
+      </c>
+      <c r="EL176" s="2">
+        <v>318</v>
+      </c>
+      <c r="EM176" s="2">
+        <v>525</v>
+      </c>
+      <c r="EN176" s="2">
+        <v>1305</v>
+      </c>
+      <c r="EO176" s="2">
+        <v>591</v>
+      </c>
+      <c r="EP176" s="2">
+        <v>916</v>
+      </c>
+      <c r="EQ176" s="2">
+        <v>541</v>
+      </c>
+      <c r="ER176" s="2">
+        <v>1395</v>
+      </c>
+      <c r="ES176" s="2">
+        <v>786</v>
+      </c>
+      <c r="ET176" s="2">
+        <v>254</v>
+      </c>
+      <c r="EU176" s="2">
+        <v>128</v>
+      </c>
+      <c r="EV176" s="2">
+        <v>393</v>
+      </c>
+      <c r="EW176" s="2">
+        <v>303</v>
+      </c>
+      <c r="EX176" s="2">
+        <v>1241</v>
+      </c>
+      <c r="EY176" s="2">
+        <v>133</v>
+      </c>
+      <c r="EZ176" s="2">
+        <v>786</v>
+      </c>
+      <c r="FA176" s="2">
+        <v>464</v>
+      </c>
+      <c r="FB176" s="2">
+        <v>544</v>
+      </c>
+      <c r="FC176" s="2">
+        <v>402</v>
+      </c>
+      <c r="FD176" s="2">
+        <v>1717</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/New power capacity by province and type.xlsx
+++ b/inst/extdata/New power capacity by province and type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B166DC71-D6C5-4357-93E1-DD21B43AF3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D443FEBC-0ACD-4820-B3A1-5E52ADA3814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_ New Power Construction C" sheetId="1" r:id="rId1"/>
